--- a/FPGA_Developments/COM_Module_v1_5/References/NFEE_RMAP_Mem_VHDL_Big_Endian.xlsx
+++ b/FPGA_Developments/COM_Module_v1_5/References/NFEE_RMAP_Mem_VHDL_Big_Endian.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7933C6D3-E120-4695-95AE-A4C439032F1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DF78B-3485-4F08-9DA6-19940D00B630}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register TREATED VHDL" sheetId="2" r:id="rId1"/>
@@ -638,28 +638,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2136,12 +2136,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F3" t="str">
-            <v>0x0000_0701</v>
+            <v>0x0000_0703</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4" t="str">
-            <v>0x0000_0700</v>
+            <v>0x0000_0702</v>
           </cell>
         </row>
         <row r="5">
@@ -2149,12 +2149,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0x0000_0703</v>
+            <v>0x0000_0701</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6" t="str">
-            <v>0x0000_0702</v>
+            <v>0x0000_0700</v>
           </cell>
         </row>
         <row r="7">
@@ -2162,12 +2162,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F7" t="str">
-            <v>0x0000_0705</v>
+            <v>0x0000_0707</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8" t="str">
-            <v>0x0000_0704</v>
+            <v>0x0000_0706</v>
           </cell>
         </row>
         <row r="9">
@@ -2175,12 +2175,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F9" t="str">
-            <v>0x0000_0707</v>
+            <v>0x0000_0705</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10" t="str">
-            <v>0x0000_0706</v>
+            <v>0x0000_0704</v>
           </cell>
         </row>
         <row r="11">
@@ -2188,12 +2188,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F11" t="str">
-            <v>0x0000_0709</v>
+            <v>0x0000_070B</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12" t="str">
-            <v>0x0000_0708</v>
+            <v>0x0000_070A</v>
           </cell>
         </row>
         <row r="13">
@@ -2201,12 +2201,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0x0000_070B</v>
+            <v>0x0000_0709</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14" t="str">
-            <v>0x0000_070A</v>
+            <v>0x0000_0708</v>
           </cell>
         </row>
         <row r="15">
@@ -2214,12 +2214,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F15" t="str">
-            <v>0x0000_070D</v>
+            <v>0x0000_070F</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16" t="str">
-            <v>0x0000_070C</v>
+            <v>0x0000_070E</v>
           </cell>
         </row>
         <row r="17">
@@ -2227,12 +2227,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F17" t="str">
-            <v>0x0000_070F</v>
+            <v>0x0000_070D</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18" t="str">
-            <v>0x0000_070E</v>
+            <v>0x0000_070C</v>
           </cell>
         </row>
         <row r="19">
@@ -2240,12 +2240,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F19" t="str">
-            <v>0x0000_0711</v>
+            <v>0x0000_0713</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20" t="str">
-            <v>0x0000_0710</v>
+            <v>0x0000_0712</v>
           </cell>
         </row>
         <row r="21">
@@ -2253,12 +2253,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F21" t="str">
-            <v>0x0000_0713</v>
+            <v>0x0000_0711</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22" t="str">
-            <v>0x0000_0712</v>
+            <v>0x0000_0710</v>
           </cell>
         </row>
         <row r="23">
@@ -2266,12 +2266,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F23" t="str">
-            <v>0x0000_0715</v>
+            <v>0x0000_0717</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24" t="str">
-            <v>0x0000_0714</v>
+            <v>0x0000_0716</v>
           </cell>
         </row>
         <row r="25">
@@ -2279,12 +2279,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F25" t="str">
-            <v>0x0000_0717</v>
+            <v>0x0000_0715</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26" t="str">
-            <v>0x0000_0716</v>
+            <v>0x0000_0714</v>
           </cell>
         </row>
         <row r="27">
@@ -2292,12 +2292,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F27" t="str">
-            <v>0x0000_0719</v>
+            <v>0x0000_071B</v>
           </cell>
         </row>
         <row r="28">
           <cell r="F28" t="str">
-            <v>0x0000_0718</v>
+            <v>0x0000_071A</v>
           </cell>
         </row>
         <row r="29">
@@ -2305,12 +2305,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F29" t="str">
-            <v>0x0000_071B</v>
+            <v>0x0000_0719</v>
           </cell>
         </row>
         <row r="30">
           <cell r="F30" t="str">
-            <v>0x0000_071A</v>
+            <v>0x0000_0718</v>
           </cell>
         </row>
         <row r="31">
@@ -2318,12 +2318,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F31" t="str">
-            <v>0x0000_071D</v>
+            <v>0x0000_071F</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32" t="str">
-            <v>0x0000_071C</v>
+            <v>0x0000_071E</v>
           </cell>
         </row>
         <row r="33">
@@ -2331,12 +2331,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F33" t="str">
-            <v>0x0000_071F</v>
+            <v>0x0000_071D</v>
           </cell>
         </row>
         <row r="34">
           <cell r="F34" t="str">
-            <v>0x0000_071E</v>
+            <v>0x0000_071C</v>
           </cell>
         </row>
         <row r="35">
@@ -2344,12 +2344,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F35" t="str">
-            <v>0x0000_0721</v>
+            <v>0x0000_0723</v>
           </cell>
         </row>
         <row r="36">
           <cell r="F36" t="str">
-            <v>0x0000_0720</v>
+            <v>0x0000_0722</v>
           </cell>
         </row>
         <row r="37">
@@ -2357,12 +2357,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F37" t="str">
-            <v>0x0000_0723</v>
+            <v>0x0000_0721</v>
           </cell>
         </row>
         <row r="38">
           <cell r="F38" t="str">
-            <v>0x0000_0722</v>
+            <v>0x0000_0720</v>
           </cell>
         </row>
         <row r="39">
@@ -2370,12 +2370,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F39" t="str">
-            <v>0x0000_0725</v>
+            <v>0x0000_0727</v>
           </cell>
         </row>
         <row r="40">
           <cell r="F40" t="str">
-            <v>0x0000_0724</v>
+            <v>0x0000_0726</v>
           </cell>
         </row>
         <row r="41">
@@ -2383,12 +2383,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F41" t="str">
-            <v>0x0000_0727</v>
+            <v>0x0000_0725</v>
           </cell>
         </row>
         <row r="42">
           <cell r="F42" t="str">
-            <v>0x0000_0726</v>
+            <v>0x0000_0724</v>
           </cell>
         </row>
         <row r="43">
@@ -2396,12 +2396,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F43" t="str">
-            <v>0x0000_0729</v>
+            <v>0x0000_072B</v>
           </cell>
         </row>
         <row r="44">
           <cell r="F44" t="str">
-            <v>0x0000_0728</v>
+            <v>0x0000_072A</v>
           </cell>
         </row>
         <row r="45">
@@ -2409,12 +2409,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F45" t="str">
-            <v>0x0000_072B</v>
+            <v>0x0000_0729</v>
           </cell>
         </row>
         <row r="46">
           <cell r="F46" t="str">
-            <v>0x0000_072A</v>
+            <v>0x0000_0728</v>
           </cell>
         </row>
         <row r="47">
@@ -2422,12 +2422,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F47" t="str">
-            <v>0x0000_072D</v>
+            <v>0x0000_072F</v>
           </cell>
         </row>
         <row r="48">
           <cell r="F48" t="str">
-            <v>0x0000_072C</v>
+            <v>0x0000_072E</v>
           </cell>
         </row>
         <row r="49">
@@ -2435,12 +2435,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F49" t="str">
-            <v>0x0000_072F</v>
+            <v>0x0000_072D</v>
           </cell>
         </row>
         <row r="50">
           <cell r="F50" t="str">
-            <v>0x0000_072E</v>
+            <v>0x0000_072C</v>
           </cell>
         </row>
         <row r="51">
@@ -2448,12 +2448,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F51" t="str">
-            <v>0x0000_0731</v>
+            <v>0x0000_0733</v>
           </cell>
         </row>
         <row r="52">
           <cell r="F52" t="str">
-            <v>0x0000_0730</v>
+            <v>0x0000_0732</v>
           </cell>
         </row>
         <row r="53">
@@ -2461,12 +2461,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F53" t="str">
-            <v>0x0000_0733</v>
+            <v>0x0000_0731</v>
           </cell>
         </row>
         <row r="54">
           <cell r="F54" t="str">
-            <v>0x0000_0732</v>
+            <v>0x0000_0730</v>
           </cell>
         </row>
         <row r="55">
@@ -2474,12 +2474,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F55" t="str">
-            <v>0x0000_0735</v>
+            <v>0x0000_0737</v>
           </cell>
         </row>
         <row r="56">
           <cell r="F56" t="str">
-            <v>0x0000_0734</v>
+            <v>0x0000_0736</v>
           </cell>
         </row>
         <row r="57">
@@ -2487,12 +2487,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F57" t="str">
-            <v>0x0000_0737</v>
+            <v>0x0000_0735</v>
           </cell>
         </row>
         <row r="58">
           <cell r="F58" t="str">
-            <v>0x0000_0736</v>
+            <v>0x0000_0734</v>
           </cell>
         </row>
         <row r="59">
@@ -2500,12 +2500,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F59" t="str">
-            <v>0x0000_0739</v>
+            <v>0x0000_073B</v>
           </cell>
         </row>
         <row r="60">
           <cell r="F60" t="str">
-            <v>0x0000_0738</v>
+            <v>0x0000_073A</v>
           </cell>
         </row>
         <row r="61">
@@ -2513,12 +2513,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F61" t="str">
-            <v>0x0000_073B</v>
+            <v>0x0000_0739</v>
           </cell>
         </row>
         <row r="62">
           <cell r="F62" t="str">
-            <v>0x0000_073A</v>
+            <v>0x0000_0738</v>
           </cell>
         </row>
         <row r="63">
@@ -2526,12 +2526,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F63" t="str">
-            <v>0x0000_073D</v>
+            <v>0x0000_073F</v>
           </cell>
         </row>
         <row r="64">
           <cell r="F64" t="str">
-            <v>0x0000_073C</v>
+            <v>0x0000_073E</v>
           </cell>
         </row>
         <row r="65">
@@ -2539,12 +2539,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F65" t="str">
-            <v>0x0000_073F</v>
+            <v>0x0000_073D</v>
           </cell>
         </row>
         <row r="66">
           <cell r="F66" t="str">
-            <v>0x0000_073E</v>
+            <v>0x0000_073C</v>
           </cell>
         </row>
         <row r="67">
@@ -2552,12 +2552,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F67" t="str">
-            <v>0x0000_0741</v>
+            <v>0x0000_0743</v>
           </cell>
         </row>
         <row r="68">
           <cell r="F68" t="str">
-            <v>0x0000_0740</v>
+            <v>0x0000_0742</v>
           </cell>
         </row>
         <row r="69">
@@ -2565,12 +2565,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F69" t="str">
-            <v>0x0000_0743</v>
+            <v>0x0000_0741</v>
           </cell>
         </row>
         <row r="70">
           <cell r="F70" t="str">
-            <v>0x0000_0742</v>
+            <v>0x0000_0740</v>
           </cell>
         </row>
         <row r="71">
@@ -2578,12 +2578,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F71" t="str">
-            <v>0x0000_0745</v>
+            <v>0x0000_0747</v>
           </cell>
         </row>
         <row r="72">
           <cell r="F72" t="str">
-            <v>0x0000_0744</v>
+            <v>0x0000_0746</v>
           </cell>
         </row>
         <row r="73">
@@ -2591,12 +2591,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F73" t="str">
-            <v>0x0000_0747</v>
+            <v>0x0000_0745</v>
           </cell>
         </row>
         <row r="74">
           <cell r="F74" t="str">
-            <v>0x0000_0746</v>
+            <v>0x0000_0744</v>
           </cell>
         </row>
         <row r="75">
@@ -2604,12 +2604,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F75" t="str">
-            <v>0x0000_0749</v>
+            <v>0x0000_074B</v>
           </cell>
         </row>
         <row r="76">
           <cell r="F76" t="str">
-            <v>0x0000_0748</v>
+            <v>0x0000_074A</v>
           </cell>
         </row>
         <row r="77">
@@ -2617,12 +2617,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F77" t="str">
-            <v>0x0000_074B</v>
+            <v>0x0000_0749</v>
           </cell>
         </row>
         <row r="78">
           <cell r="F78" t="str">
-            <v>0x0000_074A</v>
+            <v>0x0000_0748</v>
           </cell>
         </row>
         <row r="79">
@@ -2630,12 +2630,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F79" t="str">
-            <v>0x0000_074D</v>
+            <v>0x0000_074F</v>
           </cell>
         </row>
         <row r="80">
           <cell r="F80" t="str">
-            <v>0x0000_074C</v>
+            <v>0x0000_074E</v>
           </cell>
         </row>
         <row r="81">
@@ -2643,12 +2643,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F81" t="str">
-            <v>0x0000_074F</v>
+            <v>0x0000_074D</v>
           </cell>
         </row>
         <row r="82">
           <cell r="F82" t="str">
-            <v>0x0000_074E</v>
+            <v>0x0000_074C</v>
           </cell>
         </row>
         <row r="83">
@@ -2656,12 +2656,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F83" t="str">
-            <v>0x0000_0751</v>
+            <v>0x0000_0753</v>
           </cell>
         </row>
         <row r="84">
           <cell r="F84" t="str">
-            <v>0x0000_0750</v>
+            <v>0x0000_0752</v>
           </cell>
         </row>
         <row r="85">
@@ -2669,12 +2669,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F85" t="str">
-            <v>0x0000_0753</v>
+            <v>0x0000_0751</v>
           </cell>
         </row>
         <row r="86">
           <cell r="F86" t="str">
-            <v>0x0000_0752</v>
+            <v>0x0000_0750</v>
           </cell>
         </row>
         <row r="87">
@@ -2682,12 +2682,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F87" t="str">
-            <v>0x0000_0755</v>
+            <v>0x0000_0757</v>
           </cell>
         </row>
         <row r="88">
           <cell r="F88" t="str">
-            <v>0x0000_0754</v>
+            <v>0x0000_0756</v>
           </cell>
         </row>
         <row r="89">
@@ -2695,12 +2695,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F89" t="str">
-            <v>0x0000_0757</v>
+            <v>0x0000_0755</v>
           </cell>
         </row>
         <row r="90">
           <cell r="F90" t="str">
-            <v>0x0000_0756</v>
+            <v>0x0000_0754</v>
           </cell>
         </row>
         <row r="91">
@@ -2708,12 +2708,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F91" t="str">
-            <v>0x0000_0759</v>
+            <v>0x0000_075B</v>
           </cell>
         </row>
         <row r="92">
           <cell r="F92" t="str">
-            <v>0x0000_0758</v>
+            <v>0x0000_075A</v>
           </cell>
         </row>
         <row r="93">
@@ -2721,12 +2721,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F93" t="str">
-            <v>0x0000_075B</v>
+            <v>0x0000_0759</v>
           </cell>
         </row>
         <row r="94">
           <cell r="F94" t="str">
-            <v>0x0000_075A</v>
+            <v>0x0000_0758</v>
           </cell>
         </row>
         <row r="95">
@@ -2734,12 +2734,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F95" t="str">
-            <v>0x0000_075D</v>
+            <v>0x0000_075F</v>
           </cell>
         </row>
         <row r="96">
           <cell r="F96" t="str">
-            <v>0x0000_075C</v>
+            <v>0x0000_075E</v>
           </cell>
         </row>
         <row r="97">
@@ -2747,12 +2747,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F97" t="str">
-            <v>0x0000_075F</v>
+            <v>0x0000_075D</v>
           </cell>
         </row>
         <row r="98">
           <cell r="F98" t="str">
-            <v>0x0000_075E</v>
+            <v>0x0000_075C</v>
           </cell>
         </row>
         <row r="99">
@@ -2760,12 +2760,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F99" t="str">
-            <v>0x0000_0761</v>
+            <v>0x0000_0763</v>
           </cell>
         </row>
         <row r="100">
           <cell r="F100" t="str">
-            <v>0x0000_0760</v>
+            <v>0x0000_0762</v>
           </cell>
         </row>
         <row r="101">
@@ -2773,12 +2773,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F101" t="str">
-            <v>0x0000_0763</v>
+            <v>0x0000_0761</v>
           </cell>
         </row>
         <row r="102">
           <cell r="F102" t="str">
-            <v>0x0000_0762</v>
+            <v>0x0000_0760</v>
           </cell>
         </row>
         <row r="103">
@@ -2786,12 +2786,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F103" t="str">
-            <v>0x0000_0765</v>
+            <v>0x0000_0767</v>
           </cell>
         </row>
         <row r="104">
           <cell r="F104" t="str">
-            <v>0x0000_0764</v>
+            <v>0x0000_0766</v>
           </cell>
         </row>
         <row r="105">
@@ -2799,12 +2799,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F105" t="str">
-            <v>0x0000_0767</v>
+            <v>0x0000_0765</v>
           </cell>
         </row>
         <row r="106">
           <cell r="F106" t="str">
-            <v>0x0000_0766</v>
+            <v>0x0000_0764</v>
           </cell>
         </row>
         <row r="107">
@@ -2812,12 +2812,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F107" t="str">
-            <v>0x0000_0769</v>
+            <v>0x0000_076B</v>
           </cell>
         </row>
         <row r="108">
           <cell r="F108" t="str">
-            <v>0x0000_0768</v>
+            <v>0x0000_076A</v>
           </cell>
         </row>
         <row r="109">
@@ -2825,12 +2825,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F109" t="str">
-            <v>0x0000_076B</v>
+            <v>0x0000_0769</v>
           </cell>
         </row>
         <row r="110">
           <cell r="F110" t="str">
-            <v>0x0000_076A</v>
+            <v>0x0000_0768</v>
           </cell>
         </row>
         <row r="111">
@@ -2838,12 +2838,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F111" t="str">
-            <v>0x0000_076D</v>
+            <v>0x0000_076F</v>
           </cell>
         </row>
         <row r="112">
           <cell r="F112" t="str">
-            <v>0x0000_076C</v>
+            <v>0x0000_076E</v>
           </cell>
         </row>
         <row r="113">
@@ -2851,12 +2851,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F113" t="str">
-            <v>0x0000_076F</v>
+            <v>0x0000_076D</v>
           </cell>
         </row>
         <row r="114">
           <cell r="F114" t="str">
-            <v>0x0000_076E</v>
+            <v>0x0000_076C</v>
           </cell>
         </row>
         <row r="115">
@@ -2864,12 +2864,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F115" t="str">
-            <v>0x0000_0771</v>
+            <v>0x0000_0773</v>
           </cell>
         </row>
         <row r="116">
           <cell r="F116" t="str">
-            <v>0x0000_0770</v>
+            <v>0x0000_0772</v>
           </cell>
         </row>
         <row r="117">
@@ -2877,12 +2877,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F117" t="str">
-            <v>0x0000_0773</v>
+            <v>0x0000_0771</v>
           </cell>
         </row>
         <row r="118">
           <cell r="F118" t="str">
-            <v>0x0000_0772</v>
+            <v>0x0000_0770</v>
           </cell>
         </row>
         <row r="119">
@@ -2890,12 +2890,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F119" t="str">
-            <v>0x0000_0775</v>
+            <v>0x0000_0777</v>
           </cell>
         </row>
         <row r="120">
           <cell r="F120" t="str">
-            <v>0x0000_0774</v>
+            <v>0x0000_0776</v>
           </cell>
         </row>
         <row r="121">
@@ -2903,12 +2903,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F121" t="str">
-            <v>0x0000_0777</v>
+            <v>0x0000_0775</v>
           </cell>
         </row>
         <row r="122">
           <cell r="F122" t="str">
-            <v>0x0000_0776</v>
+            <v>0x0000_0774</v>
           </cell>
         </row>
         <row r="123">
@@ -2916,12 +2916,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F123" t="str">
-            <v>0x0000_0779</v>
+            <v>0x0000_077B</v>
           </cell>
         </row>
         <row r="124">
           <cell r="F124" t="str">
-            <v>0x0000_0778</v>
+            <v>0x0000_077A</v>
           </cell>
         </row>
         <row r="125">
@@ -2929,12 +2929,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F125" t="str">
-            <v>0x0000_077B</v>
+            <v>0x0000_0779</v>
           </cell>
         </row>
         <row r="126">
           <cell r="F126" t="str">
-            <v>0x0000_077A</v>
+            <v>0x0000_0778</v>
           </cell>
         </row>
         <row r="127">
@@ -2942,12 +2942,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F127" t="str">
-            <v>0x0000_077D</v>
+            <v>0x0000_077F</v>
           </cell>
         </row>
         <row r="128">
           <cell r="F128" t="str">
-            <v>0x0000_077C</v>
+            <v>0x0000_077E</v>
           </cell>
         </row>
         <row r="129">
@@ -2955,12 +2955,12 @@
             <v>0xFFFF</v>
           </cell>
           <cell r="F129" t="str">
-            <v>0x0000_077F</v>
+            <v>0x0000_077D</v>
           </cell>
         </row>
         <row r="130">
           <cell r="F130" t="str">
-            <v>0x0000_077E</v>
+            <v>0x0000_077C</v>
           </cell>
         </row>
       </sheetData>
@@ -3347,7 +3347,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="str">
+      <c r="B3" s="19" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]Registers TREATED'!C3,4),"""")</f>
         <v>x"00000000"</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="17"/>
       <c r="D4" s="1" t="str">
         <f>'[1]Registers TREATED'!AG8</f>
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="17"/>
       <c r="D5" s="1" t="str">
         <f>'[1]Registers TREATED'!AF8</f>
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="17"/>
       <c r="D6" s="1" t="str">
         <f>'[1]Registers TREATED'!AE8</f>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="str">
         <f>'[1]Registers TREATED'!O8</f>
@@ -3506,7 +3506,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="str">
@@ -3533,7 +3533,7 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="str">
@@ -3560,7 +3560,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16" t="str">
         <f>'[1]Registers TREATED'!C8</f>
@@ -3777,11 +3777,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="19" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]Registers TREATED'!C19,4),"""")</f>
         <v>x"00000008"</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="19" t="str">
         <f>'[1]Registers TREATED'!C18:AH18</f>
         <v>spw_packet_1_config</v>
       </c>
@@ -3815,8 +3815,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="str">
         <f>'[1]Registers TREATED'!AG24</f>
         <v>digitise_control</v>
@@ -3848,8 +3848,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="str">
         <f>'[1]Registers TREATED'!AE24</f>
         <v>ccd_port_data_transmission_selection_control</v>
@@ -3882,8 +3882,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="16" t="str">
         <f>'[1]Registers TREATED'!O24</f>
         <v>packet_size_control</v>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="str">
         <f>IF('[1]Register TREATED TABLE'!E21="-","-",IF(MID('[1]Register TREATED TABLE'!E21,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E21,LEN('[1]Register TREATED TABLE'!E21)-2),""""),IF(MID('[1]Register TREATED TABLE'!E21,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E21,LEN('[1]Register TREATED TABLE'!E21)-2),""""),IF(H21="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E21,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E21,"')")))))</f>
@@ -3943,8 +3943,8 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="str">
         <f>IF('[1]Register TREATED TABLE'!E22="-","-",IF(MID('[1]Register TREATED TABLE'!E22,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E22,LEN('[1]Register TREATED TABLE'!E22)-2),""""),IF(MID('[1]Register TREATED TABLE'!E22,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E22,LEN('[1]Register TREATED TABLE'!E22)-2),""""),IF(H22="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E22,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E22,"')")))))</f>
@@ -3970,8 +3970,8 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="16" t="s">
         <v>1</v>
       </c>
@@ -4003,8 +4003,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="str">
         <f>IF('[1]Register TREATED TABLE'!E24="-","-",IF(MID('[1]Register TREATED TABLE'!E24,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E24,LEN('[1]Register TREATED TABLE'!E24)-2),""""),IF(MID('[1]Register TREATED TABLE'!E24,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E24,LEN('[1]Register TREATED TABLE'!E24)-2),""""),IF(H24="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E24,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E24,"')")))))</f>
@@ -6046,7 +6046,7 @@
       <c r="D89" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="19" t="str">
+      <c r="E89" s="21" t="str">
         <f>IF('[1]Register TREATED TABLE'!E89="-","-",IF(MID('[1]Register TREATED TABLE'!E89,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E89,LEN('[1]Register TREATED TABLE'!E89)-2),""""),IF(MID('[1]Register TREATED TABLE'!E89,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E89,LEN('[1]Register TREATED TABLE'!E89)-2),""""),IF(H89="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E89,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E89,"')")))))</f>
         <v>(others =&gt; '0')</v>
       </c>
@@ -6310,39 +6310,100 @@
     </row>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="C84:C87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="D84:D87"/>
@@ -6367,100 +6428,39 @@
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D59:D62"/>
     <mergeCell ref="E59:E62"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26344,7 +26344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -26372,1487 +26372,1571 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="25" t="str">
         <f>IF('[1]HK TREATED'!E3="-","-",IF(MID('[1]HK TREATED'!E3,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E3,LEN('[1]HK TREATED'!E3)-2),""""),IF(MID('[1]HK TREATED'!E3,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E3,LEN('[1]HK TREATED'!E3)-2),""""),IF(H3="-",CONCATENATE("'",'[1]HK TREATED'!E3,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E3,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F3,4),"""")</f>
-        <v>x"00000701"</v>
+        <v>x"00000703"</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F4,4),"""")</f>
-        <v>x"00000700"</v>
+        <v>x"00000702"</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="25" t="str">
         <f>IF('[1]HK TREATED'!E5="-","-",IF(MID('[1]HK TREATED'!E5,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E5,LEN('[1]HK TREATED'!E5)-2),""""),IF(MID('[1]HK TREATED'!E5,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E5,LEN('[1]HK TREATED'!E5)-2),""""),IF(H5="-",CONCATENATE("'",'[1]HK TREATED'!E5,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E5,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F5,4),"""")</f>
-        <v>x"00000703"</v>
+        <v>x"00000701"</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F6,4),"""")</f>
-        <v>x"00000702"</v>
+        <v>x"00000700"</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="25" t="str">
         <f>IF('[1]HK TREATED'!E7="-","-",IF(MID('[1]HK TREATED'!E7,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E7,LEN('[1]HK TREATED'!E7)-2),""""),IF(MID('[1]HK TREATED'!E7,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E7,LEN('[1]HK TREATED'!E7)-2),""""),IF(H7="-",CONCATENATE("'",'[1]HK TREATED'!E7,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E7,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D7" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F7,4),"""")</f>
-        <v>x"00000705"</v>
+        <v>x"00000707"</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F8,4),"""")</f>
-        <v>x"00000704"</v>
+        <v>x"00000706"</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="25" t="str">
         <f>IF('[1]HK TREATED'!E9="-","-",IF(MID('[1]HK TREATED'!E9,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E9,LEN('[1]HK TREATED'!E9)-2),""""),IF(MID('[1]HK TREATED'!E9,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E9,LEN('[1]HK TREATED'!E9)-2),""""),IF(H9="-",CONCATENATE("'",'[1]HK TREATED'!E9,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E9,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F9,4),"""")</f>
-        <v>x"00000707"</v>
+        <v>x"00000705"</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F10,4),"""")</f>
-        <v>x"00000706"</v>
+        <v>x"00000704"</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="25" t="str">
         <f>IF('[1]HK TREATED'!E11="-","-",IF(MID('[1]HK TREATED'!E11,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E11,LEN('[1]HK TREATED'!E11)-2),""""),IF(MID('[1]HK TREATED'!E11,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E11,LEN('[1]HK TREATED'!E11)-2),""""),IF(H11="-",CONCATENATE("'",'[1]HK TREATED'!E11,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E11,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F11,4),"""")</f>
-        <v>x"00000709"</v>
+        <v>x"0000070B"</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F12,4),"""")</f>
-        <v>x"00000708"</v>
+        <v>x"0000070A"</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="25" t="str">
         <f>IF('[1]HK TREATED'!E13="-","-",IF(MID('[1]HK TREATED'!E13,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E13,LEN('[1]HK TREATED'!E13)-2),""""),IF(MID('[1]HK TREATED'!E13,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E13,LEN('[1]HK TREATED'!E13)-2),""""),IF(H13="-",CONCATENATE("'",'[1]HK TREATED'!E13,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E13,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F13,4),"""")</f>
-        <v>x"0000070B"</v>
+        <v>x"00000709"</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F14,4),"""")</f>
-        <v>x"0000070A"</v>
+        <v>x"00000708"</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="25" t="str">
         <f>IF('[1]HK TREATED'!E15="-","-",IF(MID('[1]HK TREATED'!E15,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E15,LEN('[1]HK TREATED'!E15)-2),""""),IF(MID('[1]HK TREATED'!E15,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E15,LEN('[1]HK TREATED'!E15)-2),""""),IF(H15="-",CONCATENATE("'",'[1]HK TREATED'!E15,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E15,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F15,4),"""")</f>
-        <v>x"0000070D"</v>
+        <v>x"0000070F"</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F16,4),"""")</f>
-        <v>x"0000070C"</v>
+        <v>x"0000070E"</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="25" t="str">
         <f>IF('[1]HK TREATED'!E17="-","-",IF(MID('[1]HK TREATED'!E17,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E17,LEN('[1]HK TREATED'!E17)-2),""""),IF(MID('[1]HK TREATED'!E17,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E17,LEN('[1]HK TREATED'!E17)-2),""""),IF(H17="-",CONCATENATE("'",'[1]HK TREATED'!E17,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E17,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D17" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F17,4),"""")</f>
-        <v>x"0000070F"</v>
+        <v>x"0000070D"</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F18,4),"""")</f>
-        <v>x"0000070E"</v>
+        <v>x"0000070C"</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="25" t="str">
         <f>IF('[1]HK TREATED'!E19="-","-",IF(MID('[1]HK TREATED'!E19,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E19,LEN('[1]HK TREATED'!E19)-2),""""),IF(MID('[1]HK TREATED'!E19,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E19,LEN('[1]HK TREATED'!E19)-2),""""),IF(H19="-",CONCATENATE("'",'[1]HK TREATED'!E19,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E19,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F19,4),"""")</f>
-        <v>x"00000711"</v>
+        <v>x"00000713"</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F20,4),"""")</f>
-        <v>x"00000710"</v>
+        <v>x"00000712"</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="25" t="str">
         <f>IF('[1]HK TREATED'!E21="-","-",IF(MID('[1]HK TREATED'!E21,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E21,LEN('[1]HK TREATED'!E21)-2),""""),IF(MID('[1]HK TREATED'!E21,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E21,LEN('[1]HK TREATED'!E21)-2),""""),IF(H21="-",CONCATENATE("'",'[1]HK TREATED'!E21,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E21,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F21,4),"""")</f>
-        <v>x"00000713"</v>
+        <v>x"00000711"</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F22,4),"""")</f>
-        <v>x"00000712"</v>
+        <v>x"00000710"</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="25" t="str">
         <f>IF('[1]HK TREATED'!E23="-","-",IF(MID('[1]HK TREATED'!E23,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E23,LEN('[1]HK TREATED'!E23)-2),""""),IF(MID('[1]HK TREATED'!E23,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E23,LEN('[1]HK TREATED'!E23)-2),""""),IF(H23="-",CONCATENATE("'",'[1]HK TREATED'!E23,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E23,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F23,4),"""")</f>
-        <v>x"00000715"</v>
+        <v>x"00000717"</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F24,4),"""")</f>
-        <v>x"00000714"</v>
+        <v>x"00000716"</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="25" t="str">
         <f>IF('[1]HK TREATED'!E25="-","-",IF(MID('[1]HK TREATED'!E25,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E25,LEN('[1]HK TREATED'!E25)-2),""""),IF(MID('[1]HK TREATED'!E25,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E25,LEN('[1]HK TREATED'!E25)-2),""""),IF(H25="-",CONCATENATE("'",'[1]HK TREATED'!E25,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E25,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F25,4),"""")</f>
-        <v>x"00000717"</v>
+        <v>x"00000715"</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F26,4),"""")</f>
-        <v>x"00000716"</v>
+        <v>x"00000714"</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="25" t="str">
         <f>IF('[1]HK TREATED'!E27="-","-",IF(MID('[1]HK TREATED'!E27,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E27,LEN('[1]HK TREATED'!E27)-2),""""),IF(MID('[1]HK TREATED'!E27,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E27,LEN('[1]HK TREATED'!E27)-2),""""),IF(H27="-",CONCATENATE("'",'[1]HK TREATED'!E27,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E27,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F27,4),"""")</f>
-        <v>x"00000719"</v>
+        <v>x"0000071B"</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F28,4),"""")</f>
-        <v>x"00000718"</v>
+        <v>x"0000071A"</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C29" s="25" t="str">
         <f>IF('[1]HK TREATED'!E29="-","-",IF(MID('[1]HK TREATED'!E29,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E29,LEN('[1]HK TREATED'!E29)-2),""""),IF(MID('[1]HK TREATED'!E29,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E29,LEN('[1]HK TREATED'!E29)-2),""""),IF(H29="-",CONCATENATE("'",'[1]HK TREATED'!E29,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E29,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F29,4),"""")</f>
-        <v>x"0000071B"</v>
+        <v>x"00000719"</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F30,4),"""")</f>
-        <v>x"0000071A"</v>
+        <v>x"00000718"</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="23" t="str">
+      <c r="C31" s="25" t="str">
         <f>IF('[1]HK TREATED'!E31="-","-",IF(MID('[1]HK TREATED'!E31,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E31,LEN('[1]HK TREATED'!E31)-2),""""),IF(MID('[1]HK TREATED'!E31,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E31,LEN('[1]HK TREATED'!E31)-2),""""),IF(H31="-",CONCATENATE("'",'[1]HK TREATED'!E31,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E31,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F31,4),"""")</f>
-        <v>x"0000071D"</v>
+        <v>x"0000071F"</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F32,4),"""")</f>
-        <v>x"0000071C"</v>
+        <v>x"0000071E"</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="25" t="str">
         <f>IF('[1]HK TREATED'!E33="-","-",IF(MID('[1]HK TREATED'!E33,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E33,LEN('[1]HK TREATED'!E33)-2),""""),IF(MID('[1]HK TREATED'!E33,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E33,LEN('[1]HK TREATED'!E33)-2),""""),IF(H33="-",CONCATENATE("'",'[1]HK TREATED'!E33,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E33,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F33,4),"""")</f>
-        <v>x"0000071F"</v>
+        <v>x"0000071D"</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F34,4),"""")</f>
-        <v>x"0000071E"</v>
+        <v>x"0000071C"</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="23" t="str">
+      <c r="C35" s="25" t="str">
         <f>IF('[1]HK TREATED'!E35="-","-",IF(MID('[1]HK TREATED'!E35,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E35,LEN('[1]HK TREATED'!E35)-2),""""),IF(MID('[1]HK TREATED'!E35,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E35,LEN('[1]HK TREATED'!E35)-2),""""),IF(H35="-",CONCATENATE("'",'[1]HK TREATED'!E35,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E35,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F35,4),"""")</f>
-        <v>x"00000721"</v>
+        <v>x"00000723"</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F36,4),"""")</f>
-        <v>x"00000720"</v>
+        <v>x"00000722"</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="23" t="str">
+      <c r="C37" s="25" t="str">
         <f>IF('[1]HK TREATED'!E37="-","-",IF(MID('[1]HK TREATED'!E37,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E37,LEN('[1]HK TREATED'!E37)-2),""""),IF(MID('[1]HK TREATED'!E37,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E37,LEN('[1]HK TREATED'!E37)-2),""""),IF(H37="-",CONCATENATE("'",'[1]HK TREATED'!E37,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E37,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D37" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F37,4),"""")</f>
-        <v>x"00000723"</v>
+        <v>x"00000721"</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F38,4),"""")</f>
-        <v>x"00000722"</v>
+        <v>x"00000720"</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="23" t="str">
+      <c r="C39" s="25" t="str">
         <f>IF('[1]HK TREATED'!E39="-","-",IF(MID('[1]HK TREATED'!E39,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E39,LEN('[1]HK TREATED'!E39)-2),""""),IF(MID('[1]HK TREATED'!E39,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E39,LEN('[1]HK TREATED'!E39)-2),""""),IF(H39="-",CONCATENATE("'",'[1]HK TREATED'!E39,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E39,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D39" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F39,4),"""")</f>
-        <v>x"00000725"</v>
+        <v>x"00000727"</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F40,4),"""")</f>
-        <v>x"00000724"</v>
+        <v>x"00000726"</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="23" t="str">
+      <c r="C41" s="25" t="str">
         <f>IF('[1]HK TREATED'!E41="-","-",IF(MID('[1]HK TREATED'!E41,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E41,LEN('[1]HK TREATED'!E41)-2),""""),IF(MID('[1]HK TREATED'!E41,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E41,LEN('[1]HK TREATED'!E41)-2),""""),IF(H41="-",CONCATENATE("'",'[1]HK TREATED'!E41,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E41,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D41" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F41,4),"""")</f>
-        <v>x"00000727"</v>
+        <v>x"00000725"</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F42,4),"""")</f>
-        <v>x"00000726"</v>
+        <v>x"00000724"</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="23" t="str">
+      <c r="C43" s="25" t="str">
         <f>IF('[1]HK TREATED'!E43="-","-",IF(MID('[1]HK TREATED'!E43,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E43,LEN('[1]HK TREATED'!E43)-2),""""),IF(MID('[1]HK TREATED'!E43,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E43,LEN('[1]HK TREATED'!E43)-2),""""),IF(H43="-",CONCATENATE("'",'[1]HK TREATED'!E43,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E43,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D43" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F43,4),"""")</f>
-        <v>x"00000729"</v>
+        <v>x"0000072B"</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F44,4),"""")</f>
-        <v>x"00000728"</v>
+        <v>x"0000072A"</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="23" t="str">
+      <c r="C45" s="25" t="str">
         <f>IF('[1]HK TREATED'!E45="-","-",IF(MID('[1]HK TREATED'!E45,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E45,LEN('[1]HK TREATED'!E45)-2),""""),IF(MID('[1]HK TREATED'!E45,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E45,LEN('[1]HK TREATED'!E45)-2),""""),IF(H45="-",CONCATENATE("'",'[1]HK TREATED'!E45,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E45,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F45,4),"""")</f>
-        <v>x"0000072B"</v>
+        <v>x"00000729"</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F46,4),"""")</f>
-        <v>x"0000072A"</v>
+        <v>x"00000728"</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="23" t="str">
+      <c r="C47" s="25" t="str">
         <f>IF('[1]HK TREATED'!E47="-","-",IF(MID('[1]HK TREATED'!E47,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E47,LEN('[1]HK TREATED'!E47)-2),""""),IF(MID('[1]HK TREATED'!E47,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E47,LEN('[1]HK TREATED'!E47)-2),""""),IF(H47="-",CONCATENATE("'",'[1]HK TREATED'!E47,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E47,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D47" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F47,4),"""")</f>
-        <v>x"0000072D"</v>
+        <v>x"0000072F"</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F48,4),"""")</f>
-        <v>x"0000072C"</v>
+        <v>x"0000072E"</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="23" t="str">
+      <c r="C49" s="25" t="str">
         <f>IF('[1]HK TREATED'!E49="-","-",IF(MID('[1]HK TREATED'!E49,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E49,LEN('[1]HK TREATED'!E49)-2),""""),IF(MID('[1]HK TREATED'!E49,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E49,LEN('[1]HK TREATED'!E49)-2),""""),IF(H49="-",CONCATENATE("'",'[1]HK TREATED'!E49,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E49,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D49" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F49,4),"""")</f>
-        <v>x"0000072F"</v>
+        <v>x"0000072D"</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F50,4),"""")</f>
-        <v>x"0000072E"</v>
+        <v>x"0000072C"</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="23" t="str">
+      <c r="C51" s="25" t="str">
         <f>IF('[1]HK TREATED'!E51="-","-",IF(MID('[1]HK TREATED'!E51,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E51,LEN('[1]HK TREATED'!E51)-2),""""),IF(MID('[1]HK TREATED'!E51,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E51,LEN('[1]HK TREATED'!E51)-2),""""),IF(H51="-",CONCATENATE("'",'[1]HK TREATED'!E51,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E51,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D51" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F51,4),"""")</f>
-        <v>x"00000731"</v>
+        <v>x"00000733"</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="24"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F52,4),"""")</f>
-        <v>x"00000730"</v>
+        <v>x"00000732"</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="23" t="str">
+      <c r="C53" s="25" t="str">
         <f>IF('[1]HK TREATED'!E53="-","-",IF(MID('[1]HK TREATED'!E53,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E53,LEN('[1]HK TREATED'!E53)-2),""""),IF(MID('[1]HK TREATED'!E53,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E53,LEN('[1]HK TREATED'!E53)-2),""""),IF(H53="-",CONCATENATE("'",'[1]HK TREATED'!E53,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E53,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D53" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F53,4),"""")</f>
-        <v>x"00000733"</v>
+        <v>x"00000731"</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F54,4),"""")</f>
-        <v>x"00000732"</v>
+        <v>x"00000730"</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="23" t="str">
+      <c r="C55" s="25" t="str">
         <f>IF('[1]HK TREATED'!E55="-","-",IF(MID('[1]HK TREATED'!E55,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E55,LEN('[1]HK TREATED'!E55)-2),""""),IF(MID('[1]HK TREATED'!E55,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E55,LEN('[1]HK TREATED'!E55)-2),""""),IF(H55="-",CONCATENATE("'",'[1]HK TREATED'!E55,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E55,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D55" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F55,4),"""")</f>
-        <v>x"00000735"</v>
+        <v>x"00000737"</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="24"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F56,4),"""")</f>
-        <v>x"00000734"</v>
+        <v>x"00000736"</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="23" t="str">
+      <c r="C57" s="25" t="str">
         <f>IF('[1]HK TREATED'!E57="-","-",IF(MID('[1]HK TREATED'!E57,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E57,LEN('[1]HK TREATED'!E57)-2),""""),IF(MID('[1]HK TREATED'!E57,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E57,LEN('[1]HK TREATED'!E57)-2),""""),IF(H57="-",CONCATENATE("'",'[1]HK TREATED'!E57,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E57,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F57,4),"""")</f>
-        <v>x"00000737"</v>
+        <v>x"00000735"</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F58,4),"""")</f>
-        <v>x"00000736"</v>
+        <v>x"00000734"</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="23" t="str">
+      <c r="C59" s="25" t="str">
         <f>IF('[1]HK TREATED'!E59="-","-",IF(MID('[1]HK TREATED'!E59,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E59,LEN('[1]HK TREATED'!E59)-2),""""),IF(MID('[1]HK TREATED'!E59,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E59,LEN('[1]HK TREATED'!E59)-2),""""),IF(H59="-",CONCATENATE("'",'[1]HK TREATED'!E59,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E59,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F59,4),"""")</f>
-        <v>x"00000739"</v>
+        <v>x"0000073B"</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F60,4),"""")</f>
-        <v>x"00000738"</v>
+        <v>x"0000073A"</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="23" t="str">
+      <c r="C61" s="25" t="str">
         <f>IF('[1]HK TREATED'!E61="-","-",IF(MID('[1]HK TREATED'!E61,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E61,LEN('[1]HK TREATED'!E61)-2),""""),IF(MID('[1]HK TREATED'!E61,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E61,LEN('[1]HK TREATED'!E61)-2),""""),IF(H61="-",CONCATENATE("'",'[1]HK TREATED'!E61,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E61,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D61" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F61,4),"""")</f>
-        <v>x"0000073B"</v>
+        <v>x"00000739"</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F62,4),"""")</f>
-        <v>x"0000073A"</v>
+        <v>x"00000738"</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="23" t="str">
+      <c r="C63" s="25" t="str">
         <f>IF('[1]HK TREATED'!E63="-","-",IF(MID('[1]HK TREATED'!E63,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E63,LEN('[1]HK TREATED'!E63)-2),""""),IF(MID('[1]HK TREATED'!E63,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E63,LEN('[1]HK TREATED'!E63)-2),""""),IF(H63="-",CONCATENATE("'",'[1]HK TREATED'!E63,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E63,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D63" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F63,4),"""")</f>
-        <v>x"0000073D"</v>
+        <v>x"0000073F"</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="24"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F64,4),"""")</f>
-        <v>x"0000073C"</v>
+        <v>x"0000073E"</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="25" t="str">
         <f>IF('[1]HK TREATED'!E65="-","-",IF(MID('[1]HK TREATED'!E65,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E65,LEN('[1]HK TREATED'!E65)-2),""""),IF(MID('[1]HK TREATED'!E65,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E65,LEN('[1]HK TREATED'!E65)-2),""""),IF(H65="-",CONCATENATE("'",'[1]HK TREATED'!E65,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E65,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D65" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F65,4),"""")</f>
-        <v>x"0000073F"</v>
+        <v>x"0000073D"</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="24"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F66,4),"""")</f>
-        <v>x"0000073E"</v>
+        <v>x"0000073C"</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="23" t="str">
+      <c r="C67" s="25" t="str">
         <f>IF('[1]HK TREATED'!E67="-","-",IF(MID('[1]HK TREATED'!E67,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E67,LEN('[1]HK TREATED'!E67)-2),""""),IF(MID('[1]HK TREATED'!E67,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E67,LEN('[1]HK TREATED'!E67)-2),""""),IF(H67="-",CONCATENATE("'",'[1]HK TREATED'!E67,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E67,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F67,4),"""")</f>
-        <v>x"00000741"</v>
+        <v>x"00000743"</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F68,4),"""")</f>
-        <v>x"00000740"</v>
+        <v>x"00000742"</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="23" t="str">
+      <c r="C69" s="25" t="str">
         <f>IF('[1]HK TREATED'!E69="-","-",IF(MID('[1]HK TREATED'!E69,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E69,LEN('[1]HK TREATED'!E69)-2),""""),IF(MID('[1]HK TREATED'!E69,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E69,LEN('[1]HK TREATED'!E69)-2),""""),IF(H69="-",CONCATENATE("'",'[1]HK TREATED'!E69,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E69,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F69,4),"""")</f>
-        <v>x"00000743"</v>
+        <v>x"00000741"</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F70,4),"""")</f>
-        <v>x"00000742"</v>
+        <v>x"00000740"</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="23" t="str">
+      <c r="C71" s="25" t="str">
         <f>IF('[1]HK TREATED'!E71="-","-",IF(MID('[1]HK TREATED'!E71,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E71,LEN('[1]HK TREATED'!E71)-2),""""),IF(MID('[1]HK TREATED'!E71,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E71,LEN('[1]HK TREATED'!E71)-2),""""),IF(H71="-",CONCATENATE("'",'[1]HK TREATED'!E71,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E71,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F71,4),"""")</f>
-        <v>x"00000745"</v>
+        <v>x"00000747"</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F72,4),"""")</f>
-        <v>x"00000744"</v>
+        <v>x"00000746"</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="23" t="str">
+      <c r="C73" s="25" t="str">
         <f>IF('[1]HK TREATED'!E73="-","-",IF(MID('[1]HK TREATED'!E73,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E73,LEN('[1]HK TREATED'!E73)-2),""""),IF(MID('[1]HK TREATED'!E73,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E73,LEN('[1]HK TREATED'!E73)-2),""""),IF(H73="-",CONCATENATE("'",'[1]HK TREATED'!E73,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E73,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F73,4),"""")</f>
-        <v>x"00000747"</v>
+        <v>x"00000745"</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F74,4),"""")</f>
-        <v>x"00000746"</v>
+        <v>x"00000744"</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="23" t="str">
+      <c r="C75" s="25" t="str">
         <f>IF('[1]HK TREATED'!E75="-","-",IF(MID('[1]HK TREATED'!E75,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E75,LEN('[1]HK TREATED'!E75)-2),""""),IF(MID('[1]HK TREATED'!E75,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E75,LEN('[1]HK TREATED'!E75)-2),""""),IF(H75="-",CONCATENATE("'",'[1]HK TREATED'!E75,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E75,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F75,4),"""")</f>
-        <v>x"00000749"</v>
+        <v>x"0000074B"</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="24"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F76,4),"""")</f>
-        <v>x"00000748"</v>
+        <v>x"0000074A"</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="23" t="str">
+      <c r="C77" s="25" t="str">
         <f>IF('[1]HK TREATED'!E77="-","-",IF(MID('[1]HK TREATED'!E77,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E77,LEN('[1]HK TREATED'!E77)-2),""""),IF(MID('[1]HK TREATED'!E77,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E77,LEN('[1]HK TREATED'!E77)-2),""""),IF(H77="-",CONCATENATE("'",'[1]HK TREATED'!E77,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E77,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F77,4),"""")</f>
-        <v>x"0000074B"</v>
+        <v>x"00000749"</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F78,4),"""")</f>
-        <v>x"0000074A"</v>
+        <v>x"00000748"</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="25" t="str">
         <f>IF('[1]HK TREATED'!E79="-","-",IF(MID('[1]HK TREATED'!E79,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E79,LEN('[1]HK TREATED'!E79)-2),""""),IF(MID('[1]HK TREATED'!E79,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E79,LEN('[1]HK TREATED'!E79)-2),""""),IF(H79="-",CONCATENATE("'",'[1]HK TREATED'!E79,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E79,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D79" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F79,4),"""")</f>
-        <v>x"0000074D"</v>
+        <v>x"0000074F"</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F80,4),"""")</f>
-        <v>x"0000074C"</v>
+        <v>x"0000074E"</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="23" t="str">
+      <c r="C81" s="25" t="str">
         <f>IF('[1]HK TREATED'!E81="-","-",IF(MID('[1]HK TREATED'!E81,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E81,LEN('[1]HK TREATED'!E81)-2),""""),IF(MID('[1]HK TREATED'!E81,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E81,LEN('[1]HK TREATED'!E81)-2),""""),IF(H81="-",CONCATENATE("'",'[1]HK TREATED'!E81,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E81,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D81" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F81,4),"""")</f>
-        <v>x"0000074F"</v>
+        <v>x"0000074D"</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="24"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F82,4),"""")</f>
-        <v>x"0000074E"</v>
+        <v>x"0000074C"</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="23" t="str">
+      <c r="C83" s="25" t="str">
         <f>IF('[1]HK TREATED'!E83="-","-",IF(MID('[1]HK TREATED'!E83,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E83,LEN('[1]HK TREATED'!E83)-2),""""),IF(MID('[1]HK TREATED'!E83,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E83,LEN('[1]HK TREATED'!E83)-2),""""),IF(H83="-",CONCATENATE("'",'[1]HK TREATED'!E83,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E83,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D83" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F83,4),"""")</f>
-        <v>x"00000751"</v>
+        <v>x"00000753"</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F84,4),"""")</f>
-        <v>x"00000750"</v>
+        <v>x"00000752"</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="23" t="str">
+      <c r="C85" s="25" t="str">
         <f>IF('[1]HK TREATED'!E85="-","-",IF(MID('[1]HK TREATED'!E85,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E85,LEN('[1]HK TREATED'!E85)-2),""""),IF(MID('[1]HK TREATED'!E85,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E85,LEN('[1]HK TREATED'!E85)-2),""""),IF(H85="-",CONCATENATE("'",'[1]HK TREATED'!E85,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E85,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D85" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F85,4),"""")</f>
-        <v>x"00000753"</v>
+        <v>x"00000751"</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="24"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F86,4),"""")</f>
-        <v>x"00000752"</v>
+        <v>x"00000750"</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="23" t="str">
+      <c r="C87" s="25" t="str">
         <f>IF('[1]HK TREATED'!E87="-","-",IF(MID('[1]HK TREATED'!E87,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E87,LEN('[1]HK TREATED'!E87)-2),""""),IF(MID('[1]HK TREATED'!E87,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E87,LEN('[1]HK TREATED'!E87)-2),""""),IF(H87="-",CONCATENATE("'",'[1]HK TREATED'!E87,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E87,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D87" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F87,4),"""")</f>
-        <v>x"00000755"</v>
+        <v>x"00000757"</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="24"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F88,4),"""")</f>
-        <v>x"00000754"</v>
+        <v>x"00000756"</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="23" t="str">
+      <c r="C89" s="25" t="str">
         <f>IF('[1]HK TREATED'!E89="-","-",IF(MID('[1]HK TREATED'!E89,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E89,LEN('[1]HK TREATED'!E89)-2),""""),IF(MID('[1]HK TREATED'!E89,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E89,LEN('[1]HK TREATED'!E89)-2),""""),IF(H89="-",CONCATENATE("'",'[1]HK TREATED'!E89,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E89,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D89" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F89,4),"""")</f>
-        <v>x"00000757"</v>
+        <v>x"00000755"</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="24"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F90,4),"""")</f>
-        <v>x"00000756"</v>
+        <v>x"00000754"</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="23" t="str">
+      <c r="C91" s="25" t="str">
         <f>IF('[1]HK TREATED'!E91="-","-",IF(MID('[1]HK TREATED'!E91,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E91,LEN('[1]HK TREATED'!E91)-2),""""),IF(MID('[1]HK TREATED'!E91,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E91,LEN('[1]HK TREATED'!E91)-2),""""),IF(H91="-",CONCATENATE("'",'[1]HK TREATED'!E91,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E91,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D91" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F91,4),"""")</f>
-        <v>x"00000759"</v>
+        <v>x"0000075B"</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="24"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F92,4),"""")</f>
-        <v>x"00000758"</v>
+        <v>x"0000075A"</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="23" t="str">
+      <c r="C93" s="25" t="str">
         <f>IF('[1]HK TREATED'!E93="-","-",IF(MID('[1]HK TREATED'!E93,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E93,LEN('[1]HK TREATED'!E93)-2),""""),IF(MID('[1]HK TREATED'!E93,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E93,LEN('[1]HK TREATED'!E93)-2),""""),IF(H93="-",CONCATENATE("'",'[1]HK TREATED'!E93,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E93,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D93" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F93,4),"""")</f>
-        <v>x"0000075B"</v>
+        <v>x"00000759"</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="24"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F94,4),"""")</f>
-        <v>x"0000075A"</v>
+        <v>x"00000758"</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="23" t="str">
+      <c r="C95" s="25" t="str">
         <f>IF('[1]HK TREATED'!E95="-","-",IF(MID('[1]HK TREATED'!E95,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E95,LEN('[1]HK TREATED'!E95)-2),""""),IF(MID('[1]HK TREATED'!E95,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E95,LEN('[1]HK TREATED'!E95)-2),""""),IF(H95="-",CONCATENATE("'",'[1]HK TREATED'!E95,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E95,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D95" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F95,4),"""")</f>
-        <v>x"0000075D"</v>
+        <v>x"0000075F"</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="24"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F96,4),"""")</f>
-        <v>x"0000075C"</v>
+        <v>x"0000075E"</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="23" t="str">
+      <c r="C97" s="25" t="str">
         <f>IF('[1]HK TREATED'!E97="-","-",IF(MID('[1]HK TREATED'!E97,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E97,LEN('[1]HK TREATED'!E97)-2),""""),IF(MID('[1]HK TREATED'!E97,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E97,LEN('[1]HK TREATED'!E97)-2),""""),IF(H97="-",CONCATENATE("'",'[1]HK TREATED'!E97,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E97,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D97" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F97,4),"""")</f>
-        <v>x"0000075F"</v>
+        <v>x"0000075D"</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="24"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F98,4),"""")</f>
-        <v>x"0000075E"</v>
+        <v>x"0000075C"</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="23" t="str">
+      <c r="C99" s="25" t="str">
         <f>IF('[1]HK TREATED'!E99="-","-",IF(MID('[1]HK TREATED'!E99,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E99,LEN('[1]HK TREATED'!E99)-2),""""),IF(MID('[1]HK TREATED'!E99,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E99,LEN('[1]HK TREATED'!E99)-2),""""),IF(H99="-",CONCATENATE("'",'[1]HK TREATED'!E99,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E99,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D99" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F99,4),"""")</f>
-        <v>x"00000761"</v>
+        <v>x"00000763"</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="24"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F100,4),"""")</f>
-        <v>x"00000760"</v>
+        <v>x"00000762"</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="23" t="str">
+      <c r="C101" s="25" t="str">
         <f>IF('[1]HK TREATED'!E101="-","-",IF(MID('[1]HK TREATED'!E101,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E101,LEN('[1]HK TREATED'!E101)-2),""""),IF(MID('[1]HK TREATED'!E101,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E101,LEN('[1]HK TREATED'!E101)-2),""""),IF(H101="-",CONCATENATE("'",'[1]HK TREATED'!E101,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E101,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D101" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F101,4),"""")</f>
-        <v>x"00000763"</v>
+        <v>x"00000761"</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="24"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F102,4),"""")</f>
-        <v>x"00000762"</v>
+        <v>x"00000760"</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="23" t="str">
+      <c r="C103" s="25" t="str">
         <f>IF('[1]HK TREATED'!E103="-","-",IF(MID('[1]HK TREATED'!E103,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E103,LEN('[1]HK TREATED'!E103)-2),""""),IF(MID('[1]HK TREATED'!E103,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E103,LEN('[1]HK TREATED'!E103)-2),""""),IF(H103="-",CONCATENATE("'",'[1]HK TREATED'!E103,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E103,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D103" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F103,4),"""")</f>
-        <v>x"00000765"</v>
+        <v>x"00000767"</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="24"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F104,4),"""")</f>
-        <v>x"00000764"</v>
+        <v>x"00000766"</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="23" t="str">
+      <c r="C105" s="25" t="str">
         <f>IF('[1]HK TREATED'!E105="-","-",IF(MID('[1]HK TREATED'!E105,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E105,LEN('[1]HK TREATED'!E105)-2),""""),IF(MID('[1]HK TREATED'!E105,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E105,LEN('[1]HK TREATED'!E105)-2),""""),IF(H105="-",CONCATENATE("'",'[1]HK TREATED'!E105,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E105,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D105" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F105,4),"""")</f>
-        <v>x"00000767"</v>
+        <v>x"00000765"</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="24"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F106,4),"""")</f>
-        <v>x"00000766"</v>
+        <v>x"00000764"</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="23" t="str">
+      <c r="C107" s="25" t="str">
         <f>IF('[1]HK TREATED'!E107="-","-",IF(MID('[1]HK TREATED'!E107,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E107,LEN('[1]HK TREATED'!E107)-2),""""),IF(MID('[1]HK TREATED'!E107,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E107,LEN('[1]HK TREATED'!E107)-2),""""),IF(H107="-",CONCATENATE("'",'[1]HK TREATED'!E107,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E107,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D107" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F107,4),"""")</f>
-        <v>x"00000769"</v>
+        <v>x"0000076B"</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C108" s="24"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F108,4),"""")</f>
-        <v>x"00000768"</v>
+        <v>x"0000076A"</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="23" t="str">
+      <c r="C109" s="25" t="str">
         <f>IF('[1]HK TREATED'!E109="-","-",IF(MID('[1]HK TREATED'!E109,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E109,LEN('[1]HK TREATED'!E109)-2),""""),IF(MID('[1]HK TREATED'!E109,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E109,LEN('[1]HK TREATED'!E109)-2),""""),IF(H109="-",CONCATENATE("'",'[1]HK TREATED'!E109,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E109,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D109" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F109,4),"""")</f>
-        <v>x"0000076B"</v>
+        <v>x"00000769"</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C110" s="24"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F110,4),"""")</f>
-        <v>x"0000076A"</v>
+        <v>x"00000768"</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C111" s="23" t="str">
+      <c r="C111" s="25" t="str">
         <f>IF('[1]HK TREATED'!E111="-","-",IF(MID('[1]HK TREATED'!E111,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E111,LEN('[1]HK TREATED'!E111)-2),""""),IF(MID('[1]HK TREATED'!E111,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E111,LEN('[1]HK TREATED'!E111)-2),""""),IF(H111="-",CONCATENATE("'",'[1]HK TREATED'!E111,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E111,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D111" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F111,4),"""")</f>
-        <v>x"0000076D"</v>
+        <v>x"0000076F"</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="24"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F112,4),"""")</f>
-        <v>x"0000076C"</v>
+        <v>x"0000076E"</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="23" t="str">
+      <c r="C113" s="25" t="str">
         <f>IF('[1]HK TREATED'!E113="-","-",IF(MID('[1]HK TREATED'!E113,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E113,LEN('[1]HK TREATED'!E113)-2),""""),IF(MID('[1]HK TREATED'!E113,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E113,LEN('[1]HK TREATED'!E113)-2),""""),IF(H113="-",CONCATENATE("'",'[1]HK TREATED'!E113,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E113,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D113" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F113,4),"""")</f>
-        <v>x"0000076F"</v>
+        <v>x"0000076D"</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="24"/>
+      <c r="C114" s="26"/>
       <c r="D114" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F114,4),"""")</f>
-        <v>x"0000076E"</v>
+        <v>x"0000076C"</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="23" t="str">
+      <c r="C115" s="25" t="str">
         <f>IF('[1]HK TREATED'!E115="-","-",IF(MID('[1]HK TREATED'!E115,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E115,LEN('[1]HK TREATED'!E115)-2),""""),IF(MID('[1]HK TREATED'!E115,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E115,LEN('[1]HK TREATED'!E115)-2),""""),IF(H115="-",CONCATENATE("'",'[1]HK TREATED'!E115,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E115,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D115" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F115,4),"""")</f>
-        <v>x"00000771"</v>
+        <v>x"00000773"</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C116" s="24"/>
+      <c r="C116" s="26"/>
       <c r="D116" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F116,4),"""")</f>
-        <v>x"00000770"</v>
+        <v>x"00000772"</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C117" s="23" t="str">
+      <c r="C117" s="25" t="str">
         <f>IF('[1]HK TREATED'!E117="-","-",IF(MID('[1]HK TREATED'!E117,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E117,LEN('[1]HK TREATED'!E117)-2),""""),IF(MID('[1]HK TREATED'!E117,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E117,LEN('[1]HK TREATED'!E117)-2),""""),IF(H117="-",CONCATENATE("'",'[1]HK TREATED'!E117,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E117,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D117" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F117,4),"""")</f>
-        <v>x"00000773"</v>
+        <v>x"00000771"</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="24"/>
+      <c r="C118" s="26"/>
       <c r="D118" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F118,4),"""")</f>
-        <v>x"00000772"</v>
+        <v>x"00000770"</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="23" t="str">
+      <c r="C119" s="25" t="str">
         <f>IF('[1]HK TREATED'!E119="-","-",IF(MID('[1]HK TREATED'!E119,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E119,LEN('[1]HK TREATED'!E119)-2),""""),IF(MID('[1]HK TREATED'!E119,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E119,LEN('[1]HK TREATED'!E119)-2),""""),IF(H119="-",CONCATENATE("'",'[1]HK TREATED'!E119,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E119,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D119" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F119,4),"""")</f>
-        <v>x"00000775"</v>
+        <v>x"00000777"</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="24"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F120,4),"""")</f>
-        <v>x"00000774"</v>
+        <v>x"00000776"</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C121" s="23" t="str">
+      <c r="C121" s="25" t="str">
         <f>IF('[1]HK TREATED'!E121="-","-",IF(MID('[1]HK TREATED'!E121,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E121,LEN('[1]HK TREATED'!E121)-2),""""),IF(MID('[1]HK TREATED'!E121,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E121,LEN('[1]HK TREATED'!E121)-2),""""),IF(H121="-",CONCATENATE("'",'[1]HK TREATED'!E121,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E121,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D121" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F121,4),"""")</f>
-        <v>x"00000777"</v>
+        <v>x"00000775"</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C122" s="24"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F122,4),"""")</f>
-        <v>x"00000776"</v>
+        <v>x"00000774"</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="25" t="s">
+      <c r="B123" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="23" t="str">
+      <c r="C123" s="25" t="str">
         <f>IF('[1]HK TREATED'!E123="-","-",IF(MID('[1]HK TREATED'!E123,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E123,LEN('[1]HK TREATED'!E123)-2),""""),IF(MID('[1]HK TREATED'!E123,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E123,LEN('[1]HK TREATED'!E123)-2),""""),IF(H123="-",CONCATENATE("'",'[1]HK TREATED'!E123,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E123,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D123" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F123,4),"""")</f>
-        <v>x"00000779"</v>
+        <v>x"0000077B"</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="24"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F124,4),"""")</f>
-        <v>x"00000778"</v>
+        <v>x"0000077A"</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="23" t="str">
+      <c r="C125" s="25" t="str">
         <f>IF('[1]HK TREATED'!E125="-","-",IF(MID('[1]HK TREATED'!E125,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E125,LEN('[1]HK TREATED'!E125)-2),""""),IF(MID('[1]HK TREATED'!E125,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E125,LEN('[1]HK TREATED'!E125)-2),""""),IF(H125="-",CONCATENATE("'",'[1]HK TREATED'!E125,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E125,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D125" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F125,4),"""")</f>
-        <v>x"0000077B"</v>
+        <v>x"00000779"</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C126" s="24"/>
+      <c r="C126" s="26"/>
       <c r="D126" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F126,4),"""")</f>
-        <v>x"0000077A"</v>
+        <v>x"00000778"</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="23" t="str">
+      <c r="C127" s="25" t="str">
         <f>IF('[1]HK TREATED'!E127="-","-",IF(MID('[1]HK TREATED'!E127,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E127,LEN('[1]HK TREATED'!E127)-2),""""),IF(MID('[1]HK TREATED'!E127,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E127,LEN('[1]HK TREATED'!E127)-2),""""),IF(H127="-",CONCATENATE("'",'[1]HK TREATED'!E127,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E127,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D127" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F127,4),"""")</f>
-        <v>x"0000077D"</v>
+        <v>x"0000077F"</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="24"/>
+      <c r="C128" s="26"/>
       <c r="D128" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F128,4),"""")</f>
-        <v>x"0000077C"</v>
+        <v>x"0000077E"</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="23" t="str">
+      <c r="C129" s="25" t="str">
         <f>IF('[1]HK TREATED'!E129="-","-",IF(MID('[1]HK TREATED'!E129,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E129,LEN('[1]HK TREATED'!E129)-2),""""),IF(MID('[1]HK TREATED'!E129,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E129,LEN('[1]HK TREATED'!E129)-2),""""),IF(H129="-",CONCATENATE("'",'[1]HK TREATED'!E129,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E129,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
       <c r="D129" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F129,4),"""")</f>
-        <v>x"0000077F"</v>
+        <v>x"0000077D"</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="24"/>
+      <c r="C130" s="26"/>
       <c r="D130" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F130,4),"""")</f>
-        <v>x"0000077E"</v>
+        <v>x"0000077C"</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B109:B110"/>
@@ -27877,100 +27961,16 @@
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30154,7 +30154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f>'HK TREATED VHDL'!D3</f>
-        <v>x"00000701"</v>
+        <v>x"00000703"</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -30364,7 +30364,7 @@
       <c r="Q10" s="5"/>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000701") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000703") =&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -30427,7 +30427,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f>'HK TREATED VHDL'!D4</f>
-        <v>x"00000700"</v>
+        <v>x"00000702"</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -30448,7 +30448,7 @@
       <c r="Q12" s="5"/>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000700") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000702") =&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f>'HK TREATED VHDL'!D5</f>
-        <v>x"00000703"</v>
+        <v>x"00000701"</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -30532,7 +30532,7 @@
       <c r="Q14" s="5"/>
       <c r="S14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000703") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000701") =&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f>'HK TREATED VHDL'!D6</f>
-        <v>x"00000702"</v>
+        <v>x"00000700"</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -30616,7 +30616,7 @@
       <c r="Q16" s="5"/>
       <c r="S16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000702") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000700") =&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f>'HK TREATED VHDL'!D7</f>
-        <v>x"00000705"</v>
+        <v>x"00000707"</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -30700,7 +30700,7 @@
       <c r="Q18" s="5"/>
       <c r="S18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000705") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000707") =&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
@@ -30763,7 +30763,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f>'HK TREATED VHDL'!D8</f>
-        <v>x"00000704"</v>
+        <v>x"00000706"</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -30784,7 +30784,7 @@
       <c r="Q20" s="5"/>
       <c r="S20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000704") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000706") =&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
@@ -30847,7 +30847,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f>'HK TREATED VHDL'!D9</f>
-        <v>x"00000707"</v>
+        <v>x"00000705"</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -30868,7 +30868,7 @@
       <c r="Q22" s="5"/>
       <c r="S22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000707") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000705") =&gt;</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
@@ -30931,7 +30931,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f>'HK TREATED VHDL'!D10</f>
-        <v>x"00000706"</v>
+        <v>x"00000704"</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -30952,7 +30952,7 @@
       <c r="Q24" s="5"/>
       <c r="S24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000706") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000704") =&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
@@ -31015,7 +31015,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f>'HK TREATED VHDL'!D11</f>
-        <v>x"00000709"</v>
+        <v>x"0000070B"</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -31036,7 +31036,7 @@
       <c r="Q26" s="5"/>
       <c r="S26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000709") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070B") =&gt;</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -31099,7 +31099,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f>'HK TREATED VHDL'!D12</f>
-        <v>x"00000708"</v>
+        <v>x"0000070A"</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -31120,7 +31120,7 @@
       <c r="Q28" s="5"/>
       <c r="S28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000708") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070A") =&gt;</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
@@ -31183,7 +31183,7 @@
       </c>
       <c r="D30" s="7" t="str">
         <f>'HK TREATED VHDL'!D13</f>
-        <v>x"0000070B"</v>
+        <v>x"00000709"</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>17</v>
@@ -31204,7 +31204,7 @@
       <c r="Q30" s="5"/>
       <c r="S30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000709") =&gt;</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
@@ -31267,7 +31267,7 @@
       </c>
       <c r="D32" s="7" t="str">
         <f>'HK TREATED VHDL'!D14</f>
-        <v>x"0000070A"</v>
+        <v>x"00000708"</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
@@ -31288,7 +31288,7 @@
       <c r="Q32" s="5"/>
       <c r="S32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000708") =&gt;</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="D34" s="7" t="str">
         <f>'HK TREATED VHDL'!D15</f>
-        <v>x"0000070D"</v>
+        <v>x"0000070F"</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -31372,7 +31372,7 @@
       <c r="Q34" s="5"/>
       <c r="S34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070F") =&gt;</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
@@ -31435,7 +31435,7 @@
       </c>
       <c r="D36" s="7" t="str">
         <f>'HK TREATED VHDL'!D16</f>
-        <v>x"0000070C"</v>
+        <v>x"0000070E"</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -31456,7 +31456,7 @@
       <c r="Q36" s="5"/>
       <c r="S36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070E") =&gt;</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
@@ -31519,7 +31519,7 @@
       </c>
       <c r="D38" s="7" t="str">
         <f>'HK TREATED VHDL'!D17</f>
-        <v>x"0000070F"</v>
+        <v>x"0000070D"</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -31540,7 +31540,7 @@
       <c r="Q38" s="5"/>
       <c r="S38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070D") =&gt;</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="D40" s="7" t="str">
         <f>'HK TREATED VHDL'!D18</f>
-        <v>x"0000070E"</v>
+        <v>x"0000070C"</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
@@ -31624,7 +31624,7 @@
       <c r="Q40" s="5"/>
       <c r="S40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070C") =&gt;</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
@@ -31687,7 +31687,7 @@
       </c>
       <c r="D42" s="7" t="str">
         <f>'HK TREATED VHDL'!D19</f>
-        <v>x"00000711"</v>
+        <v>x"00000713"</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -31708,7 +31708,7 @@
       <c r="Q42" s="5"/>
       <c r="S42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000711") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000713") =&gt;</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="D44" s="7" t="str">
         <f>'HK TREATED VHDL'!D20</f>
-        <v>x"00000710"</v>
+        <v>x"00000712"</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
@@ -31792,7 +31792,7 @@
       <c r="Q44" s="5"/>
       <c r="S44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000710") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000712") =&gt;</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
@@ -31855,7 +31855,7 @@
       </c>
       <c r="D46" s="7" t="str">
         <f>'HK TREATED VHDL'!D21</f>
-        <v>x"00000713"</v>
+        <v>x"00000711"</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
@@ -31876,7 +31876,7 @@
       <c r="Q46" s="5"/>
       <c r="S46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000713") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000711") =&gt;</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
@@ -31939,7 +31939,7 @@
       </c>
       <c r="D48" s="7" t="str">
         <f>'HK TREATED VHDL'!D22</f>
-        <v>x"00000712"</v>
+        <v>x"00000710"</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -31960,7 +31960,7 @@
       <c r="Q48" s="5"/>
       <c r="S48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000712") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000710") =&gt;</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.3">
@@ -32023,7 +32023,7 @@
       </c>
       <c r="D50" s="7" t="str">
         <f>'HK TREATED VHDL'!D23</f>
-        <v>x"00000715"</v>
+        <v>x"00000717"</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
@@ -32044,7 +32044,7 @@
       <c r="Q50" s="5"/>
       <c r="S50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000715") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000717") =&gt;</v>
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.3">
@@ -32107,7 +32107,7 @@
       </c>
       <c r="D52" s="7" t="str">
         <f>'HK TREATED VHDL'!D24</f>
-        <v>x"00000714"</v>
+        <v>x"00000716"</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -32128,7 +32128,7 @@
       <c r="Q52" s="5"/>
       <c r="S52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000714") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000716") =&gt;</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.3">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="D54" s="7" t="str">
         <f>'HK TREATED VHDL'!D25</f>
-        <v>x"00000717"</v>
+        <v>x"00000715"</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
@@ -32212,7 +32212,7 @@
       <c r="Q54" s="5"/>
       <c r="S54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000717") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000715") =&gt;</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.3">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="D56" s="7" t="str">
         <f>'HK TREATED VHDL'!D26</f>
-        <v>x"00000716"</v>
+        <v>x"00000714"</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
@@ -32296,7 +32296,7 @@
       <c r="Q56" s="5"/>
       <c r="S56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000716") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000714") =&gt;</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.3">
@@ -32359,7 +32359,7 @@
       </c>
       <c r="D58" s="7" t="str">
         <f>'HK TREATED VHDL'!D27</f>
-        <v>x"00000719"</v>
+        <v>x"0000071B"</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
@@ -32380,7 +32380,7 @@
       <c r="Q58" s="5"/>
       <c r="S58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000719") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071B") =&gt;</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.3">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="D60" s="7" t="str">
         <f>'HK TREATED VHDL'!D28</f>
-        <v>x"00000718"</v>
+        <v>x"0000071A"</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>17</v>
@@ -32464,7 +32464,7 @@
       <c r="Q60" s="5"/>
       <c r="S60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000718") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071A") =&gt;</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="D62" s="7" t="str">
         <f>'HK TREATED VHDL'!D29</f>
-        <v>x"0000071B"</v>
+        <v>x"00000719"</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
@@ -32548,7 +32548,7 @@
       <c r="Q62" s="5"/>
       <c r="S62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000719") =&gt;</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.3">
@@ -32611,7 +32611,7 @@
       </c>
       <c r="D64" s="7" t="str">
         <f>'HK TREATED VHDL'!D30</f>
-        <v>x"0000071A"</v>
+        <v>x"00000718"</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>17</v>
@@ -32632,7 +32632,7 @@
       <c r="Q64" s="5"/>
       <c r="S64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000718") =&gt;</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.3">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="D66" s="7" t="str">
         <f>'HK TREATED VHDL'!D31</f>
-        <v>x"0000071D"</v>
+        <v>x"0000071F"</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
@@ -32716,7 +32716,7 @@
       <c r="Q66" s="5"/>
       <c r="S66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071F") =&gt;</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.3">
@@ -32779,7 +32779,7 @@
       </c>
       <c r="D68" s="7" t="str">
         <f>'HK TREATED VHDL'!D32</f>
-        <v>x"0000071C"</v>
+        <v>x"0000071E"</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -32800,7 +32800,7 @@
       <c r="Q68" s="5"/>
       <c r="S68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071E") =&gt;</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
@@ -32863,7 +32863,7 @@
       </c>
       <c r="D70" s="7" t="str">
         <f>'HK TREATED VHDL'!D33</f>
-        <v>x"0000071F"</v>
+        <v>x"0000071D"</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -32884,7 +32884,7 @@
       <c r="Q70" s="5"/>
       <c r="S70" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071D") =&gt;</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.3">
@@ -32947,7 +32947,7 @@
       </c>
       <c r="D72" s="7" t="str">
         <f>'HK TREATED VHDL'!D34</f>
-        <v>x"0000071E"</v>
+        <v>x"0000071C"</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -32968,7 +32968,7 @@
       <c r="Q72" s="5"/>
       <c r="S72" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071C") =&gt;</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.3">
@@ -33031,7 +33031,7 @@
       </c>
       <c r="D74" s="7" t="str">
         <f>'HK TREATED VHDL'!D35</f>
-        <v>x"00000721"</v>
+        <v>x"00000723"</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
@@ -33052,7 +33052,7 @@
       <c r="Q74" s="5"/>
       <c r="S74" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000721") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000723") =&gt;</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.3">
@@ -33115,7 +33115,7 @@
       </c>
       <c r="D76" s="7" t="str">
         <f>'HK TREATED VHDL'!D36</f>
-        <v>x"00000720"</v>
+        <v>x"00000722"</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
@@ -33136,7 +33136,7 @@
       <c r="Q76" s="5"/>
       <c r="S76" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000720") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000722") =&gt;</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.3">
@@ -33199,7 +33199,7 @@
       </c>
       <c r="D78" s="7" t="str">
         <f>'HK TREATED VHDL'!D37</f>
-        <v>x"00000723"</v>
+        <v>x"00000721"</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>17</v>
@@ -33220,7 +33220,7 @@
       <c r="Q78" s="5"/>
       <c r="S78" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000723") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000721") =&gt;</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.3">
@@ -33283,7 +33283,7 @@
       </c>
       <c r="D80" s="7" t="str">
         <f>'HK TREATED VHDL'!D38</f>
-        <v>x"00000722"</v>
+        <v>x"00000720"</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>17</v>
@@ -33304,7 +33304,7 @@
       <c r="Q80" s="5"/>
       <c r="S80" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000722") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000720") =&gt;</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.3">
@@ -33367,7 +33367,7 @@
       </c>
       <c r="D82" s="7" t="str">
         <f>'HK TREATED VHDL'!D39</f>
-        <v>x"00000725"</v>
+        <v>x"00000727"</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>17</v>
@@ -33388,7 +33388,7 @@
       <c r="Q82" s="5"/>
       <c r="S82" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000725") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000727") =&gt;</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.3">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="D84" s="7" t="str">
         <f>'HK TREATED VHDL'!D40</f>
-        <v>x"00000724"</v>
+        <v>x"00000726"</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>17</v>
@@ -33472,7 +33472,7 @@
       <c r="Q84" s="5"/>
       <c r="S84" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000724") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000726") =&gt;</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.3">
@@ -33535,7 +33535,7 @@
       </c>
       <c r="D86" s="7" t="str">
         <f>'HK TREATED VHDL'!D41</f>
-        <v>x"00000727"</v>
+        <v>x"00000725"</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>17</v>
@@ -33556,7 +33556,7 @@
       <c r="Q86" s="5"/>
       <c r="S86" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000727") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000725") =&gt;</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.3">
@@ -33619,7 +33619,7 @@
       </c>
       <c r="D88" s="7" t="str">
         <f>'HK TREATED VHDL'!D42</f>
-        <v>x"00000726"</v>
+        <v>x"00000724"</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
@@ -33640,7 +33640,7 @@
       <c r="Q88" s="5"/>
       <c r="S88" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000726") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000724") =&gt;</v>
       </c>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.3">
@@ -33703,7 +33703,7 @@
       </c>
       <c r="D90" s="7" t="str">
         <f>'HK TREATED VHDL'!D43</f>
-        <v>x"00000729"</v>
+        <v>x"0000072B"</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>17</v>
@@ -33724,7 +33724,7 @@
       <c r="Q90" s="5"/>
       <c r="S90" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000729") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072B") =&gt;</v>
       </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.3">
@@ -33787,7 +33787,7 @@
       </c>
       <c r="D92" s="7" t="str">
         <f>'HK TREATED VHDL'!D44</f>
-        <v>x"00000728"</v>
+        <v>x"0000072A"</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
@@ -33808,7 +33808,7 @@
       <c r="Q92" s="5"/>
       <c r="S92" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000728") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072A") =&gt;</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.3">
@@ -33871,7 +33871,7 @@
       </c>
       <c r="D94" s="7" t="str">
         <f>'HK TREATED VHDL'!D45</f>
-        <v>x"0000072B"</v>
+        <v>x"00000729"</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>17</v>
@@ -33892,7 +33892,7 @@
       <c r="Q94" s="5"/>
       <c r="S94" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000729") =&gt;</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.3">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="D96" s="7" t="str">
         <f>'HK TREATED VHDL'!D46</f>
-        <v>x"0000072A"</v>
+        <v>x"00000728"</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>17</v>
@@ -33976,7 +33976,7 @@
       <c r="Q96" s="5"/>
       <c r="S96" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000728") =&gt;</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.3">
@@ -34039,7 +34039,7 @@
       </c>
       <c r="D98" s="7" t="str">
         <f>'HK TREATED VHDL'!D47</f>
-        <v>x"0000072D"</v>
+        <v>x"0000072F"</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>17</v>
@@ -34060,7 +34060,7 @@
       <c r="Q98" s="5"/>
       <c r="S98" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072F") =&gt;</v>
       </c>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.3">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="D100" s="7" t="str">
         <f>'HK TREATED VHDL'!D48</f>
-        <v>x"0000072C"</v>
+        <v>x"0000072E"</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
@@ -34144,7 +34144,7 @@
       <c r="Q100" s="5"/>
       <c r="S100" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072E") =&gt;</v>
       </c>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.3">
@@ -34207,7 +34207,7 @@
       </c>
       <c r="D102" s="7" t="str">
         <f>'HK TREATED VHDL'!D49</f>
-        <v>x"0000072F"</v>
+        <v>x"0000072D"</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>17</v>
@@ -34228,7 +34228,7 @@
       <c r="Q102" s="5"/>
       <c r="S102" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072D") =&gt;</v>
       </c>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.3">
@@ -34291,7 +34291,7 @@
       </c>
       <c r="D104" s="7" t="str">
         <f>'HK TREATED VHDL'!D50</f>
-        <v>x"0000072E"</v>
+        <v>x"0000072C"</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
@@ -34312,7 +34312,7 @@
       <c r="Q104" s="5"/>
       <c r="S104" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072C") =&gt;</v>
       </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.3">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="D106" s="7" t="str">
         <f>'HK TREATED VHDL'!D51</f>
-        <v>x"00000731"</v>
+        <v>x"00000733"</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>17</v>
@@ -34396,7 +34396,7 @@
       <c r="Q106" s="5"/>
       <c r="S106" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000731") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000733") =&gt;</v>
       </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.3">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="D108" s="7" t="str">
         <f>'HK TREATED VHDL'!D52</f>
-        <v>x"00000730"</v>
+        <v>x"00000732"</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>17</v>
@@ -34480,7 +34480,7 @@
       <c r="Q108" s="5"/>
       <c r="S108" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000730") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000732") =&gt;</v>
       </c>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.3">
@@ -34543,7 +34543,7 @@
       </c>
       <c r="D110" s="7" t="str">
         <f>'HK TREATED VHDL'!D53</f>
-        <v>x"00000733"</v>
+        <v>x"00000731"</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>17</v>
@@ -34564,7 +34564,7 @@
       <c r="Q110" s="5"/>
       <c r="S110" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000733") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000731") =&gt;</v>
       </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.3">
@@ -34627,7 +34627,7 @@
       </c>
       <c r="D112" s="7" t="str">
         <f>'HK TREATED VHDL'!D54</f>
-        <v>x"00000732"</v>
+        <v>x"00000730"</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>17</v>
@@ -34648,7 +34648,7 @@
       <c r="Q112" s="5"/>
       <c r="S112" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000732") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000730") =&gt;</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.3">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="D114" s="7" t="str">
         <f>'HK TREATED VHDL'!D55</f>
-        <v>x"00000735"</v>
+        <v>x"00000737"</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>17</v>
@@ -34732,7 +34732,7 @@
       <c r="Q114" s="5"/>
       <c r="S114" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000735") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000737") =&gt;</v>
       </c>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.3">
@@ -34795,7 +34795,7 @@
       </c>
       <c r="D116" s="7" t="str">
         <f>'HK TREATED VHDL'!D56</f>
-        <v>x"00000734"</v>
+        <v>x"00000736"</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>17</v>
@@ -34816,7 +34816,7 @@
       <c r="Q116" s="5"/>
       <c r="S116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000734") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000736") =&gt;</v>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.3">
@@ -34879,7 +34879,7 @@
       </c>
       <c r="D118" s="7" t="str">
         <f>'HK TREATED VHDL'!D57</f>
-        <v>x"00000737"</v>
+        <v>x"00000735"</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>17</v>
@@ -34900,7 +34900,7 @@
       <c r="Q118" s="5"/>
       <c r="S118" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000737") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000735") =&gt;</v>
       </c>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.3">
@@ -34963,7 +34963,7 @@
       </c>
       <c r="D120" s="7" t="str">
         <f>'HK TREATED VHDL'!D58</f>
-        <v>x"00000736"</v>
+        <v>x"00000734"</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>17</v>
@@ -34984,7 +34984,7 @@
       <c r="Q120" s="5"/>
       <c r="S120" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000736") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000734") =&gt;</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.3">
@@ -35047,7 +35047,7 @@
       </c>
       <c r="D122" s="7" t="str">
         <f>'HK TREATED VHDL'!D59</f>
-        <v>x"00000739"</v>
+        <v>x"0000073B"</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>17</v>
@@ -35068,7 +35068,7 @@
       <c r="Q122" s="5"/>
       <c r="S122" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000739") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073B") =&gt;</v>
       </c>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.3">
@@ -35131,7 +35131,7 @@
       </c>
       <c r="D124" s="7" t="str">
         <f>'HK TREATED VHDL'!D60</f>
-        <v>x"00000738"</v>
+        <v>x"0000073A"</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>17</v>
@@ -35152,7 +35152,7 @@
       <c r="Q124" s="5"/>
       <c r="S124" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000738") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073A") =&gt;</v>
       </c>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.3">
@@ -35215,7 +35215,7 @@
       </c>
       <c r="D126" s="7" t="str">
         <f>'HK TREATED VHDL'!D61</f>
-        <v>x"0000073B"</v>
+        <v>x"00000739"</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>17</v>
@@ -35236,7 +35236,7 @@
       <c r="Q126" s="5"/>
       <c r="S126" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000739") =&gt;</v>
       </c>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.3">
@@ -35299,7 +35299,7 @@
       </c>
       <c r="D128" s="7" t="str">
         <f>'HK TREATED VHDL'!D62</f>
-        <v>x"0000073A"</v>
+        <v>x"00000738"</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>17</v>
@@ -35320,7 +35320,7 @@
       <c r="Q128" s="5"/>
       <c r="S128" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000738") =&gt;</v>
       </c>
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.3">
@@ -35383,7 +35383,7 @@
       </c>
       <c r="D130" s="7" t="str">
         <f>'HK TREATED VHDL'!D63</f>
-        <v>x"0000073D"</v>
+        <v>x"0000073F"</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>17</v>
@@ -35404,7 +35404,7 @@
       <c r="Q130" s="5"/>
       <c r="S130" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073F") =&gt;</v>
       </c>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.3">
@@ -35467,7 +35467,7 @@
       </c>
       <c r="D132" s="7" t="str">
         <f>'HK TREATED VHDL'!D64</f>
-        <v>x"0000073C"</v>
+        <v>x"0000073E"</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>17</v>
@@ -35488,7 +35488,7 @@
       <c r="Q132" s="5"/>
       <c r="S132" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073E") =&gt;</v>
       </c>
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.3">
@@ -35551,7 +35551,7 @@
       </c>
       <c r="D134" s="7" t="str">
         <f>'HK TREATED VHDL'!D65</f>
-        <v>x"0000073F"</v>
+        <v>x"0000073D"</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>17</v>
@@ -35572,7 +35572,7 @@
       <c r="Q134" s="5"/>
       <c r="S134" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073D") =&gt;</v>
       </c>
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.3">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="D136" s="7" t="str">
         <f>'HK TREATED VHDL'!D66</f>
-        <v>x"0000073E"</v>
+        <v>x"0000073C"</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>17</v>
@@ -35656,7 +35656,7 @@
       <c r="Q136" s="5"/>
       <c r="S136" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073C") =&gt;</v>
       </c>
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.3">
@@ -35719,7 +35719,7 @@
       </c>
       <c r="D138" s="7" t="str">
         <f>'HK TREATED VHDL'!D67</f>
-        <v>x"00000741"</v>
+        <v>x"00000743"</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>17</v>
@@ -35740,7 +35740,7 @@
       <c r="Q138" s="5"/>
       <c r="S138" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000741") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000743") =&gt;</v>
       </c>
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.3">
@@ -35803,7 +35803,7 @@
       </c>
       <c r="D140" s="7" t="str">
         <f>'HK TREATED VHDL'!D68</f>
-        <v>x"00000740"</v>
+        <v>x"00000742"</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>17</v>
@@ -35824,7 +35824,7 @@
       <c r="Q140" s="5"/>
       <c r="S140" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000740") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000742") =&gt;</v>
       </c>
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.3">
@@ -35887,7 +35887,7 @@
       </c>
       <c r="D142" s="7" t="str">
         <f>'HK TREATED VHDL'!D69</f>
-        <v>x"00000743"</v>
+        <v>x"00000741"</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>17</v>
@@ -35908,7 +35908,7 @@
       <c r="Q142" s="5"/>
       <c r="S142" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000743") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000741") =&gt;</v>
       </c>
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.3">
@@ -35971,7 +35971,7 @@
       </c>
       <c r="D144" s="7" t="str">
         <f>'HK TREATED VHDL'!D70</f>
-        <v>x"00000742"</v>
+        <v>x"00000740"</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>17</v>
@@ -35992,7 +35992,7 @@
       <c r="Q144" s="5"/>
       <c r="S144" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000742") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000740") =&gt;</v>
       </c>
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.3">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="D146" s="7" t="str">
         <f>'HK TREATED VHDL'!D71</f>
-        <v>x"00000745"</v>
+        <v>x"00000747"</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>17</v>
@@ -36076,7 +36076,7 @@
       <c r="Q146" s="5"/>
       <c r="S146" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000745") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000747") =&gt;</v>
       </c>
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.3">
@@ -36139,7 +36139,7 @@
       </c>
       <c r="D148" s="7" t="str">
         <f>'HK TREATED VHDL'!D72</f>
-        <v>x"00000744"</v>
+        <v>x"00000746"</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>17</v>
@@ -36160,7 +36160,7 @@
       <c r="Q148" s="5"/>
       <c r="S148" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000744") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000746") =&gt;</v>
       </c>
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.3">
@@ -36223,7 +36223,7 @@
       </c>
       <c r="D150" s="7" t="str">
         <f>'HK TREATED VHDL'!D73</f>
-        <v>x"00000747"</v>
+        <v>x"00000745"</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>17</v>
@@ -36244,7 +36244,7 @@
       <c r="Q150" s="5"/>
       <c r="S150" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000747") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000745") =&gt;</v>
       </c>
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.3">
@@ -36307,7 +36307,7 @@
       </c>
       <c r="D152" s="7" t="str">
         <f>'HK TREATED VHDL'!D74</f>
-        <v>x"00000746"</v>
+        <v>x"00000744"</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>17</v>
@@ -36328,7 +36328,7 @@
       <c r="Q152" s="5"/>
       <c r="S152" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000746") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000744") =&gt;</v>
       </c>
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.3">
@@ -36391,7 +36391,7 @@
       </c>
       <c r="D154" s="7" t="str">
         <f>'HK TREATED VHDL'!D75</f>
-        <v>x"00000749"</v>
+        <v>x"0000074B"</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>17</v>
@@ -36412,7 +36412,7 @@
       <c r="Q154" s="5"/>
       <c r="S154" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000749") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074B") =&gt;</v>
       </c>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.3">
@@ -36475,7 +36475,7 @@
       </c>
       <c r="D156" s="7" t="str">
         <f>'HK TREATED VHDL'!D76</f>
-        <v>x"00000748"</v>
+        <v>x"0000074A"</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>17</v>
@@ -36496,7 +36496,7 @@
       <c r="Q156" s="5"/>
       <c r="S156" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000748") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074A") =&gt;</v>
       </c>
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.3">
@@ -36559,7 +36559,7 @@
       </c>
       <c r="D158" s="7" t="str">
         <f>'HK TREATED VHDL'!D77</f>
-        <v>x"0000074B"</v>
+        <v>x"00000749"</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>17</v>
@@ -36580,7 +36580,7 @@
       <c r="Q158" s="5"/>
       <c r="S158" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000749") =&gt;</v>
       </c>
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.3">
@@ -36643,7 +36643,7 @@
       </c>
       <c r="D160" s="7" t="str">
         <f>'HK TREATED VHDL'!D78</f>
-        <v>x"0000074A"</v>
+        <v>x"00000748"</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>17</v>
@@ -36664,7 +36664,7 @@
       <c r="Q160" s="5"/>
       <c r="S160" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000748") =&gt;</v>
       </c>
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.3">
@@ -36727,7 +36727,7 @@
       </c>
       <c r="D162" s="7" t="str">
         <f>'HK TREATED VHDL'!D79</f>
-        <v>x"0000074D"</v>
+        <v>x"0000074F"</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>17</v>
@@ -36748,7 +36748,7 @@
       <c r="Q162" s="5"/>
       <c r="S162" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074F") =&gt;</v>
       </c>
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.3">
@@ -36811,7 +36811,7 @@
       </c>
       <c r="D164" s="7" t="str">
         <f>'HK TREATED VHDL'!D80</f>
-        <v>x"0000074C"</v>
+        <v>x"0000074E"</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>17</v>
@@ -36832,7 +36832,7 @@
       <c r="Q164" s="5"/>
       <c r="S164" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074E") =&gt;</v>
       </c>
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.3">
@@ -36895,7 +36895,7 @@
       </c>
       <c r="D166" s="7" t="str">
         <f>'HK TREATED VHDL'!D81</f>
-        <v>x"0000074F"</v>
+        <v>x"0000074D"</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>17</v>
@@ -36916,7 +36916,7 @@
       <c r="Q166" s="5"/>
       <c r="S166" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074D") =&gt;</v>
       </c>
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.3">
@@ -36979,7 +36979,7 @@
       </c>
       <c r="D168" s="7" t="str">
         <f>'HK TREATED VHDL'!D82</f>
-        <v>x"0000074E"</v>
+        <v>x"0000074C"</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>17</v>
@@ -37000,7 +37000,7 @@
       <c r="Q168" s="5"/>
       <c r="S168" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074C") =&gt;</v>
       </c>
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.3">
@@ -37063,7 +37063,7 @@
       </c>
       <c r="D170" s="7" t="str">
         <f>'HK TREATED VHDL'!D83</f>
-        <v>x"00000751"</v>
+        <v>x"00000753"</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>17</v>
@@ -37084,7 +37084,7 @@
       <c r="Q170" s="5"/>
       <c r="S170" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000751") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000753") =&gt;</v>
       </c>
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.3">
@@ -37147,7 +37147,7 @@
       </c>
       <c r="D172" s="7" t="str">
         <f>'HK TREATED VHDL'!D84</f>
-        <v>x"00000750"</v>
+        <v>x"00000752"</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>17</v>
@@ -37168,7 +37168,7 @@
       <c r="Q172" s="5"/>
       <c r="S172" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000750") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000752") =&gt;</v>
       </c>
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.3">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="D174" s="7" t="str">
         <f>'HK TREATED VHDL'!D85</f>
-        <v>x"00000753"</v>
+        <v>x"00000751"</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>17</v>
@@ -37252,7 +37252,7 @@
       <c r="Q174" s="5"/>
       <c r="S174" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000753") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000751") =&gt;</v>
       </c>
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.3">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="D176" s="7" t="str">
         <f>'HK TREATED VHDL'!D86</f>
-        <v>x"00000752"</v>
+        <v>x"00000750"</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>17</v>
@@ -37336,7 +37336,7 @@
       <c r="Q176" s="5"/>
       <c r="S176" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000752") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000750") =&gt;</v>
       </c>
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.3">
@@ -37399,7 +37399,7 @@
       </c>
       <c r="D178" s="7" t="str">
         <f>'HK TREATED VHDL'!D87</f>
-        <v>x"00000755"</v>
+        <v>x"00000757"</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>17</v>
@@ -37420,7 +37420,7 @@
       <c r="Q178" s="5"/>
       <c r="S178" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000755") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000757") =&gt;</v>
       </c>
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.3">
@@ -37483,7 +37483,7 @@
       </c>
       <c r="D180" s="7" t="str">
         <f>'HK TREATED VHDL'!D88</f>
-        <v>x"00000754"</v>
+        <v>x"00000756"</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>17</v>
@@ -37504,7 +37504,7 @@
       <c r="Q180" s="5"/>
       <c r="S180" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000754") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000756") =&gt;</v>
       </c>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.3">
@@ -37567,7 +37567,7 @@
       </c>
       <c r="D182" s="7" t="str">
         <f>'HK TREATED VHDL'!D89</f>
-        <v>x"00000757"</v>
+        <v>x"00000755"</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>17</v>
@@ -37588,7 +37588,7 @@
       <c r="Q182" s="5"/>
       <c r="S182" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000757") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000755") =&gt;</v>
       </c>
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.3">
@@ -37651,7 +37651,7 @@
       </c>
       <c r="D184" s="7" t="str">
         <f>'HK TREATED VHDL'!D90</f>
-        <v>x"00000756"</v>
+        <v>x"00000754"</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>17</v>
@@ -37672,7 +37672,7 @@
       <c r="Q184" s="5"/>
       <c r="S184" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000756") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000754") =&gt;</v>
       </c>
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.3">
@@ -37735,7 +37735,7 @@
       </c>
       <c r="D186" s="7" t="str">
         <f>'HK TREATED VHDL'!D91</f>
-        <v>x"00000759"</v>
+        <v>x"0000075B"</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>17</v>
@@ -37756,7 +37756,7 @@
       <c r="Q186" s="5"/>
       <c r="S186" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000759") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075B") =&gt;</v>
       </c>
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.3">
@@ -37819,7 +37819,7 @@
       </c>
       <c r="D188" s="7" t="str">
         <f>'HK TREATED VHDL'!D92</f>
-        <v>x"00000758"</v>
+        <v>x"0000075A"</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>17</v>
@@ -37840,7 +37840,7 @@
       <c r="Q188" s="5"/>
       <c r="S188" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000758") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075A") =&gt;</v>
       </c>
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.3">
@@ -37903,7 +37903,7 @@
       </c>
       <c r="D190" s="7" t="str">
         <f>'HK TREATED VHDL'!D93</f>
-        <v>x"0000075B"</v>
+        <v>x"00000759"</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>17</v>
@@ -37924,7 +37924,7 @@
       <c r="Q190" s="5"/>
       <c r="S190" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000759") =&gt;</v>
       </c>
     </row>
     <row r="191" spans="2:19" x14ac:dyDescent="0.3">
@@ -37987,7 +37987,7 @@
       </c>
       <c r="D192" s="7" t="str">
         <f>'HK TREATED VHDL'!D94</f>
-        <v>x"0000075A"</v>
+        <v>x"00000758"</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>17</v>
@@ -38008,7 +38008,7 @@
       <c r="Q192" s="5"/>
       <c r="S192" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000758") =&gt;</v>
       </c>
     </row>
     <row r="193" spans="2:19" x14ac:dyDescent="0.3">
@@ -38071,7 +38071,7 @@
       </c>
       <c r="D194" s="7" t="str">
         <f>'HK TREATED VHDL'!D95</f>
-        <v>x"0000075D"</v>
+        <v>x"0000075F"</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>17</v>
@@ -38092,7 +38092,7 @@
       <c r="Q194" s="5"/>
       <c r="S194" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075F") =&gt;</v>
       </c>
     </row>
     <row r="195" spans="2:19" x14ac:dyDescent="0.3">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="D196" s="7" t="str">
         <f>'HK TREATED VHDL'!D96</f>
-        <v>x"0000075C"</v>
+        <v>x"0000075E"</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>17</v>
@@ -38176,7 +38176,7 @@
       <c r="Q196" s="5"/>
       <c r="S196" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075E") =&gt;</v>
       </c>
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.3">
@@ -38239,7 +38239,7 @@
       </c>
       <c r="D198" s="7" t="str">
         <f>'HK TREATED VHDL'!D97</f>
-        <v>x"0000075F"</v>
+        <v>x"0000075D"</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>17</v>
@@ -38260,7 +38260,7 @@
       <c r="Q198" s="5"/>
       <c r="S198" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075D") =&gt;</v>
       </c>
     </row>
     <row r="199" spans="2:19" x14ac:dyDescent="0.3">
@@ -38323,7 +38323,7 @@
       </c>
       <c r="D200" s="7" t="str">
         <f>'HK TREATED VHDL'!D98</f>
-        <v>x"0000075E"</v>
+        <v>x"0000075C"</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>17</v>
@@ -38344,7 +38344,7 @@
       <c r="Q200" s="5"/>
       <c r="S200" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075C") =&gt;</v>
       </c>
     </row>
     <row r="201" spans="2:19" x14ac:dyDescent="0.3">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="D202" s="7" t="str">
         <f>'HK TREATED VHDL'!D99</f>
-        <v>x"00000761"</v>
+        <v>x"00000763"</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>17</v>
@@ -38428,7 +38428,7 @@
       <c r="Q202" s="5"/>
       <c r="S202" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000761") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000763") =&gt;</v>
       </c>
     </row>
     <row r="203" spans="2:19" x14ac:dyDescent="0.3">
@@ -38491,7 +38491,7 @@
       </c>
       <c r="D204" s="7" t="str">
         <f>'HK TREATED VHDL'!D100</f>
-        <v>x"00000760"</v>
+        <v>x"00000762"</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>17</v>
@@ -38512,7 +38512,7 @@
       <c r="Q204" s="5"/>
       <c r="S204" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000760") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000762") =&gt;</v>
       </c>
     </row>
     <row r="205" spans="2:19" x14ac:dyDescent="0.3">
@@ -38575,7 +38575,7 @@
       </c>
       <c r="D206" s="7" t="str">
         <f>'HK TREATED VHDL'!D101</f>
-        <v>x"00000763"</v>
+        <v>x"00000761"</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>17</v>
@@ -38596,7 +38596,7 @@
       <c r="Q206" s="5"/>
       <c r="S206" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000763") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000761") =&gt;</v>
       </c>
     </row>
     <row r="207" spans="2:19" x14ac:dyDescent="0.3">
@@ -38659,7 +38659,7 @@
       </c>
       <c r="D208" s="7" t="str">
         <f>'HK TREATED VHDL'!D102</f>
-        <v>x"00000762"</v>
+        <v>x"00000760"</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>17</v>
@@ -38680,7 +38680,7 @@
       <c r="Q208" s="5"/>
       <c r="S208" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000762") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000760") =&gt;</v>
       </c>
     </row>
     <row r="209" spans="2:19" x14ac:dyDescent="0.3">
@@ -38743,7 +38743,7 @@
       </c>
       <c r="D210" s="7" t="str">
         <f>'HK TREATED VHDL'!D103</f>
-        <v>x"00000765"</v>
+        <v>x"00000767"</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>17</v>
@@ -38764,7 +38764,7 @@
       <c r="Q210" s="5"/>
       <c r="S210" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000765") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000767") =&gt;</v>
       </c>
     </row>
     <row r="211" spans="2:19" x14ac:dyDescent="0.3">
@@ -38827,7 +38827,7 @@
       </c>
       <c r="D212" s="7" t="str">
         <f>'HK TREATED VHDL'!D104</f>
-        <v>x"00000764"</v>
+        <v>x"00000766"</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>17</v>
@@ -38848,7 +38848,7 @@
       <c r="Q212" s="5"/>
       <c r="S212" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000764") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000766") =&gt;</v>
       </c>
     </row>
     <row r="213" spans="2:19" x14ac:dyDescent="0.3">
@@ -38911,7 +38911,7 @@
       </c>
       <c r="D214" s="7" t="str">
         <f>'HK TREATED VHDL'!D105</f>
-        <v>x"00000767"</v>
+        <v>x"00000765"</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>17</v>
@@ -38932,7 +38932,7 @@
       <c r="Q214" s="5"/>
       <c r="S214" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000767") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000765") =&gt;</v>
       </c>
     </row>
     <row r="215" spans="2:19" x14ac:dyDescent="0.3">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="D216" s="7" t="str">
         <f>'HK TREATED VHDL'!D106</f>
-        <v>x"00000766"</v>
+        <v>x"00000764"</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>17</v>
@@ -39016,7 +39016,7 @@
       <c r="Q216" s="5"/>
       <c r="S216" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000766") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000764") =&gt;</v>
       </c>
     </row>
     <row r="217" spans="2:19" x14ac:dyDescent="0.3">
@@ -39079,7 +39079,7 @@
       </c>
       <c r="D218" s="7" t="str">
         <f>'HK TREATED VHDL'!D107</f>
-        <v>x"00000769"</v>
+        <v>x"0000076B"</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>17</v>
@@ -39100,7 +39100,7 @@
       <c r="Q218" s="5"/>
       <c r="S218" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000769") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076B") =&gt;</v>
       </c>
     </row>
     <row r="219" spans="2:19" x14ac:dyDescent="0.3">
@@ -39163,7 +39163,7 @@
       </c>
       <c r="D220" s="7" t="str">
         <f>'HK TREATED VHDL'!D108</f>
-        <v>x"00000768"</v>
+        <v>x"0000076A"</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>17</v>
@@ -39184,7 +39184,7 @@
       <c r="Q220" s="5"/>
       <c r="S220" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000768") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076A") =&gt;</v>
       </c>
     </row>
     <row r="221" spans="2:19" x14ac:dyDescent="0.3">
@@ -39247,7 +39247,7 @@
       </c>
       <c r="D222" s="7" t="str">
         <f>'HK TREATED VHDL'!D109</f>
-        <v>x"0000076B"</v>
+        <v>x"00000769"</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>17</v>
@@ -39268,7 +39268,7 @@
       <c r="Q222" s="5"/>
       <c r="S222" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000769") =&gt;</v>
       </c>
     </row>
     <row r="223" spans="2:19" x14ac:dyDescent="0.3">
@@ -39331,7 +39331,7 @@
       </c>
       <c r="D224" s="7" t="str">
         <f>'HK TREATED VHDL'!D110</f>
-        <v>x"0000076A"</v>
+        <v>x"00000768"</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>17</v>
@@ -39352,7 +39352,7 @@
       <c r="Q224" s="5"/>
       <c r="S224" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000768") =&gt;</v>
       </c>
     </row>
     <row r="225" spans="2:19" x14ac:dyDescent="0.3">
@@ -39415,7 +39415,7 @@
       </c>
       <c r="D226" s="7" t="str">
         <f>'HK TREATED VHDL'!D111</f>
-        <v>x"0000076D"</v>
+        <v>x"0000076F"</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>17</v>
@@ -39436,7 +39436,7 @@
       <c r="Q226" s="5"/>
       <c r="S226" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076F") =&gt;</v>
       </c>
     </row>
     <row r="227" spans="2:19" x14ac:dyDescent="0.3">
@@ -39499,7 +39499,7 @@
       </c>
       <c r="D228" s="7" t="str">
         <f>'HK TREATED VHDL'!D112</f>
-        <v>x"0000076C"</v>
+        <v>x"0000076E"</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>17</v>
@@ -39520,7 +39520,7 @@
       <c r="Q228" s="5"/>
       <c r="S228" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076E") =&gt;</v>
       </c>
     </row>
     <row r="229" spans="2:19" x14ac:dyDescent="0.3">
@@ -39583,7 +39583,7 @@
       </c>
       <c r="D230" s="7" t="str">
         <f>'HK TREATED VHDL'!D113</f>
-        <v>x"0000076F"</v>
+        <v>x"0000076D"</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>17</v>
@@ -39604,7 +39604,7 @@
       <c r="Q230" s="5"/>
       <c r="S230" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076D") =&gt;</v>
       </c>
     </row>
     <row r="231" spans="2:19" x14ac:dyDescent="0.3">
@@ -39667,7 +39667,7 @@
       </c>
       <c r="D232" s="7" t="str">
         <f>'HK TREATED VHDL'!D114</f>
-        <v>x"0000076E"</v>
+        <v>x"0000076C"</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>17</v>
@@ -39688,7 +39688,7 @@
       <c r="Q232" s="5"/>
       <c r="S232" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076C") =&gt;</v>
       </c>
     </row>
     <row r="233" spans="2:19" x14ac:dyDescent="0.3">
@@ -39751,7 +39751,7 @@
       </c>
       <c r="D234" s="7" t="str">
         <f>'HK TREATED VHDL'!D115</f>
-        <v>x"00000771"</v>
+        <v>x"00000773"</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>17</v>
@@ -39772,7 +39772,7 @@
       <c r="Q234" s="5"/>
       <c r="S234" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000771") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000773") =&gt;</v>
       </c>
     </row>
     <row r="235" spans="2:19" x14ac:dyDescent="0.3">
@@ -39835,7 +39835,7 @@
       </c>
       <c r="D236" s="7" t="str">
         <f>'HK TREATED VHDL'!D116</f>
-        <v>x"00000770"</v>
+        <v>x"00000772"</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>17</v>
@@ -39856,7 +39856,7 @@
       <c r="Q236" s="5"/>
       <c r="S236" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000770") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000772") =&gt;</v>
       </c>
     </row>
     <row r="237" spans="2:19" x14ac:dyDescent="0.3">
@@ -39919,7 +39919,7 @@
       </c>
       <c r="D238" s="7" t="str">
         <f>'HK TREATED VHDL'!D117</f>
-        <v>x"00000773"</v>
+        <v>x"00000771"</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>17</v>
@@ -39940,7 +39940,7 @@
       <c r="Q238" s="5"/>
       <c r="S238" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000773") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000771") =&gt;</v>
       </c>
     </row>
     <row r="239" spans="2:19" x14ac:dyDescent="0.3">
@@ -40003,7 +40003,7 @@
       </c>
       <c r="D240" s="7" t="str">
         <f>'HK TREATED VHDL'!D118</f>
-        <v>x"00000772"</v>
+        <v>x"00000770"</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>17</v>
@@ -40024,7 +40024,7 @@
       <c r="Q240" s="5"/>
       <c r="S240" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000772") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000770") =&gt;</v>
       </c>
     </row>
     <row r="241" spans="2:19" x14ac:dyDescent="0.3">
@@ -40087,7 +40087,7 @@
       </c>
       <c r="D242" s="7" t="str">
         <f>'HK TREATED VHDL'!D119</f>
-        <v>x"00000775"</v>
+        <v>x"00000777"</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>17</v>
@@ -40108,7 +40108,7 @@
       <c r="Q242" s="5"/>
       <c r="S242" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000775") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000777") =&gt;</v>
       </c>
     </row>
     <row r="243" spans="2:19" x14ac:dyDescent="0.3">
@@ -40171,7 +40171,7 @@
       </c>
       <c r="D244" s="7" t="str">
         <f>'HK TREATED VHDL'!D120</f>
-        <v>x"00000774"</v>
+        <v>x"00000776"</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>17</v>
@@ -40192,7 +40192,7 @@
       <c r="Q244" s="5"/>
       <c r="S244" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000774") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000776") =&gt;</v>
       </c>
     </row>
     <row r="245" spans="2:19" x14ac:dyDescent="0.3">
@@ -40255,7 +40255,7 @@
       </c>
       <c r="D246" s="7" t="str">
         <f>'HK TREATED VHDL'!D121</f>
-        <v>x"00000777"</v>
+        <v>x"00000775"</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>17</v>
@@ -40276,7 +40276,7 @@
       <c r="Q246" s="5"/>
       <c r="S246" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000777") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000775") =&gt;</v>
       </c>
     </row>
     <row r="247" spans="2:19" x14ac:dyDescent="0.3">
@@ -40339,7 +40339,7 @@
       </c>
       <c r="D248" s="7" t="str">
         <f>'HK TREATED VHDL'!D122</f>
-        <v>x"00000776"</v>
+        <v>x"00000774"</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>17</v>
@@ -40360,7 +40360,7 @@
       <c r="Q248" s="5"/>
       <c r="S248" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000776") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000774") =&gt;</v>
       </c>
     </row>
     <row r="249" spans="2:19" x14ac:dyDescent="0.3">
@@ -40423,7 +40423,7 @@
       </c>
       <c r="D250" s="7" t="str">
         <f>'HK TREATED VHDL'!D123</f>
-        <v>x"00000779"</v>
+        <v>x"0000077B"</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>17</v>
@@ -40444,7 +40444,7 @@
       <c r="Q250" s="5"/>
       <c r="S250" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000779") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077B") =&gt;</v>
       </c>
     </row>
     <row r="251" spans="2:19" x14ac:dyDescent="0.3">
@@ -40507,7 +40507,7 @@
       </c>
       <c r="D252" s="7" t="str">
         <f>'HK TREATED VHDL'!D124</f>
-        <v>x"00000778"</v>
+        <v>x"0000077A"</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>17</v>
@@ -40528,7 +40528,7 @@
       <c r="Q252" s="5"/>
       <c r="S252" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000778") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077A") =&gt;</v>
       </c>
     </row>
     <row r="253" spans="2:19" x14ac:dyDescent="0.3">
@@ -40591,7 +40591,7 @@
       </c>
       <c r="D254" s="7" t="str">
         <f>'HK TREATED VHDL'!D125</f>
-        <v>x"0000077B"</v>
+        <v>x"00000779"</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>17</v>
@@ -40612,7 +40612,7 @@
       <c r="Q254" s="5"/>
       <c r="S254" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000779") =&gt;</v>
       </c>
     </row>
     <row r="255" spans="2:19" x14ac:dyDescent="0.3">
@@ -40675,7 +40675,7 @@
       </c>
       <c r="D256" s="7" t="str">
         <f>'HK TREATED VHDL'!D126</f>
-        <v>x"0000077A"</v>
+        <v>x"00000778"</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>17</v>
@@ -40696,7 +40696,7 @@
       <c r="Q256" s="5"/>
       <c r="S256" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000778") =&gt;</v>
       </c>
     </row>
     <row r="257" spans="2:19" x14ac:dyDescent="0.3">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="D258" s="7" t="str">
         <f>'HK TREATED VHDL'!D127</f>
-        <v>x"0000077D"</v>
+        <v>x"0000077F"</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>17</v>
@@ -40780,7 +40780,7 @@
       <c r="Q258" s="5"/>
       <c r="S258" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077F") =&gt;</v>
       </c>
     </row>
     <row r="259" spans="2:19" x14ac:dyDescent="0.3">
@@ -40843,7 +40843,7 @@
       </c>
       <c r="D260" s="7" t="str">
         <f>'HK TREATED VHDL'!D128</f>
-        <v>x"0000077C"</v>
+        <v>x"0000077E"</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>17</v>
@@ -40864,7 +40864,7 @@
       <c r="Q260" s="5"/>
       <c r="S260" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077E") =&gt;</v>
       </c>
     </row>
     <row r="261" spans="2:19" x14ac:dyDescent="0.3">
@@ -40927,7 +40927,7 @@
       </c>
       <c r="D262" s="7" t="str">
         <f>'HK TREATED VHDL'!D129</f>
-        <v>x"0000077F"</v>
+        <v>x"0000077D"</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>17</v>
@@ -40948,7 +40948,7 @@
       <c r="Q262" s="5"/>
       <c r="S262" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077D") =&gt;</v>
       </c>
     </row>
     <row r="263" spans="2:19" x14ac:dyDescent="0.3">
@@ -41011,7 +41011,7 @@
       </c>
       <c r="D264" s="7" t="str">
         <f>'HK TREATED VHDL'!D130</f>
-        <v>x"0000077E"</v>
+        <v>x"0000077C"</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>17</v>
@@ -41032,7 +41032,7 @@
       <c r="Q264" s="5"/>
       <c r="S264" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077C") =&gt;</v>
       </c>
     </row>
     <row r="265" spans="2:19" x14ac:dyDescent="0.3">
@@ -41418,7 +41418,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f>'HK TREATED VHDL'!D3</f>
-        <v>x"00000701"</v>
+        <v>x"00000703"</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -41444,7 +41444,7 @@
       <c r="V10" s="5"/>
       <c r="X10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000701") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000703") =&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -41512,7 +41512,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f>'HK TREATED VHDL'!D4</f>
-        <v>x"00000700"</v>
+        <v>x"00000702"</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -41538,7 +41538,7 @@
       <c r="V12" s="5"/>
       <c r="X12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000700") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000702") =&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -41606,7 +41606,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f>'HK TREATED VHDL'!D5</f>
-        <v>x"00000703"</v>
+        <v>x"00000701"</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -41632,7 +41632,7 @@
       <c r="V14" s="5"/>
       <c r="X14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000703") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000701") =&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -41700,7 +41700,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f>'HK TREATED VHDL'!D6</f>
-        <v>x"00000702"</v>
+        <v>x"00000700"</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -41726,7 +41726,7 @@
       <c r="V16" s="5"/>
       <c r="X16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000702") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000700") =&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
@@ -41794,7 +41794,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f>'HK TREATED VHDL'!D7</f>
-        <v>x"00000705"</v>
+        <v>x"00000707"</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -41820,7 +41820,7 @@
       <c r="V18" s="5"/>
       <c r="X18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000705") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000707") =&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
@@ -41888,7 +41888,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f>'HK TREATED VHDL'!D8</f>
-        <v>x"00000704"</v>
+        <v>x"00000706"</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -41914,7 +41914,7 @@
       <c r="V20" s="5"/>
       <c r="X20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000704") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000706") =&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
@@ -41982,7 +41982,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f>'HK TREATED VHDL'!D9</f>
-        <v>x"00000707"</v>
+        <v>x"00000705"</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -42008,7 +42008,7 @@
       <c r="V22" s="5"/>
       <c r="X22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000707") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000705") =&gt;</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
@@ -42076,7 +42076,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f>'HK TREATED VHDL'!D10</f>
-        <v>x"00000706"</v>
+        <v>x"00000704"</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -42102,7 +42102,7 @@
       <c r="V24" s="5"/>
       <c r="X24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000706") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000704") =&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
@@ -42170,7 +42170,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f>'HK TREATED VHDL'!D11</f>
-        <v>x"00000709"</v>
+        <v>x"0000070B"</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -42196,7 +42196,7 @@
       <c r="V26" s="5"/>
       <c r="X26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000709") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070B") =&gt;</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
@@ -42264,7 +42264,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f>'HK TREATED VHDL'!D12</f>
-        <v>x"00000708"</v>
+        <v>x"0000070A"</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -42290,7 +42290,7 @@
       <c r="V28" s="5"/>
       <c r="X28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000708") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070A") =&gt;</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
@@ -42358,7 +42358,7 @@
       </c>
       <c r="D30" s="7" t="str">
         <f>'HK TREATED VHDL'!D13</f>
-        <v>x"0000070B"</v>
+        <v>x"00000709"</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>17</v>
@@ -42384,7 +42384,7 @@
       <c r="V30" s="5"/>
       <c r="X30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000709") =&gt;</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.3">
@@ -42452,7 +42452,7 @@
       </c>
       <c r="D32" s="7" t="str">
         <f>'HK TREATED VHDL'!D14</f>
-        <v>x"0000070A"</v>
+        <v>x"00000708"</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
@@ -42478,7 +42478,7 @@
       <c r="V32" s="5"/>
       <c r="X32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000708") =&gt;</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.3">
@@ -42546,7 +42546,7 @@
       </c>
       <c r="D34" s="7" t="str">
         <f>'HK TREATED VHDL'!D15</f>
-        <v>x"0000070D"</v>
+        <v>x"0000070F"</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -42572,7 +42572,7 @@
       <c r="V34" s="5"/>
       <c r="X34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070F") =&gt;</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.3">
@@ -42640,7 +42640,7 @@
       </c>
       <c r="D36" s="7" t="str">
         <f>'HK TREATED VHDL'!D16</f>
-        <v>x"0000070C"</v>
+        <v>x"0000070E"</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -42666,7 +42666,7 @@
       <c r="V36" s="5"/>
       <c r="X36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070E") =&gt;</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.3">
@@ -42734,7 +42734,7 @@
       </c>
       <c r="D38" s="7" t="str">
         <f>'HK TREATED VHDL'!D17</f>
-        <v>x"0000070F"</v>
+        <v>x"0000070D"</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -42760,7 +42760,7 @@
       <c r="V38" s="5"/>
       <c r="X38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070D") =&gt;</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.3">
@@ -42828,7 +42828,7 @@
       </c>
       <c r="D40" s="7" t="str">
         <f>'HK TREATED VHDL'!D18</f>
-        <v>x"0000070E"</v>
+        <v>x"0000070C"</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
@@ -42854,7 +42854,7 @@
       <c r="V40" s="5"/>
       <c r="X40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000070E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000070C") =&gt;</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.3">
@@ -42922,7 +42922,7 @@
       </c>
       <c r="D42" s="7" t="str">
         <f>'HK TREATED VHDL'!D19</f>
-        <v>x"00000711"</v>
+        <v>x"00000713"</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -42948,7 +42948,7 @@
       <c r="V42" s="5"/>
       <c r="X42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000711") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000713") =&gt;</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="D44" s="7" t="str">
         <f>'HK TREATED VHDL'!D20</f>
-        <v>x"00000710"</v>
+        <v>x"00000712"</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
@@ -43042,7 +43042,7 @@
       <c r="V44" s="5"/>
       <c r="X44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000710") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000712") =&gt;</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
@@ -43110,7 +43110,7 @@
       </c>
       <c r="D46" s="7" t="str">
         <f>'HK TREATED VHDL'!D21</f>
-        <v>x"00000713"</v>
+        <v>x"00000711"</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
@@ -43136,7 +43136,7 @@
       <c r="V46" s="5"/>
       <c r="X46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000713") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000711") =&gt;</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.3">
@@ -43204,7 +43204,7 @@
       </c>
       <c r="D48" s="7" t="str">
         <f>'HK TREATED VHDL'!D22</f>
-        <v>x"00000712"</v>
+        <v>x"00000710"</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -43230,7 +43230,7 @@
       <c r="V48" s="5"/>
       <c r="X48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000712") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000710") =&gt;</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.3">
@@ -43298,7 +43298,7 @@
       </c>
       <c r="D50" s="7" t="str">
         <f>'HK TREATED VHDL'!D23</f>
-        <v>x"00000715"</v>
+        <v>x"00000717"</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
@@ -43324,7 +43324,7 @@
       <c r="V50" s="5"/>
       <c r="X50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000715") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000717") =&gt;</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.3">
@@ -43392,7 +43392,7 @@
       </c>
       <c r="D52" s="7" t="str">
         <f>'HK TREATED VHDL'!D24</f>
-        <v>x"00000714"</v>
+        <v>x"00000716"</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -43418,7 +43418,7 @@
       <c r="V52" s="5"/>
       <c r="X52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000714") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000716") =&gt;</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.3">
@@ -43486,7 +43486,7 @@
       </c>
       <c r="D54" s="7" t="str">
         <f>'HK TREATED VHDL'!D25</f>
-        <v>x"00000717"</v>
+        <v>x"00000715"</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
@@ -43512,7 +43512,7 @@
       <c r="V54" s="5"/>
       <c r="X54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000717") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000715") =&gt;</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.3">
@@ -43580,7 +43580,7 @@
       </c>
       <c r="D56" s="7" t="str">
         <f>'HK TREATED VHDL'!D26</f>
-        <v>x"00000716"</v>
+        <v>x"00000714"</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
@@ -43606,7 +43606,7 @@
       <c r="V56" s="5"/>
       <c r="X56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000716") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000714") =&gt;</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.3">
@@ -43674,7 +43674,7 @@
       </c>
       <c r="D58" s="7" t="str">
         <f>'HK TREATED VHDL'!D27</f>
-        <v>x"00000719"</v>
+        <v>x"0000071B"</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
@@ -43700,7 +43700,7 @@
       <c r="V58" s="5"/>
       <c r="X58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000719") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071B") =&gt;</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.3">
@@ -43768,7 +43768,7 @@
       </c>
       <c r="D60" s="7" t="str">
         <f>'HK TREATED VHDL'!D28</f>
-        <v>x"00000718"</v>
+        <v>x"0000071A"</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>17</v>
@@ -43794,7 +43794,7 @@
       <c r="V60" s="5"/>
       <c r="X60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"00000718") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071A") =&gt;</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.3">
@@ -43862,7 +43862,7 @@
       </c>
       <c r="D62" s="7" t="str">
         <f>'HK TREATED VHDL'!D29</f>
-        <v>x"0000071B"</v>
+        <v>x"00000719"</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
@@ -43888,7 +43888,7 @@
       <c r="V62" s="5"/>
       <c r="X62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000719") =&gt;</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.3">
@@ -43956,7 +43956,7 @@
       </c>
       <c r="D64" s="7" t="str">
         <f>'HK TREATED VHDL'!D30</f>
-        <v>x"0000071A"</v>
+        <v>x"00000718"</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>17</v>
@@ -43982,7 +43982,7 @@
       <c r="V64" s="5"/>
       <c r="X64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000718") =&gt;</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.3">
@@ -44050,7 +44050,7 @@
       </c>
       <c r="D66" s="7" t="str">
         <f>'HK TREATED VHDL'!D31</f>
-        <v>x"0000071D"</v>
+        <v>x"0000071F"</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
@@ -44076,7 +44076,7 @@
       <c r="V66" s="5"/>
       <c r="X66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071F") =&gt;</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.3">
@@ -44144,7 +44144,7 @@
       </c>
       <c r="D68" s="7" t="str">
         <f>'HK TREATED VHDL'!D32</f>
-        <v>x"0000071C"</v>
+        <v>x"0000071E"</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -44170,7 +44170,7 @@
       <c r="V68" s="5"/>
       <c r="X68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071E") =&gt;</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
@@ -44238,7 +44238,7 @@
       </c>
       <c r="D70" s="7" t="str">
         <f>'HK TREATED VHDL'!D33</f>
-        <v>x"0000071F"</v>
+        <v>x"0000071D"</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -44264,7 +44264,7 @@
       <c r="V70" s="5"/>
       <c r="X70" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071D") =&gt;</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.3">
@@ -44332,7 +44332,7 @@
       </c>
       <c r="D72" s="7" t="str">
         <f>'HK TREATED VHDL'!D34</f>
-        <v>x"0000071E"</v>
+        <v>x"0000071C"</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -44358,7 +44358,7 @@
       <c r="V72" s="5"/>
       <c r="X72" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  when (x"0000071E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000071C") =&gt;</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.3">
@@ -44426,7 +44426,7 @@
       </c>
       <c r="D74" s="7" t="str">
         <f>'HK TREATED VHDL'!D35</f>
-        <v>x"00000721"</v>
+        <v>x"00000723"</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
@@ -44452,7 +44452,7 @@
       <c r="V74" s="5"/>
       <c r="X74" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000721") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000723") =&gt;</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.3">
@@ -44520,7 +44520,7 @@
       </c>
       <c r="D76" s="7" t="str">
         <f>'HK TREATED VHDL'!D36</f>
-        <v>x"00000720"</v>
+        <v>x"00000722"</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
@@ -44546,7 +44546,7 @@
       <c r="V76" s="5"/>
       <c r="X76" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000720") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000722") =&gt;</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.3">
@@ -44614,7 +44614,7 @@
       </c>
       <c r="D78" s="7" t="str">
         <f>'HK TREATED VHDL'!D37</f>
-        <v>x"00000723"</v>
+        <v>x"00000721"</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>17</v>
@@ -44640,7 +44640,7 @@
       <c r="V78" s="5"/>
       <c r="X78" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000723") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000721") =&gt;</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.3">
@@ -44708,7 +44708,7 @@
       </c>
       <c r="D80" s="7" t="str">
         <f>'HK TREATED VHDL'!D38</f>
-        <v>x"00000722"</v>
+        <v>x"00000720"</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>17</v>
@@ -44734,7 +44734,7 @@
       <c r="V80" s="5"/>
       <c r="X80" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000722") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000720") =&gt;</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.3">
@@ -44802,7 +44802,7 @@
       </c>
       <c r="D82" s="7" t="str">
         <f>'HK TREATED VHDL'!D39</f>
-        <v>x"00000725"</v>
+        <v>x"00000727"</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>17</v>
@@ -44828,7 +44828,7 @@
       <c r="V82" s="5"/>
       <c r="X82" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000725") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000727") =&gt;</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.3">
@@ -44896,7 +44896,7 @@
       </c>
       <c r="D84" s="7" t="str">
         <f>'HK TREATED VHDL'!D40</f>
-        <v>x"00000724"</v>
+        <v>x"00000726"</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>17</v>
@@ -44922,7 +44922,7 @@
       <c r="V84" s="5"/>
       <c r="X84" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000724") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000726") =&gt;</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.3">
@@ -44990,7 +44990,7 @@
       </c>
       <c r="D86" s="7" t="str">
         <f>'HK TREATED VHDL'!D41</f>
-        <v>x"00000727"</v>
+        <v>x"00000725"</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>17</v>
@@ -45016,7 +45016,7 @@
       <c r="V86" s="5"/>
       <c r="X86" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000727") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000725") =&gt;</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.3">
@@ -45084,7 +45084,7 @@
       </c>
       <c r="D88" s="7" t="str">
         <f>'HK TREATED VHDL'!D42</f>
-        <v>x"00000726"</v>
+        <v>x"00000724"</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
@@ -45110,7 +45110,7 @@
       <c r="V88" s="5"/>
       <c r="X88" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000726") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000724") =&gt;</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.3">
@@ -45178,7 +45178,7 @@
       </c>
       <c r="D90" s="7" t="str">
         <f>'HK TREATED VHDL'!D43</f>
-        <v>x"00000729"</v>
+        <v>x"0000072B"</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>17</v>
@@ -45204,7 +45204,7 @@
       <c r="V90" s="5"/>
       <c r="X90" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000729") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072B") =&gt;</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.3">
@@ -45272,7 +45272,7 @@
       </c>
       <c r="D92" s="7" t="str">
         <f>'HK TREATED VHDL'!D44</f>
-        <v>x"00000728"</v>
+        <v>x"0000072A"</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
@@ -45298,7 +45298,7 @@
       <c r="V92" s="5"/>
       <c r="X92" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000728") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072A") =&gt;</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.3">
@@ -45366,7 +45366,7 @@
       </c>
       <c r="D94" s="7" t="str">
         <f>'HK TREATED VHDL'!D45</f>
-        <v>x"0000072B"</v>
+        <v>x"00000729"</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>17</v>
@@ -45392,7 +45392,7 @@
       <c r="V94" s="5"/>
       <c r="X94" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000729") =&gt;</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.3">
@@ -45460,7 +45460,7 @@
       </c>
       <c r="D96" s="7" t="str">
         <f>'HK TREATED VHDL'!D46</f>
-        <v>x"0000072A"</v>
+        <v>x"00000728"</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>17</v>
@@ -45486,7 +45486,7 @@
       <c r="V96" s="5"/>
       <c r="X96" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000728") =&gt;</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.3">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="D98" s="7" t="str">
         <f>'HK TREATED VHDL'!D47</f>
-        <v>x"0000072D"</v>
+        <v>x"0000072F"</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>17</v>
@@ -45580,7 +45580,7 @@
       <c r="V98" s="5"/>
       <c r="X98" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072F") =&gt;</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.3">
@@ -45648,7 +45648,7 @@
       </c>
       <c r="D100" s="7" t="str">
         <f>'HK TREATED VHDL'!D48</f>
-        <v>x"0000072C"</v>
+        <v>x"0000072E"</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
@@ -45674,7 +45674,7 @@
       <c r="V100" s="5"/>
       <c r="X100" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072E") =&gt;</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.3">
@@ -45742,7 +45742,7 @@
       </c>
       <c r="D102" s="7" t="str">
         <f>'HK TREATED VHDL'!D49</f>
-        <v>x"0000072F"</v>
+        <v>x"0000072D"</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>17</v>
@@ -45768,7 +45768,7 @@
       <c r="V102" s="5"/>
       <c r="X102" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072D") =&gt;</v>
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.3">
@@ -45836,7 +45836,7 @@
       </c>
       <c r="D104" s="7" t="str">
         <f>'HK TREATED VHDL'!D50</f>
-        <v>x"0000072E"</v>
+        <v>x"0000072C"</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
@@ -45862,7 +45862,7 @@
       <c r="V104" s="5"/>
       <c r="X104" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000072E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000072C") =&gt;</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.3">
@@ -45930,7 +45930,7 @@
       </c>
       <c r="D106" s="7" t="str">
         <f>'HK TREATED VHDL'!D51</f>
-        <v>x"00000731"</v>
+        <v>x"00000733"</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>17</v>
@@ -45956,7 +45956,7 @@
       <c r="V106" s="5"/>
       <c r="X106" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000731") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000733") =&gt;</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.3">
@@ -46024,7 +46024,7 @@
       </c>
       <c r="D108" s="7" t="str">
         <f>'HK TREATED VHDL'!D52</f>
-        <v>x"00000730"</v>
+        <v>x"00000732"</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>17</v>
@@ -46050,7 +46050,7 @@
       <c r="V108" s="5"/>
       <c r="X108" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000730") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000732") =&gt;</v>
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.3">
@@ -46118,7 +46118,7 @@
       </c>
       <c r="D110" s="7" t="str">
         <f>'HK TREATED VHDL'!D53</f>
-        <v>x"00000733"</v>
+        <v>x"00000731"</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>17</v>
@@ -46144,7 +46144,7 @@
       <c r="V110" s="5"/>
       <c r="X110" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000733") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000731") =&gt;</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.3">
@@ -46212,7 +46212,7 @@
       </c>
       <c r="D112" s="7" t="str">
         <f>'HK TREATED VHDL'!D54</f>
-        <v>x"00000732"</v>
+        <v>x"00000730"</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>17</v>
@@ -46238,7 +46238,7 @@
       <c r="V112" s="5"/>
       <c r="X112" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000732") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000730") =&gt;</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.3">
@@ -46306,7 +46306,7 @@
       </c>
       <c r="D114" s="7" t="str">
         <f>'HK TREATED VHDL'!D55</f>
-        <v>x"00000735"</v>
+        <v>x"00000737"</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>17</v>
@@ -46332,7 +46332,7 @@
       <c r="V114" s="5"/>
       <c r="X114" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000735") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000737") =&gt;</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.3">
@@ -46400,7 +46400,7 @@
       </c>
       <c r="D116" s="7" t="str">
         <f>'HK TREATED VHDL'!D56</f>
-        <v>x"00000734"</v>
+        <v>x"00000736"</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>17</v>
@@ -46426,7 +46426,7 @@
       <c r="V116" s="5"/>
       <c r="X116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000734") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000736") =&gt;</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.3">
@@ -46494,7 +46494,7 @@
       </c>
       <c r="D118" s="7" t="str">
         <f>'HK TREATED VHDL'!D57</f>
-        <v>x"00000737"</v>
+        <v>x"00000735"</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>17</v>
@@ -46520,7 +46520,7 @@
       <c r="V118" s="5"/>
       <c r="X118" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000737") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000735") =&gt;</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.3">
@@ -46588,7 +46588,7 @@
       </c>
       <c r="D120" s="7" t="str">
         <f>'HK TREATED VHDL'!D58</f>
-        <v>x"00000736"</v>
+        <v>x"00000734"</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>17</v>
@@ -46614,7 +46614,7 @@
       <c r="V120" s="5"/>
       <c r="X120" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000736") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000734") =&gt;</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.3">
@@ -46682,7 +46682,7 @@
       </c>
       <c r="D122" s="7" t="str">
         <f>'HK TREATED VHDL'!D59</f>
-        <v>x"00000739"</v>
+        <v>x"0000073B"</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>17</v>
@@ -46708,7 +46708,7 @@
       <c r="V122" s="5"/>
       <c r="X122" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000739") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073B") =&gt;</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.3">
@@ -46776,7 +46776,7 @@
       </c>
       <c r="D124" s="7" t="str">
         <f>'HK TREATED VHDL'!D60</f>
-        <v>x"00000738"</v>
+        <v>x"0000073A"</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>17</v>
@@ -46802,7 +46802,7 @@
       <c r="V124" s="5"/>
       <c r="X124" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"00000738") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073A") =&gt;</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.3">
@@ -46870,7 +46870,7 @@
       </c>
       <c r="D126" s="7" t="str">
         <f>'HK TREATED VHDL'!D61</f>
-        <v>x"0000073B"</v>
+        <v>x"00000739"</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>17</v>
@@ -46896,7 +46896,7 @@
       <c r="V126" s="5"/>
       <c r="X126" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000739") =&gt;</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.3">
@@ -46964,7 +46964,7 @@
       </c>
       <c r="D128" s="7" t="str">
         <f>'HK TREATED VHDL'!D62</f>
-        <v>x"0000073A"</v>
+        <v>x"00000738"</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>17</v>
@@ -46990,7 +46990,7 @@
       <c r="V128" s="5"/>
       <c r="X128" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000738") =&gt;</v>
       </c>
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.3">
@@ -47058,7 +47058,7 @@
       </c>
       <c r="D130" s="7" t="str">
         <f>'HK TREATED VHDL'!D63</f>
-        <v>x"0000073D"</v>
+        <v>x"0000073F"</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>17</v>
@@ -47084,7 +47084,7 @@
       <c r="V130" s="5"/>
       <c r="X130" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073F") =&gt;</v>
       </c>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.3">
@@ -47152,7 +47152,7 @@
       </c>
       <c r="D132" s="7" t="str">
         <f>'HK TREATED VHDL'!D64</f>
-        <v>x"0000073C"</v>
+        <v>x"0000073E"</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>17</v>
@@ -47178,7 +47178,7 @@
       <c r="V132" s="5"/>
       <c r="X132" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073E") =&gt;</v>
       </c>
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.3">
@@ -47246,7 +47246,7 @@
       </c>
       <c r="D134" s="7" t="str">
         <f>'HK TREATED VHDL'!D65</f>
-        <v>x"0000073F"</v>
+        <v>x"0000073D"</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>17</v>
@@ -47272,7 +47272,7 @@
       <c r="V134" s="5"/>
       <c r="X134" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073D") =&gt;</v>
       </c>
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.3">
@@ -47340,7 +47340,7 @@
       </c>
       <c r="D136" s="7" t="str">
         <f>'HK TREATED VHDL'!D66</f>
-        <v>x"0000073E"</v>
+        <v>x"0000073C"</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>17</v>
@@ -47366,7 +47366,7 @@
       <c r="V136" s="5"/>
       <c r="X136" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  when (x"0000073E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000073C") =&gt;</v>
       </c>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.3">
@@ -47434,7 +47434,7 @@
       </c>
       <c r="D138" s="7" t="str">
         <f>'HK TREATED VHDL'!D67</f>
-        <v>x"00000741"</v>
+        <v>x"00000743"</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>17</v>
@@ -47460,7 +47460,7 @@
       <c r="V138" s="5"/>
       <c r="X138" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000741") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000743") =&gt;</v>
       </c>
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.3">
@@ -47528,7 +47528,7 @@
       </c>
       <c r="D140" s="7" t="str">
         <f>'HK TREATED VHDL'!D68</f>
-        <v>x"00000740"</v>
+        <v>x"00000742"</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>17</v>
@@ -47554,7 +47554,7 @@
       <c r="V140" s="5"/>
       <c r="X140" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000740") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000742") =&gt;</v>
       </c>
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.3">
@@ -47622,7 +47622,7 @@
       </c>
       <c r="D142" s="7" t="str">
         <f>'HK TREATED VHDL'!D69</f>
-        <v>x"00000743"</v>
+        <v>x"00000741"</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>17</v>
@@ -47648,7 +47648,7 @@
       <c r="V142" s="5"/>
       <c r="X142" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000743") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000741") =&gt;</v>
       </c>
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.3">
@@ -47716,7 +47716,7 @@
       </c>
       <c r="D144" s="7" t="str">
         <f>'HK TREATED VHDL'!D70</f>
-        <v>x"00000742"</v>
+        <v>x"00000740"</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>17</v>
@@ -47742,7 +47742,7 @@
       <c r="V144" s="5"/>
       <c r="X144" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000742") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000740") =&gt;</v>
       </c>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.3">
@@ -47810,7 +47810,7 @@
       </c>
       <c r="D146" s="7" t="str">
         <f>'HK TREATED VHDL'!D71</f>
-        <v>x"00000745"</v>
+        <v>x"00000747"</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>17</v>
@@ -47836,7 +47836,7 @@
       <c r="V146" s="5"/>
       <c r="X146" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000745") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000747") =&gt;</v>
       </c>
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.3">
@@ -47904,7 +47904,7 @@
       </c>
       <c r="D148" s="7" t="str">
         <f>'HK TREATED VHDL'!D72</f>
-        <v>x"00000744"</v>
+        <v>x"00000746"</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>17</v>
@@ -47930,7 +47930,7 @@
       <c r="V148" s="5"/>
       <c r="X148" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000744") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000746") =&gt;</v>
       </c>
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.3">
@@ -47998,7 +47998,7 @@
       </c>
       <c r="D150" s="7" t="str">
         <f>'HK TREATED VHDL'!D73</f>
-        <v>x"00000747"</v>
+        <v>x"00000745"</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>17</v>
@@ -48024,7 +48024,7 @@
       <c r="V150" s="5"/>
       <c r="X150" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000747") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000745") =&gt;</v>
       </c>
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.3">
@@ -48092,7 +48092,7 @@
       </c>
       <c r="D152" s="7" t="str">
         <f>'HK TREATED VHDL'!D74</f>
-        <v>x"00000746"</v>
+        <v>x"00000744"</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>17</v>
@@ -48118,7 +48118,7 @@
       <c r="V152" s="5"/>
       <c r="X152" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000746") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000744") =&gt;</v>
       </c>
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.3">
@@ -48186,7 +48186,7 @@
       </c>
       <c r="D154" s="7" t="str">
         <f>'HK TREATED VHDL'!D75</f>
-        <v>x"00000749"</v>
+        <v>x"0000074B"</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>17</v>
@@ -48212,7 +48212,7 @@
       <c r="V154" s="5"/>
       <c r="X154" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000749") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074B") =&gt;</v>
       </c>
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.3">
@@ -48280,7 +48280,7 @@
       </c>
       <c r="D156" s="7" t="str">
         <f>'HK TREATED VHDL'!D76</f>
-        <v>x"00000748"</v>
+        <v>x"0000074A"</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>17</v>
@@ -48306,7 +48306,7 @@
       <c r="V156" s="5"/>
       <c r="X156" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000748") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074A") =&gt;</v>
       </c>
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.3">
@@ -48374,7 +48374,7 @@
       </c>
       <c r="D158" s="7" t="str">
         <f>'HK TREATED VHDL'!D77</f>
-        <v>x"0000074B"</v>
+        <v>x"00000749"</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>17</v>
@@ -48400,7 +48400,7 @@
       <c r="V158" s="5"/>
       <c r="X158" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000749") =&gt;</v>
       </c>
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.3">
@@ -48468,7 +48468,7 @@
       </c>
       <c r="D160" s="7" t="str">
         <f>'HK TREATED VHDL'!D78</f>
-        <v>x"0000074A"</v>
+        <v>x"00000748"</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>17</v>
@@ -48494,7 +48494,7 @@
       <c r="V160" s="5"/>
       <c r="X160" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000748") =&gt;</v>
       </c>
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.3">
@@ -48562,7 +48562,7 @@
       </c>
       <c r="D162" s="7" t="str">
         <f>'HK TREATED VHDL'!D79</f>
-        <v>x"0000074D"</v>
+        <v>x"0000074F"</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>17</v>
@@ -48588,7 +48588,7 @@
       <c r="V162" s="5"/>
       <c r="X162" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074F") =&gt;</v>
       </c>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.3">
@@ -48656,7 +48656,7 @@
       </c>
       <c r="D164" s="7" t="str">
         <f>'HK TREATED VHDL'!D80</f>
-        <v>x"0000074C"</v>
+        <v>x"0000074E"</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>17</v>
@@ -48682,7 +48682,7 @@
       <c r="V164" s="5"/>
       <c r="X164" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074E") =&gt;</v>
       </c>
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.3">
@@ -48750,7 +48750,7 @@
       </c>
       <c r="D166" s="7" t="str">
         <f>'HK TREATED VHDL'!D81</f>
-        <v>x"0000074F"</v>
+        <v>x"0000074D"</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>17</v>
@@ -48776,7 +48776,7 @@
       <c r="V166" s="5"/>
       <c r="X166" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074D") =&gt;</v>
       </c>
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.3">
@@ -48844,7 +48844,7 @@
       </c>
       <c r="D168" s="7" t="str">
         <f>'HK TREATED VHDL'!D82</f>
-        <v>x"0000074E"</v>
+        <v>x"0000074C"</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>17</v>
@@ -48870,7 +48870,7 @@
       <c r="V168" s="5"/>
       <c r="X168" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000074E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000074C") =&gt;</v>
       </c>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.3">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="D170" s="7" t="str">
         <f>'HK TREATED VHDL'!D83</f>
-        <v>x"00000751"</v>
+        <v>x"00000753"</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>17</v>
@@ -48964,7 +48964,7 @@
       <c r="V170" s="5"/>
       <c r="X170" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000751") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000753") =&gt;</v>
       </c>
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.3">
@@ -49032,7 +49032,7 @@
       </c>
       <c r="D172" s="7" t="str">
         <f>'HK TREATED VHDL'!D84</f>
-        <v>x"00000750"</v>
+        <v>x"00000752"</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>17</v>
@@ -49058,7 +49058,7 @@
       <c r="V172" s="5"/>
       <c r="X172" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000750") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000752") =&gt;</v>
       </c>
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.3">
@@ -49126,7 +49126,7 @@
       </c>
       <c r="D174" s="7" t="str">
         <f>'HK TREATED VHDL'!D85</f>
-        <v>x"00000753"</v>
+        <v>x"00000751"</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>17</v>
@@ -49152,7 +49152,7 @@
       <c r="V174" s="5"/>
       <c r="X174" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000753") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000751") =&gt;</v>
       </c>
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.3">
@@ -49220,7 +49220,7 @@
       </c>
       <c r="D176" s="7" t="str">
         <f>'HK TREATED VHDL'!D86</f>
-        <v>x"00000752"</v>
+        <v>x"00000750"</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>17</v>
@@ -49246,7 +49246,7 @@
       <c r="V176" s="5"/>
       <c r="X176" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000752") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000750") =&gt;</v>
       </c>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.3">
@@ -49314,7 +49314,7 @@
       </c>
       <c r="D178" s="7" t="str">
         <f>'HK TREATED VHDL'!D87</f>
-        <v>x"00000755"</v>
+        <v>x"00000757"</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>17</v>
@@ -49340,7 +49340,7 @@
       <c r="V178" s="5"/>
       <c r="X178" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000755") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000757") =&gt;</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.3">
@@ -49408,7 +49408,7 @@
       </c>
       <c r="D180" s="7" t="str">
         <f>'HK TREATED VHDL'!D88</f>
-        <v>x"00000754"</v>
+        <v>x"00000756"</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>17</v>
@@ -49434,7 +49434,7 @@
       <c r="V180" s="5"/>
       <c r="X180" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000754") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000756") =&gt;</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.3">
@@ -49502,7 +49502,7 @@
       </c>
       <c r="D182" s="7" t="str">
         <f>'HK TREATED VHDL'!D89</f>
-        <v>x"00000757"</v>
+        <v>x"00000755"</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>17</v>
@@ -49528,7 +49528,7 @@
       <c r="V182" s="5"/>
       <c r="X182" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000757") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000755") =&gt;</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.3">
@@ -49596,7 +49596,7 @@
       </c>
       <c r="D184" s="7" t="str">
         <f>'HK TREATED VHDL'!D90</f>
-        <v>x"00000756"</v>
+        <v>x"00000754"</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>17</v>
@@ -49622,7 +49622,7 @@
       <c r="V184" s="5"/>
       <c r="X184" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000756") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000754") =&gt;</v>
       </c>
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.3">
@@ -49690,7 +49690,7 @@
       </c>
       <c r="D186" s="7" t="str">
         <f>'HK TREATED VHDL'!D91</f>
-        <v>x"00000759"</v>
+        <v>x"0000075B"</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>17</v>
@@ -49716,7 +49716,7 @@
       <c r="V186" s="5"/>
       <c r="X186" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000759") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075B") =&gt;</v>
       </c>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.3">
@@ -49784,7 +49784,7 @@
       </c>
       <c r="D188" s="7" t="str">
         <f>'HK TREATED VHDL'!D92</f>
-        <v>x"00000758"</v>
+        <v>x"0000075A"</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>17</v>
@@ -49810,7 +49810,7 @@
       <c r="V188" s="5"/>
       <c r="X188" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"00000758") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075A") =&gt;</v>
       </c>
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.3">
@@ -49878,7 +49878,7 @@
       </c>
       <c r="D190" s="7" t="str">
         <f>'HK TREATED VHDL'!D93</f>
-        <v>x"0000075B"</v>
+        <v>x"00000759"</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>17</v>
@@ -49904,7 +49904,7 @@
       <c r="V190" s="5"/>
       <c r="X190" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000759") =&gt;</v>
       </c>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.3">
@@ -49972,7 +49972,7 @@
       </c>
       <c r="D192" s="7" t="str">
         <f>'HK TREATED VHDL'!D94</f>
-        <v>x"0000075A"</v>
+        <v>x"00000758"</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>17</v>
@@ -49998,7 +49998,7 @@
       <c r="V192" s="5"/>
       <c r="X192" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000758") =&gt;</v>
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.3">
@@ -50066,7 +50066,7 @@
       </c>
       <c r="D194" s="7" t="str">
         <f>'HK TREATED VHDL'!D95</f>
-        <v>x"0000075D"</v>
+        <v>x"0000075F"</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>17</v>
@@ -50092,7 +50092,7 @@
       <c r="V194" s="5"/>
       <c r="X194" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075F") =&gt;</v>
       </c>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.3">
@@ -50160,7 +50160,7 @@
       </c>
       <c r="D196" s="7" t="str">
         <f>'HK TREATED VHDL'!D96</f>
-        <v>x"0000075C"</v>
+        <v>x"0000075E"</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>17</v>
@@ -50186,7 +50186,7 @@
       <c r="V196" s="5"/>
       <c r="X196" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075E") =&gt;</v>
       </c>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.3">
@@ -50254,7 +50254,7 @@
       </c>
       <c r="D198" s="7" t="str">
         <f>'HK TREATED VHDL'!D97</f>
-        <v>x"0000075F"</v>
+        <v>x"0000075D"</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>17</v>
@@ -50280,7 +50280,7 @@
       <c r="V198" s="5"/>
       <c r="X198" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075D") =&gt;</v>
       </c>
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.3">
@@ -50348,7 +50348,7 @@
       </c>
       <c r="D200" s="7" t="str">
         <f>'HK TREATED VHDL'!D98</f>
-        <v>x"0000075E"</v>
+        <v>x"0000075C"</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>17</v>
@@ -50374,7 +50374,7 @@
       <c r="V200" s="5"/>
       <c r="X200" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  when (x"0000075E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000075C") =&gt;</v>
       </c>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.3">
@@ -50442,7 +50442,7 @@
       </c>
       <c r="D202" s="7" t="str">
         <f>'HK TREATED VHDL'!D99</f>
-        <v>x"00000761"</v>
+        <v>x"00000763"</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>17</v>
@@ -50468,7 +50468,7 @@
       <c r="V202" s="5"/>
       <c r="X202" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000761") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000763") =&gt;</v>
       </c>
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.3">
@@ -50536,7 +50536,7 @@
       </c>
       <c r="D204" s="7" t="str">
         <f>'HK TREATED VHDL'!D100</f>
-        <v>x"00000760"</v>
+        <v>x"00000762"</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>17</v>
@@ -50562,7 +50562,7 @@
       <c r="V204" s="5"/>
       <c r="X204" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000760") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000762") =&gt;</v>
       </c>
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.3">
@@ -50630,7 +50630,7 @@
       </c>
       <c r="D206" s="7" t="str">
         <f>'HK TREATED VHDL'!D101</f>
-        <v>x"00000763"</v>
+        <v>x"00000761"</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>17</v>
@@ -50656,7 +50656,7 @@
       <c r="V206" s="5"/>
       <c r="X206" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000763") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000761") =&gt;</v>
       </c>
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.3">
@@ -50724,7 +50724,7 @@
       </c>
       <c r="D208" s="7" t="str">
         <f>'HK TREATED VHDL'!D102</f>
-        <v>x"00000762"</v>
+        <v>x"00000760"</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>17</v>
@@ -50750,7 +50750,7 @@
       <c r="V208" s="5"/>
       <c r="X208" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000762") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000760") =&gt;</v>
       </c>
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.3">
@@ -50818,7 +50818,7 @@
       </c>
       <c r="D210" s="7" t="str">
         <f>'HK TREATED VHDL'!D103</f>
-        <v>x"00000765"</v>
+        <v>x"00000767"</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>17</v>
@@ -50844,7 +50844,7 @@
       <c r="V210" s="5"/>
       <c r="X210" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000765") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000767") =&gt;</v>
       </c>
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.3">
@@ -50912,7 +50912,7 @@
       </c>
       <c r="D212" s="7" t="str">
         <f>'HK TREATED VHDL'!D104</f>
-        <v>x"00000764"</v>
+        <v>x"00000766"</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>17</v>
@@ -50938,7 +50938,7 @@
       <c r="V212" s="5"/>
       <c r="X212" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000764") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000766") =&gt;</v>
       </c>
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.3">
@@ -51006,7 +51006,7 @@
       </c>
       <c r="D214" s="7" t="str">
         <f>'HK TREATED VHDL'!D105</f>
-        <v>x"00000767"</v>
+        <v>x"00000765"</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>17</v>
@@ -51032,7 +51032,7 @@
       <c r="V214" s="5"/>
       <c r="X214" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000767") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000765") =&gt;</v>
       </c>
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.3">
@@ -51100,7 +51100,7 @@
       </c>
       <c r="D216" s="7" t="str">
         <f>'HK TREATED VHDL'!D106</f>
-        <v>x"00000766"</v>
+        <v>x"00000764"</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>17</v>
@@ -51126,7 +51126,7 @@
       <c r="V216" s="5"/>
       <c r="X216" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000766") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000764") =&gt;</v>
       </c>
     </row>
     <row r="217" spans="2:24" x14ac:dyDescent="0.3">
@@ -51194,7 +51194,7 @@
       </c>
       <c r="D218" s="7" t="str">
         <f>'HK TREATED VHDL'!D107</f>
-        <v>x"00000769"</v>
+        <v>x"0000076B"</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>17</v>
@@ -51220,7 +51220,7 @@
       <c r="V218" s="5"/>
       <c r="X218" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000769") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076B") =&gt;</v>
       </c>
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.3">
@@ -51288,7 +51288,7 @@
       </c>
       <c r="D220" s="7" t="str">
         <f>'HK TREATED VHDL'!D108</f>
-        <v>x"00000768"</v>
+        <v>x"0000076A"</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>17</v>
@@ -51314,7 +51314,7 @@
       <c r="V220" s="5"/>
       <c r="X220" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000768") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076A") =&gt;</v>
       </c>
     </row>
     <row r="221" spans="2:24" x14ac:dyDescent="0.3">
@@ -51382,7 +51382,7 @@
       </c>
       <c r="D222" s="7" t="str">
         <f>'HK TREATED VHDL'!D109</f>
-        <v>x"0000076B"</v>
+        <v>x"00000769"</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>17</v>
@@ -51408,7 +51408,7 @@
       <c r="V222" s="5"/>
       <c r="X222" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000769") =&gt;</v>
       </c>
     </row>
     <row r="223" spans="2:24" x14ac:dyDescent="0.3">
@@ -51476,7 +51476,7 @@
       </c>
       <c r="D224" s="7" t="str">
         <f>'HK TREATED VHDL'!D110</f>
-        <v>x"0000076A"</v>
+        <v>x"00000768"</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>17</v>
@@ -51502,7 +51502,7 @@
       <c r="V224" s="5"/>
       <c r="X224" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000768") =&gt;</v>
       </c>
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.3">
@@ -51570,7 +51570,7 @@
       </c>
       <c r="D226" s="7" t="str">
         <f>'HK TREATED VHDL'!D111</f>
-        <v>x"0000076D"</v>
+        <v>x"0000076F"</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>17</v>
@@ -51596,7 +51596,7 @@
       <c r="V226" s="5"/>
       <c r="X226" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076F") =&gt;</v>
       </c>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.3">
@@ -51664,7 +51664,7 @@
       </c>
       <c r="D228" s="7" t="str">
         <f>'HK TREATED VHDL'!D112</f>
-        <v>x"0000076C"</v>
+        <v>x"0000076E"</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>17</v>
@@ -51690,7 +51690,7 @@
       <c r="V228" s="5"/>
       <c r="X228" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076E") =&gt;</v>
       </c>
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.3">
@@ -51758,7 +51758,7 @@
       </c>
       <c r="D230" s="7" t="str">
         <f>'HK TREATED VHDL'!D113</f>
-        <v>x"0000076F"</v>
+        <v>x"0000076D"</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>17</v>
@@ -51784,7 +51784,7 @@
       <c r="V230" s="5"/>
       <c r="X230" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076D") =&gt;</v>
       </c>
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.3">
@@ -51852,7 +51852,7 @@
       </c>
       <c r="D232" s="7" t="str">
         <f>'HK TREATED VHDL'!D114</f>
-        <v>x"0000076E"</v>
+        <v>x"0000076C"</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>17</v>
@@ -51878,7 +51878,7 @@
       <c r="V232" s="5"/>
       <c r="X232" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000076E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000076C") =&gt;</v>
       </c>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.3">
@@ -51946,7 +51946,7 @@
       </c>
       <c r="D234" s="7" t="str">
         <f>'HK TREATED VHDL'!D115</f>
-        <v>x"00000771"</v>
+        <v>x"00000773"</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>17</v>
@@ -51972,7 +51972,7 @@
       <c r="V234" s="5"/>
       <c r="X234" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000771") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000773") =&gt;</v>
       </c>
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.3">
@@ -52040,7 +52040,7 @@
       </c>
       <c r="D236" s="7" t="str">
         <f>'HK TREATED VHDL'!D116</f>
-        <v>x"00000770"</v>
+        <v>x"00000772"</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>17</v>
@@ -52066,7 +52066,7 @@
       <c r="V236" s="5"/>
       <c r="X236" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000770") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000772") =&gt;</v>
       </c>
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.3">
@@ -52134,7 +52134,7 @@
       </c>
       <c r="D238" s="7" t="str">
         <f>'HK TREATED VHDL'!D117</f>
-        <v>x"00000773"</v>
+        <v>x"00000771"</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>17</v>
@@ -52160,7 +52160,7 @@
       <c r="V238" s="5"/>
       <c r="X238" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000773") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000771") =&gt;</v>
       </c>
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.3">
@@ -52228,7 +52228,7 @@
       </c>
       <c r="D240" s="7" t="str">
         <f>'HK TREATED VHDL'!D118</f>
-        <v>x"00000772"</v>
+        <v>x"00000770"</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>17</v>
@@ -52254,7 +52254,7 @@
       <c r="V240" s="5"/>
       <c r="X240" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000772") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000770") =&gt;</v>
       </c>
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.3">
@@ -52322,7 +52322,7 @@
       </c>
       <c r="D242" s="7" t="str">
         <f>'HK TREATED VHDL'!D119</f>
-        <v>x"00000775"</v>
+        <v>x"00000777"</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>17</v>
@@ -52348,7 +52348,7 @@
       <c r="V242" s="5"/>
       <c r="X242" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000775") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000777") =&gt;</v>
       </c>
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.3">
@@ -52416,7 +52416,7 @@
       </c>
       <c r="D244" s="7" t="str">
         <f>'HK TREATED VHDL'!D120</f>
-        <v>x"00000774"</v>
+        <v>x"00000776"</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>17</v>
@@ -52442,7 +52442,7 @@
       <c r="V244" s="5"/>
       <c r="X244" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000774") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000776") =&gt;</v>
       </c>
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.3">
@@ -52510,7 +52510,7 @@
       </c>
       <c r="D246" s="7" t="str">
         <f>'HK TREATED VHDL'!D121</f>
-        <v>x"00000777"</v>
+        <v>x"00000775"</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>17</v>
@@ -52536,7 +52536,7 @@
       <c r="V246" s="5"/>
       <c r="X246" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000777") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000775") =&gt;</v>
       </c>
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.3">
@@ -52604,7 +52604,7 @@
       </c>
       <c r="D248" s="7" t="str">
         <f>'HK TREATED VHDL'!D122</f>
-        <v>x"00000776"</v>
+        <v>x"00000774"</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>17</v>
@@ -52630,7 +52630,7 @@
       <c r="V248" s="5"/>
       <c r="X248" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000776") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000774") =&gt;</v>
       </c>
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.3">
@@ -52698,7 +52698,7 @@
       </c>
       <c r="D250" s="7" t="str">
         <f>'HK TREATED VHDL'!D123</f>
-        <v>x"00000779"</v>
+        <v>x"0000077B"</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>17</v>
@@ -52724,7 +52724,7 @@
       <c r="V250" s="5"/>
       <c r="X250" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000779") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077B") =&gt;</v>
       </c>
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.3">
@@ -52792,7 +52792,7 @@
       </c>
       <c r="D252" s="7" t="str">
         <f>'HK TREATED VHDL'!D124</f>
-        <v>x"00000778"</v>
+        <v>x"0000077A"</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>17</v>
@@ -52818,7 +52818,7 @@
       <c r="V252" s="5"/>
       <c r="X252" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"00000778") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077A") =&gt;</v>
       </c>
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.3">
@@ -52886,7 +52886,7 @@
       </c>
       <c r="D254" s="7" t="str">
         <f>'HK TREATED VHDL'!D125</f>
-        <v>x"0000077B"</v>
+        <v>x"00000779"</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>17</v>
@@ -52912,7 +52912,7 @@
       <c r="V254" s="5"/>
       <c r="X254" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077B") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000779") =&gt;</v>
       </c>
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.3">
@@ -52980,7 +52980,7 @@
       </c>
       <c r="D256" s="7" t="str">
         <f>'HK TREATED VHDL'!D126</f>
-        <v>x"0000077A"</v>
+        <v>x"00000778"</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>17</v>
@@ -53006,7 +53006,7 @@
       <c r="V256" s="5"/>
       <c r="X256" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077A") =&gt;</v>
+        <v xml:space="preserve">  when (x"00000778") =&gt;</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.3">
@@ -53074,7 +53074,7 @@
       </c>
       <c r="D258" s="7" t="str">
         <f>'HK TREATED VHDL'!D127</f>
-        <v>x"0000077D"</v>
+        <v>x"0000077F"</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>17</v>
@@ -53100,7 +53100,7 @@
       <c r="V258" s="5"/>
       <c r="X258" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077D") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077F") =&gt;</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.3">
@@ -53168,7 +53168,7 @@
       </c>
       <c r="D260" s="7" t="str">
         <f>'HK TREATED VHDL'!D128</f>
-        <v>x"0000077C"</v>
+        <v>x"0000077E"</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>17</v>
@@ -53194,7 +53194,7 @@
       <c r="V260" s="5"/>
       <c r="X260" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077C") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077E") =&gt;</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.3">
@@ -53262,7 +53262,7 @@
       </c>
       <c r="D262" s="7" t="str">
         <f>'HK TREATED VHDL'!D129</f>
-        <v>x"0000077F"</v>
+        <v>x"0000077D"</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>17</v>
@@ -53288,7 +53288,7 @@
       <c r="V262" s="5"/>
       <c r="X262" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077F") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077D") =&gt;</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.3">
@@ -53356,7 +53356,7 @@
       </c>
       <c r="D264" s="7" t="str">
         <f>'HK TREATED VHDL'!D130</f>
-        <v>x"0000077E"</v>
+        <v>x"0000077C"</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>17</v>
@@ -53382,7 +53382,7 @@
       <c r="V264" s="5"/>
       <c r="X264" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  when (x"0000077E") =&gt;</v>
+        <v xml:space="preserve">  when (x"0000077C") =&gt;</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.3">

--- a/FPGA_Developments/COM_Module_v1_5/References/NFEE_RMAP_Mem_VHDL_Big_Endian.xlsx
+++ b/FPGA_Developments/COM_Module_v1_5/References/NFEE_RMAP_Mem_VHDL_Big_Endian.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DF78B-3485-4F08-9DA6-19940D00B630}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE797B9A-ACE5-4EA5-BAE0-B5A04CD81612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register TREATED VHDL" sheetId="2" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">  : </t>
   </si>
   <si>
-    <t>s_rmap_read_address</t>
-  </si>
-  <si>
     <t xml:space="preserve">signal </t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve"> is</t>
-  </si>
-  <si>
-    <t>s_rmap_write_address</t>
   </si>
   <si>
     <t>rmap_config_registers_o</t>
@@ -418,6 +412,12 @@
   <si>
     <t>Default (VHDL)</t>
   </si>
+  <si>
+    <t>wr_addr_i(31 downto 0)</t>
+  </si>
+  <si>
+    <t>rd_addr_i(31 downto 0)</t>
+  </si>
 </sst>
 </file>
 
@@ -638,28 +638,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -3325,10 +3325,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -3347,7 +3347,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="20" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]Registers TREATED'!C3,4),"""")</f>
         <v>x"00000000"</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="17"/>
       <c r="D4" s="1" t="str">
         <f>'[1]Registers TREATED'!AG8</f>
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="17"/>
       <c r="D5" s="1" t="str">
         <f>'[1]Registers TREATED'!AF8</f>
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="17"/>
       <c r="D6" s="1" t="str">
         <f>'[1]Registers TREATED'!AE8</f>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="str">
         <f>'[1]Registers TREATED'!O8</f>
@@ -3506,7 +3506,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="str">
@@ -3533,7 +3533,7 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="str">
@@ -3560,7 +3560,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16" t="str">
         <f>'[1]Registers TREATED'!C8</f>
@@ -3777,11 +3777,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="20" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]Registers TREATED'!C19,4),"""")</f>
         <v>x"00000008"</v>
       </c>
-      <c r="C17" s="19" t="str">
+      <c r="C17" s="20" t="str">
         <f>'[1]Registers TREATED'!C18:AH18</f>
         <v>spw_packet_1_config</v>
       </c>
@@ -3815,8 +3815,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="str">
         <f>'[1]Registers TREATED'!AG24</f>
         <v>digitise_control</v>
@@ -3848,8 +3848,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1" t="str">
         <f>'[1]Registers TREATED'!AE24</f>
         <v>ccd_port_data_transmission_selection_control</v>
@@ -3882,8 +3882,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="16" t="str">
         <f>'[1]Registers TREATED'!O24</f>
         <v>packet_size_control</v>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="str">
         <f>IF('[1]Register TREATED TABLE'!E21="-","-",IF(MID('[1]Register TREATED TABLE'!E21,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E21,LEN('[1]Register TREATED TABLE'!E21)-2),""""),IF(MID('[1]Register TREATED TABLE'!E21,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E21,LEN('[1]Register TREATED TABLE'!E21)-2),""""),IF(H21="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E21,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E21,"')")))))</f>
@@ -3943,8 +3943,8 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="str">
         <f>IF('[1]Register TREATED TABLE'!E22="-","-",IF(MID('[1]Register TREATED TABLE'!E22,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E22,LEN('[1]Register TREATED TABLE'!E22)-2),""""),IF(MID('[1]Register TREATED TABLE'!E22,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E22,LEN('[1]Register TREATED TABLE'!E22)-2),""""),IF(H22="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E22,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E22,"')")))))</f>
@@ -3970,8 +3970,8 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="16" t="s">
         <v>1</v>
       </c>
@@ -4003,8 +4003,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="str">
         <f>IF('[1]Register TREATED TABLE'!E24="-","-",IF(MID('[1]Register TREATED TABLE'!E24,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E24,LEN('[1]Register TREATED TABLE'!E24)-2),""""),IF(MID('[1]Register TREATED TABLE'!E24,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E24,LEN('[1]Register TREATED TABLE'!E24)-2),""""),IF(H24="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E24,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E24,"')")))))</f>
@@ -6046,7 +6046,7 @@
       <c r="D89" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="21" t="str">
+      <c r="E89" s="19" t="str">
         <f>IF('[1]Register TREATED TABLE'!E89="-","-",IF(MID('[1]Register TREATED TABLE'!E89,2,1)="x",CONCATENATE("x""",RIGHT('[1]Register TREATED TABLE'!E89,LEN('[1]Register TREATED TABLE'!E89)-2),""""),IF(MID('[1]Register TREATED TABLE'!E89,2,1)="b",CONCATENATE("""",RIGHT('[1]Register TREATED TABLE'!E89,LEN('[1]Register TREATED TABLE'!E89)-2),""""),IF(H89="-",CONCATENATE("'",'[1]Register TREATED TABLE'!E89,"'"),CONCATENATE("(others =&gt; '",'[1]Register TREATED TABLE'!E89,"')")))))</f>
         <v>(others =&gt; '0')</v>
       </c>
@@ -6310,6 +6310,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
     <mergeCell ref="K89:K92"/>
     <mergeCell ref="K94:K97"/>
     <mergeCell ref="K49:K52"/>
@@ -6334,133 +6461,6 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="K71:K73"/>
     <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8957,7 +8957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8981,18 +8981,18 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -9012,7 +9012,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2)</f>
@@ -9021,13 +9021,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -9058,7 +9058,7 @@
         <v>17</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U3" t="str">
         <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3)</f>
@@ -9067,15 +9067,15 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>38</v>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="U6" t="str">
         <f>CONCATENATE(B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6,R6,S6)</f>
-        <v>signal s_rmap_read_address  : std_logic_vector(31 downto 0);</v>
+        <v>signal rd_addr_i(31 downto 0)  : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>C6</f>
-        <v>s_rmap_read_address</v>
+        <v>rd_addr_i(31 downto 0)</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -9149,7 +9149,7 @@
       <c r="S9" s="5"/>
       <c r="U9" t="str">
         <f t="shared" ref="U9:U40" si="0">CONCATENATE(B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9)</f>
-        <v>case (s_rmap_read_address) is</v>
+        <v>case (rd_addr_i(31 downto 0)) is</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -12771,12 +12771,8 @@
       <c r="K83" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L83" s="9">
-        <v>0</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -12787,7 +12783,7 @@
       </c>
       <c r="U83" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    rmap_readdata_o(7 downto 4) &lt;= ( others =&gt; '0')0');</v>
+        <v xml:space="preserve">    rmap_readdata_o(7 downto 4) &lt;= ( others =&gt; '0');</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
@@ -17168,7 +17164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X199" sqref="X170:X199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17198,18 +17196,18 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -17243,7 +17241,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X2" t="str">
         <f>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2)</f>
@@ -17252,13 +17250,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -17281,7 +17279,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" t="str">
         <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3)</f>
@@ -17290,15 +17288,15 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>38</v>
@@ -17339,7 +17337,7 @@
       </c>
       <c r="X6" t="str">
         <f>CONCATENATE(B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6,R6,S6,T6,U6,V6)</f>
-        <v>signal s_rmap_write_address  : std_logic_vector(31 downto 0);</v>
+        <v>signal wr_addr_i(31 downto 0)  : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -17353,13 +17351,13 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>$C$6</f>
-        <v>s_rmap_write_address</v>
+        <v>wr_addr_i(31 downto 0)</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -17380,7 +17378,7 @@
       <c r="V9" s="5"/>
       <c r="X9" t="str">
         <f t="shared" ref="X9:X40" si="0">CONCATENATE(B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9,T9,U9,V9)</f>
-        <v>case (s_rmap_write_address) is</v>
+        <v>case (wr_addr_i(31 downto 0)) is</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -18416,7 +18414,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -18921,7 +18919,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -18994,7 +18992,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -19067,7 +19065,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -19140,7 +19138,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -19213,7 +19211,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -23006,7 +23004,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -23079,7 +23077,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -23152,7 +23150,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -23379,7 +23377,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -23452,7 +23450,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -23525,7 +23523,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -23598,7 +23596,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -23671,7 +23669,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -23744,7 +23742,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -23817,7 +23815,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -23890,7 +23888,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -23963,7 +23961,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -24036,7 +24034,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -24109,7 +24107,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -24278,7 +24276,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -24351,7 +24349,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -24424,7 +24422,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -24593,7 +24591,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -24666,7 +24664,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -24739,7 +24737,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -24809,7 +24807,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -24864,7 +24862,7 @@
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.3">
@@ -25278,7 +25276,9 @@
         <f>'Register TREATED VHDL'!C17</f>
         <v>spw_packet_1_config</v>
       </c>
-      <c r="J178" s="8"/>
+      <c r="J178" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K178" s="9" t="str">
         <f>'Register TREATED VHDL'!D20</f>
         <v>packet_size_control</v>
@@ -25303,7 +25303,7 @@
       </c>
       <c r="X178" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  rmap_config_registers_o.spw_packet_1_configpacket_size_control &lt;= x"11F8";</v>
+        <v xml:space="preserve">  rmap_config_registers_o.spw_packet_1_config.packet_size_control &lt;= x"11F8";</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.3">
@@ -26344,7 +26344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -26362,20 +26362,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="25" t="str">
+      <c r="B3" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="23" t="str">
         <f>IF('[1]HK TREATED'!E3="-","-",IF(MID('[1]HK TREATED'!E3,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E3,LEN('[1]HK TREATED'!E3)-2),""""),IF(MID('[1]HK TREATED'!E3,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E3,LEN('[1]HK TREATED'!E3)-2),""""),IF(H3="-",CONCATENATE("'",'[1]HK TREATED'!E3,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E3,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26385,18 +26385,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F4,4),"""")</f>
         <v>x"00000702"</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="25" t="str">
+      <c r="B5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="str">
         <f>IF('[1]HK TREATED'!E5="-","-",IF(MID('[1]HK TREATED'!E5,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E5,LEN('[1]HK TREATED'!E5)-2),""""),IF(MID('[1]HK TREATED'!E5,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E5,LEN('[1]HK TREATED'!E5)-2),""""),IF(H5="-",CONCATENATE("'",'[1]HK TREATED'!E5,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E5,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26406,20 +26406,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F6,4),"""")</f>
         <v>x"00000700"</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="25" t="str">
+      <c r="B7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>IF('[1]HK TREATED'!E7="-","-",IF(MID('[1]HK TREATED'!E7,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E7,LEN('[1]HK TREATED'!E7)-2),""""),IF(MID('[1]HK TREATED'!E7,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E7,LEN('[1]HK TREATED'!E7)-2),""""),IF(H7="-",CONCATENATE("'",'[1]HK TREATED'!E7,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E7,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26429,20 +26429,20 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="26"/>
+      <c r="B8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F8,4),"""")</f>
         <v>x"00000706"</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="25" t="str">
+      <c r="B9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="23" t="str">
         <f>IF('[1]HK TREATED'!E9="-","-",IF(MID('[1]HK TREATED'!E9,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E9,LEN('[1]HK TREATED'!E9)-2),""""),IF(MID('[1]HK TREATED'!E9,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E9,LEN('[1]HK TREATED'!E9)-2),""""),IF(H9="-",CONCATENATE("'",'[1]HK TREATED'!E9,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E9,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26452,20 +26452,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F10,4),"""")</f>
         <v>x"00000704"</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="25" t="str">
+      <c r="B11" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="23" t="str">
         <f>IF('[1]HK TREATED'!E11="-","-",IF(MID('[1]HK TREATED'!E11,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E11,LEN('[1]HK TREATED'!E11)-2),""""),IF(MID('[1]HK TREATED'!E11,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E11,LEN('[1]HK TREATED'!E11)-2),""""),IF(H11="-",CONCATENATE("'",'[1]HK TREATED'!E11,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E11,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26475,20 +26475,20 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F12,4),"""")</f>
         <v>x"0000070A"</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="25" t="str">
+      <c r="B13" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="23" t="str">
         <f>IF('[1]HK TREATED'!E13="-","-",IF(MID('[1]HK TREATED'!E13,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E13,LEN('[1]HK TREATED'!E13)-2),""""),IF(MID('[1]HK TREATED'!E13,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E13,LEN('[1]HK TREATED'!E13)-2),""""),IF(H13="-",CONCATENATE("'",'[1]HK TREATED'!E13,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E13,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26498,20 +26498,20 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F14,4),"""")</f>
         <v>x"00000708"</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="25" t="str">
+      <c r="B15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="23" t="str">
         <f>IF('[1]HK TREATED'!E15="-","-",IF(MID('[1]HK TREATED'!E15,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E15,LEN('[1]HK TREATED'!E15)-2),""""),IF(MID('[1]HK TREATED'!E15,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E15,LEN('[1]HK TREATED'!E15)-2),""""),IF(H15="-",CONCATENATE("'",'[1]HK TREATED'!E15,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E15,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26521,20 +26521,20 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="B16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F16,4),"""")</f>
         <v>x"0000070E"</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="25" t="str">
+      <c r="B17" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="23" t="str">
         <f>IF('[1]HK TREATED'!E17="-","-",IF(MID('[1]HK TREATED'!E17,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E17,LEN('[1]HK TREATED'!E17)-2),""""),IF(MID('[1]HK TREATED'!E17,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E17,LEN('[1]HK TREATED'!E17)-2),""""),IF(H17="-",CONCATENATE("'",'[1]HK TREATED'!E17,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E17,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26544,20 +26544,20 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F18,4),"""")</f>
         <v>x"0000070C"</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="25" t="str">
+      <c r="B19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="23" t="str">
         <f>IF('[1]HK TREATED'!E19="-","-",IF(MID('[1]HK TREATED'!E19,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E19,LEN('[1]HK TREATED'!E19)-2),""""),IF(MID('[1]HK TREATED'!E19,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E19,LEN('[1]HK TREATED'!E19)-2),""""),IF(H19="-",CONCATENATE("'",'[1]HK TREATED'!E19,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E19,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26567,20 +26567,20 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="D20" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F20,4),"""")</f>
         <v>x"00000712"</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="25" t="str">
+      <c r="B21" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="23" t="str">
         <f>IF('[1]HK TREATED'!E21="-","-",IF(MID('[1]HK TREATED'!E21,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E21,LEN('[1]HK TREATED'!E21)-2),""""),IF(MID('[1]HK TREATED'!E21,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E21,LEN('[1]HK TREATED'!E21)-2),""""),IF(H21="-",CONCATENATE("'",'[1]HK TREATED'!E21,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E21,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26590,20 +26590,20 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="26"/>
+      <c r="B22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F22,4),"""")</f>
         <v>x"00000710"</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="25" t="str">
+      <c r="B23" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="23" t="str">
         <f>IF('[1]HK TREATED'!E23="-","-",IF(MID('[1]HK TREATED'!E23,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E23,LEN('[1]HK TREATED'!E23)-2),""""),IF(MID('[1]HK TREATED'!E23,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E23,LEN('[1]HK TREATED'!E23)-2),""""),IF(H23="-",CONCATENATE("'",'[1]HK TREATED'!E23,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E23,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26613,20 +26613,20 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="26"/>
+      <c r="B24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="24"/>
       <c r="D24" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F24,4),"""")</f>
         <v>x"00000716"</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="25" t="str">
+      <c r="B25" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="23" t="str">
         <f>IF('[1]HK TREATED'!E25="-","-",IF(MID('[1]HK TREATED'!E25,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E25,LEN('[1]HK TREATED'!E25)-2),""""),IF(MID('[1]HK TREATED'!E25,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E25,LEN('[1]HK TREATED'!E25)-2),""""),IF(H25="-",CONCATENATE("'",'[1]HK TREATED'!E25,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E25,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26636,20 +26636,20 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="26"/>
+      <c r="B26" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F26,4),"""")</f>
         <v>x"00000714"</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="25" t="str">
+      <c r="B27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="23" t="str">
         <f>IF('[1]HK TREATED'!E27="-","-",IF(MID('[1]HK TREATED'!E27,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E27,LEN('[1]HK TREATED'!E27)-2),""""),IF(MID('[1]HK TREATED'!E27,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E27,LEN('[1]HK TREATED'!E27)-2),""""),IF(H27="-",CONCATENATE("'",'[1]HK TREATED'!E27,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E27,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26659,20 +26659,20 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="24"/>
       <c r="D28" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F28,4),"""")</f>
         <v>x"0000071A"</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="25" t="str">
+      <c r="B29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="23" t="str">
         <f>IF('[1]HK TREATED'!E29="-","-",IF(MID('[1]HK TREATED'!E29,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E29,LEN('[1]HK TREATED'!E29)-2),""""),IF(MID('[1]HK TREATED'!E29,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E29,LEN('[1]HK TREATED'!E29)-2),""""),IF(H29="-",CONCATENATE("'",'[1]HK TREATED'!E29,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E29,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26682,20 +26682,20 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F30,4),"""")</f>
         <v>x"00000718"</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="25" t="str">
+      <c r="B31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="23" t="str">
         <f>IF('[1]HK TREATED'!E31="-","-",IF(MID('[1]HK TREATED'!E31,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E31,LEN('[1]HK TREATED'!E31)-2),""""),IF(MID('[1]HK TREATED'!E31,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E31,LEN('[1]HK TREATED'!E31)-2),""""),IF(H31="-",CONCATENATE("'",'[1]HK TREATED'!E31,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E31,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26705,20 +26705,20 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="24"/>
       <c r="D32" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F32,4),"""")</f>
         <v>x"0000071E"</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="25" t="str">
+      <c r="B33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="23" t="str">
         <f>IF('[1]HK TREATED'!E33="-","-",IF(MID('[1]HK TREATED'!E33,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E33,LEN('[1]HK TREATED'!E33)-2),""""),IF(MID('[1]HK TREATED'!E33,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E33,LEN('[1]HK TREATED'!E33)-2),""""),IF(H33="-",CONCATENATE("'",'[1]HK TREATED'!E33,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E33,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26728,20 +26728,20 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="26"/>
+      <c r="B34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F34,4),"""")</f>
         <v>x"0000071C"</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="25" t="str">
+      <c r="B35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="23" t="str">
         <f>IF('[1]HK TREATED'!E35="-","-",IF(MID('[1]HK TREATED'!E35,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E35,LEN('[1]HK TREATED'!E35)-2),""""),IF(MID('[1]HK TREATED'!E35,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E35,LEN('[1]HK TREATED'!E35)-2),""""),IF(H35="-",CONCATENATE("'",'[1]HK TREATED'!E35,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E35,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26751,20 +26751,20 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="26"/>
+      <c r="B36" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="24"/>
       <c r="D36" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F36,4),"""")</f>
         <v>x"00000722"</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="25" t="str">
+      <c r="B37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="23" t="str">
         <f>IF('[1]HK TREATED'!E37="-","-",IF(MID('[1]HK TREATED'!E37,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E37,LEN('[1]HK TREATED'!E37)-2),""""),IF(MID('[1]HK TREATED'!E37,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E37,LEN('[1]HK TREATED'!E37)-2),""""),IF(H37="-",CONCATENATE("'",'[1]HK TREATED'!E37,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E37,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26774,20 +26774,20 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F38,4),"""")</f>
         <v>x"00000720"</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="25" t="str">
+      <c r="B39" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="23" t="str">
         <f>IF('[1]HK TREATED'!E39="-","-",IF(MID('[1]HK TREATED'!E39,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E39,LEN('[1]HK TREATED'!E39)-2),""""),IF(MID('[1]HK TREATED'!E39,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E39,LEN('[1]HK TREATED'!E39)-2),""""),IF(H39="-",CONCATENATE("'",'[1]HK TREATED'!E39,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E39,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26797,20 +26797,20 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="26"/>
+      <c r="B40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="24"/>
       <c r="D40" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F40,4),"""")</f>
         <v>x"00000726"</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="25" t="str">
+      <c r="B41" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="23" t="str">
         <f>IF('[1]HK TREATED'!E41="-","-",IF(MID('[1]HK TREATED'!E41,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E41,LEN('[1]HK TREATED'!E41)-2),""""),IF(MID('[1]HK TREATED'!E41,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E41,LEN('[1]HK TREATED'!E41)-2),""""),IF(H41="-",CONCATENATE("'",'[1]HK TREATED'!E41,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E41,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26820,20 +26820,20 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="26"/>
+      <c r="B42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F42,4),"""")</f>
         <v>x"00000724"</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="25" t="str">
+      <c r="B43" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="23" t="str">
         <f>IF('[1]HK TREATED'!E43="-","-",IF(MID('[1]HK TREATED'!E43,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E43,LEN('[1]HK TREATED'!E43)-2),""""),IF(MID('[1]HK TREATED'!E43,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E43,LEN('[1]HK TREATED'!E43)-2),""""),IF(H43="-",CONCATENATE("'",'[1]HK TREATED'!E43,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E43,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26843,20 +26843,20 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="26"/>
+      <c r="B44" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="24"/>
       <c r="D44" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F44,4),"""")</f>
         <v>x"0000072A"</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="25" t="str">
+      <c r="B45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="23" t="str">
         <f>IF('[1]HK TREATED'!E45="-","-",IF(MID('[1]HK TREATED'!E45,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E45,LEN('[1]HK TREATED'!E45)-2),""""),IF(MID('[1]HK TREATED'!E45,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E45,LEN('[1]HK TREATED'!E45)-2),""""),IF(H45="-",CONCATENATE("'",'[1]HK TREATED'!E45,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E45,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26866,20 +26866,20 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="26"/>
+      <c r="B46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="24"/>
       <c r="D46" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F46,4),"""")</f>
         <v>x"00000728"</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="25" t="str">
+      <c r="B47" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="23" t="str">
         <f>IF('[1]HK TREATED'!E47="-","-",IF(MID('[1]HK TREATED'!E47,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E47,LEN('[1]HK TREATED'!E47)-2),""""),IF(MID('[1]HK TREATED'!E47,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E47,LEN('[1]HK TREATED'!E47)-2),""""),IF(H47="-",CONCATENATE("'",'[1]HK TREATED'!E47,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E47,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26889,20 +26889,20 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="26"/>
+      <c r="B48" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="24"/>
       <c r="D48" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F48,4),"""")</f>
         <v>x"0000072E"</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="25" t="str">
+      <c r="B49" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="23" t="str">
         <f>IF('[1]HK TREATED'!E49="-","-",IF(MID('[1]HK TREATED'!E49,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E49,LEN('[1]HK TREATED'!E49)-2),""""),IF(MID('[1]HK TREATED'!E49,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E49,LEN('[1]HK TREATED'!E49)-2),""""),IF(H49="-",CONCATENATE("'",'[1]HK TREATED'!E49,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E49,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26912,20 +26912,20 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="26"/>
+      <c r="B50" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="24"/>
       <c r="D50" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F50,4),"""")</f>
         <v>x"0000072C"</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="25" t="str">
+      <c r="B51" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="23" t="str">
         <f>IF('[1]HK TREATED'!E51="-","-",IF(MID('[1]HK TREATED'!E51,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E51,LEN('[1]HK TREATED'!E51)-2),""""),IF(MID('[1]HK TREATED'!E51,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E51,LEN('[1]HK TREATED'!E51)-2),""""),IF(H51="-",CONCATENATE("'",'[1]HK TREATED'!E51,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E51,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26935,20 +26935,20 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="26"/>
+      <c r="B52" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="24"/>
       <c r="D52" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F52,4),"""")</f>
         <v>x"00000732"</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="25" t="str">
+      <c r="B53" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="23" t="str">
         <f>IF('[1]HK TREATED'!E53="-","-",IF(MID('[1]HK TREATED'!E53,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E53,LEN('[1]HK TREATED'!E53)-2),""""),IF(MID('[1]HK TREATED'!E53,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E53,LEN('[1]HK TREATED'!E53)-2),""""),IF(H53="-",CONCATENATE("'",'[1]HK TREATED'!E53,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E53,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26958,20 +26958,20 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="26"/>
+      <c r="B54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="24"/>
       <c r="D54" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F54,4),"""")</f>
         <v>x"00000730"</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="25" t="str">
+      <c r="B55" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="23" t="str">
         <f>IF('[1]HK TREATED'!E55="-","-",IF(MID('[1]HK TREATED'!E55,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E55,LEN('[1]HK TREATED'!E55)-2),""""),IF(MID('[1]HK TREATED'!E55,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E55,LEN('[1]HK TREATED'!E55)-2),""""),IF(H55="-",CONCATENATE("'",'[1]HK TREATED'!E55,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E55,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -26981,20 +26981,20 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="26"/>
+      <c r="B56" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="24"/>
       <c r="D56" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F56,4),"""")</f>
         <v>x"00000736"</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="25" t="str">
+      <c r="B57" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="23" t="str">
         <f>IF('[1]HK TREATED'!E57="-","-",IF(MID('[1]HK TREATED'!E57,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E57,LEN('[1]HK TREATED'!E57)-2),""""),IF(MID('[1]HK TREATED'!E57,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E57,LEN('[1]HK TREATED'!E57)-2),""""),IF(H57="-",CONCATENATE("'",'[1]HK TREATED'!E57,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E57,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27004,20 +27004,20 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="26"/>
+      <c r="B58" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="24"/>
       <c r="D58" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F58,4),"""")</f>
         <v>x"00000734"</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="25" t="str">
+      <c r="B59" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="23" t="str">
         <f>IF('[1]HK TREATED'!E59="-","-",IF(MID('[1]HK TREATED'!E59,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E59,LEN('[1]HK TREATED'!E59)-2),""""),IF(MID('[1]HK TREATED'!E59,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E59,LEN('[1]HK TREATED'!E59)-2),""""),IF(H59="-",CONCATENATE("'",'[1]HK TREATED'!E59,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E59,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27027,20 +27027,20 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="26"/>
+      <c r="B60" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="24"/>
       <c r="D60" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F60,4),"""")</f>
         <v>x"0000073A"</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="25" t="str">
+      <c r="B61" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="23" t="str">
         <f>IF('[1]HK TREATED'!E61="-","-",IF(MID('[1]HK TREATED'!E61,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E61,LEN('[1]HK TREATED'!E61)-2),""""),IF(MID('[1]HK TREATED'!E61,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E61,LEN('[1]HK TREATED'!E61)-2),""""),IF(H61="-",CONCATENATE("'",'[1]HK TREATED'!E61,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E61,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27050,20 +27050,20 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="26"/>
+      <c r="B62" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="24"/>
       <c r="D62" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F62,4),"""")</f>
         <v>x"00000738"</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="25" t="str">
+      <c r="B63" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="23" t="str">
         <f>IF('[1]HK TREATED'!E63="-","-",IF(MID('[1]HK TREATED'!E63,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E63,LEN('[1]HK TREATED'!E63)-2),""""),IF(MID('[1]HK TREATED'!E63,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E63,LEN('[1]HK TREATED'!E63)-2),""""),IF(H63="-",CONCATENATE("'",'[1]HK TREATED'!E63,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E63,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27073,20 +27073,20 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="26"/>
+      <c r="B64" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="24"/>
       <c r="D64" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F64,4),"""")</f>
         <v>x"0000073E"</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="25" t="str">
+      <c r="B65" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="23" t="str">
         <f>IF('[1]HK TREATED'!E65="-","-",IF(MID('[1]HK TREATED'!E65,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E65,LEN('[1]HK TREATED'!E65)-2),""""),IF(MID('[1]HK TREATED'!E65,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E65,LEN('[1]HK TREATED'!E65)-2),""""),IF(H65="-",CONCATENATE("'",'[1]HK TREATED'!E65,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E65,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27096,20 +27096,20 @@
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="26"/>
+      <c r="B66" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="24"/>
       <c r="D66" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F66,4),"""")</f>
         <v>x"0000073C"</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="25" t="str">
+      <c r="B67" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="23" t="str">
         <f>IF('[1]HK TREATED'!E67="-","-",IF(MID('[1]HK TREATED'!E67,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E67,LEN('[1]HK TREATED'!E67)-2),""""),IF(MID('[1]HK TREATED'!E67,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E67,LEN('[1]HK TREATED'!E67)-2),""""),IF(H67="-",CONCATENATE("'",'[1]HK TREATED'!E67,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E67,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27119,20 +27119,20 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="26"/>
+      <c r="B68" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="24"/>
       <c r="D68" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F68,4),"""")</f>
         <v>x"00000742"</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="25" t="str">
+      <c r="B69" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="23" t="str">
         <f>IF('[1]HK TREATED'!E69="-","-",IF(MID('[1]HK TREATED'!E69,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E69,LEN('[1]HK TREATED'!E69)-2),""""),IF(MID('[1]HK TREATED'!E69,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E69,LEN('[1]HK TREATED'!E69)-2),""""),IF(H69="-",CONCATENATE("'",'[1]HK TREATED'!E69,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E69,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27142,20 +27142,20 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="26"/>
+      <c r="B70" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="24"/>
       <c r="D70" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F70,4),"""")</f>
         <v>x"00000740"</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="25" t="str">
+      <c r="B71" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="23" t="str">
         <f>IF('[1]HK TREATED'!E71="-","-",IF(MID('[1]HK TREATED'!E71,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E71,LEN('[1]HK TREATED'!E71)-2),""""),IF(MID('[1]HK TREATED'!E71,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E71,LEN('[1]HK TREATED'!E71)-2),""""),IF(H71="-",CONCATENATE("'",'[1]HK TREATED'!E71,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E71,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27165,20 +27165,20 @@
       </c>
     </row>
     <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="26"/>
+      <c r="B72" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="24"/>
       <c r="D72" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F72,4),"""")</f>
         <v>x"00000746"</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="25" t="str">
+      <c r="B73" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="23" t="str">
         <f>IF('[1]HK TREATED'!E73="-","-",IF(MID('[1]HK TREATED'!E73,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E73,LEN('[1]HK TREATED'!E73)-2),""""),IF(MID('[1]HK TREATED'!E73,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E73,LEN('[1]HK TREATED'!E73)-2),""""),IF(H73="-",CONCATENATE("'",'[1]HK TREATED'!E73,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E73,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27188,20 +27188,20 @@
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="26"/>
+      <c r="B74" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="24"/>
       <c r="D74" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F74,4),"""")</f>
         <v>x"00000744"</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="25" t="str">
+      <c r="B75" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="23" t="str">
         <f>IF('[1]HK TREATED'!E75="-","-",IF(MID('[1]HK TREATED'!E75,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E75,LEN('[1]HK TREATED'!E75)-2),""""),IF(MID('[1]HK TREATED'!E75,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E75,LEN('[1]HK TREATED'!E75)-2),""""),IF(H75="-",CONCATENATE("'",'[1]HK TREATED'!E75,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E75,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27211,20 +27211,20 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="26"/>
+      <c r="B76" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="24"/>
       <c r="D76" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F76,4),"""")</f>
         <v>x"0000074A"</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="25" t="str">
+      <c r="B77" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="23" t="str">
         <f>IF('[1]HK TREATED'!E77="-","-",IF(MID('[1]HK TREATED'!E77,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E77,LEN('[1]HK TREATED'!E77)-2),""""),IF(MID('[1]HK TREATED'!E77,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E77,LEN('[1]HK TREATED'!E77)-2),""""),IF(H77="-",CONCATENATE("'",'[1]HK TREATED'!E77,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E77,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27234,20 +27234,20 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="26"/>
+      <c r="B78" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="24"/>
       <c r="D78" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F78,4),"""")</f>
         <v>x"00000748"</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="25" t="str">
+      <c r="B79" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="23" t="str">
         <f>IF('[1]HK TREATED'!E79="-","-",IF(MID('[1]HK TREATED'!E79,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E79,LEN('[1]HK TREATED'!E79)-2),""""),IF(MID('[1]HK TREATED'!E79,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E79,LEN('[1]HK TREATED'!E79)-2),""""),IF(H79="-",CONCATENATE("'",'[1]HK TREATED'!E79,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E79,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27257,20 +27257,20 @@
       </c>
     </row>
     <row r="80" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="26"/>
+      <c r="B80" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="24"/>
       <c r="D80" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F80,4),"""")</f>
         <v>x"0000074E"</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="25" t="str">
+      <c r="B81" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="23" t="str">
         <f>IF('[1]HK TREATED'!E81="-","-",IF(MID('[1]HK TREATED'!E81,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E81,LEN('[1]HK TREATED'!E81)-2),""""),IF(MID('[1]HK TREATED'!E81,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E81,LEN('[1]HK TREATED'!E81)-2),""""),IF(H81="-",CONCATENATE("'",'[1]HK TREATED'!E81,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E81,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27280,20 +27280,20 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="26"/>
+      <c r="B82" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="24"/>
       <c r="D82" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F82,4),"""")</f>
         <v>x"0000074C"</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="25" t="str">
+      <c r="B83" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="23" t="str">
         <f>IF('[1]HK TREATED'!E83="-","-",IF(MID('[1]HK TREATED'!E83,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E83,LEN('[1]HK TREATED'!E83)-2),""""),IF(MID('[1]HK TREATED'!E83,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E83,LEN('[1]HK TREATED'!E83)-2),""""),IF(H83="-",CONCATENATE("'",'[1]HK TREATED'!E83,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E83,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27303,20 +27303,20 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="26"/>
+      <c r="B84" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="24"/>
       <c r="D84" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F84,4),"""")</f>
         <v>x"00000752"</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="25" t="str">
+      <c r="B85" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="23" t="str">
         <f>IF('[1]HK TREATED'!E85="-","-",IF(MID('[1]HK TREATED'!E85,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E85,LEN('[1]HK TREATED'!E85)-2),""""),IF(MID('[1]HK TREATED'!E85,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E85,LEN('[1]HK TREATED'!E85)-2),""""),IF(H85="-",CONCATENATE("'",'[1]HK TREATED'!E85,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E85,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27326,20 +27326,20 @@
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="26"/>
+      <c r="B86" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="24"/>
       <c r="D86" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F86,4),"""")</f>
         <v>x"00000750"</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="25" t="str">
+      <c r="B87" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="23" t="str">
         <f>IF('[1]HK TREATED'!E87="-","-",IF(MID('[1]HK TREATED'!E87,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E87,LEN('[1]HK TREATED'!E87)-2),""""),IF(MID('[1]HK TREATED'!E87,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E87,LEN('[1]HK TREATED'!E87)-2),""""),IF(H87="-",CONCATENATE("'",'[1]HK TREATED'!E87,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E87,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27349,20 +27349,20 @@
       </c>
     </row>
     <row r="88" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="26"/>
+      <c r="B88" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="24"/>
       <c r="D88" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F88,4),"""")</f>
         <v>x"00000756"</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="25" t="str">
+      <c r="B89" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="23" t="str">
         <f>IF('[1]HK TREATED'!E89="-","-",IF(MID('[1]HK TREATED'!E89,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E89,LEN('[1]HK TREATED'!E89)-2),""""),IF(MID('[1]HK TREATED'!E89,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E89,LEN('[1]HK TREATED'!E89)-2),""""),IF(H89="-",CONCATENATE("'",'[1]HK TREATED'!E89,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E89,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27372,20 +27372,20 @@
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="26"/>
+      <c r="B90" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="24"/>
       <c r="D90" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F90,4),"""")</f>
         <v>x"00000754"</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="25" t="str">
+      <c r="B91" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="23" t="str">
         <f>IF('[1]HK TREATED'!E91="-","-",IF(MID('[1]HK TREATED'!E91,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E91,LEN('[1]HK TREATED'!E91)-2),""""),IF(MID('[1]HK TREATED'!E91,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E91,LEN('[1]HK TREATED'!E91)-2),""""),IF(H91="-",CONCATENATE("'",'[1]HK TREATED'!E91,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E91,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27395,20 +27395,20 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="26"/>
+      <c r="B92" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="24"/>
       <c r="D92" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F92,4),"""")</f>
         <v>x"0000075A"</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="25" t="str">
+      <c r="B93" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="23" t="str">
         <f>IF('[1]HK TREATED'!E93="-","-",IF(MID('[1]HK TREATED'!E93,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E93,LEN('[1]HK TREATED'!E93)-2),""""),IF(MID('[1]HK TREATED'!E93,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E93,LEN('[1]HK TREATED'!E93)-2),""""),IF(H93="-",CONCATENATE("'",'[1]HK TREATED'!E93,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E93,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27418,20 +27418,20 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="26"/>
+      <c r="B94" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="24"/>
       <c r="D94" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F94,4),"""")</f>
         <v>x"00000758"</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="25" t="str">
+      <c r="B95" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="23" t="str">
         <f>IF('[1]HK TREATED'!E95="-","-",IF(MID('[1]HK TREATED'!E95,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E95,LEN('[1]HK TREATED'!E95)-2),""""),IF(MID('[1]HK TREATED'!E95,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E95,LEN('[1]HK TREATED'!E95)-2),""""),IF(H95="-",CONCATENATE("'",'[1]HK TREATED'!E95,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E95,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27441,20 +27441,20 @@
       </c>
     </row>
     <row r="96" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="26"/>
+      <c r="B96" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="24"/>
       <c r="D96" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F96,4),"""")</f>
         <v>x"0000075E"</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="25" t="str">
+      <c r="B97" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="23" t="str">
         <f>IF('[1]HK TREATED'!E97="-","-",IF(MID('[1]HK TREATED'!E97,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E97,LEN('[1]HK TREATED'!E97)-2),""""),IF(MID('[1]HK TREATED'!E97,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E97,LEN('[1]HK TREATED'!E97)-2),""""),IF(H97="-",CONCATENATE("'",'[1]HK TREATED'!E97,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E97,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27464,20 +27464,20 @@
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="26"/>
+      <c r="B98" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="24"/>
       <c r="D98" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F98,4),"""")</f>
         <v>x"0000075C"</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" s="25" t="str">
+      <c r="B99" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="23" t="str">
         <f>IF('[1]HK TREATED'!E99="-","-",IF(MID('[1]HK TREATED'!E99,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E99,LEN('[1]HK TREATED'!E99)-2),""""),IF(MID('[1]HK TREATED'!E99,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E99,LEN('[1]HK TREATED'!E99)-2),""""),IF(H99="-",CONCATENATE("'",'[1]HK TREATED'!E99,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E99,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27487,20 +27487,20 @@
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="26"/>
+      <c r="B100" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="24"/>
       <c r="D100" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F100,4),"""")</f>
         <v>x"00000762"</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" s="25" t="str">
+      <c r="B101" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="23" t="str">
         <f>IF('[1]HK TREATED'!E101="-","-",IF(MID('[1]HK TREATED'!E101,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E101,LEN('[1]HK TREATED'!E101)-2),""""),IF(MID('[1]HK TREATED'!E101,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E101,LEN('[1]HK TREATED'!E101)-2),""""),IF(H101="-",CONCATENATE("'",'[1]HK TREATED'!E101,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E101,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27510,20 +27510,20 @@
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="26"/>
+      <c r="B102" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="24"/>
       <c r="D102" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F102,4),"""")</f>
         <v>x"00000760"</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="25" t="str">
+      <c r="B103" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="23" t="str">
         <f>IF('[1]HK TREATED'!E103="-","-",IF(MID('[1]HK TREATED'!E103,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E103,LEN('[1]HK TREATED'!E103)-2),""""),IF(MID('[1]HK TREATED'!E103,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E103,LEN('[1]HK TREATED'!E103)-2),""""),IF(H103="-",CONCATENATE("'",'[1]HK TREATED'!E103,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E103,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27533,20 +27533,20 @@
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C104" s="26"/>
+      <c r="B104" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="24"/>
       <c r="D104" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F104,4),"""")</f>
         <v>x"00000766"</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="25" t="str">
+      <c r="B105" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="23" t="str">
         <f>IF('[1]HK TREATED'!E105="-","-",IF(MID('[1]HK TREATED'!E105,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E105,LEN('[1]HK TREATED'!E105)-2),""""),IF(MID('[1]HK TREATED'!E105,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E105,LEN('[1]HK TREATED'!E105)-2),""""),IF(H105="-",CONCATENATE("'",'[1]HK TREATED'!E105,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E105,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27556,20 +27556,20 @@
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="26"/>
+      <c r="B106" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="24"/>
       <c r="D106" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F106,4),"""")</f>
         <v>x"00000764"</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="25" t="str">
+      <c r="B107" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="23" t="str">
         <f>IF('[1]HK TREATED'!E107="-","-",IF(MID('[1]HK TREATED'!E107,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E107,LEN('[1]HK TREATED'!E107)-2),""""),IF(MID('[1]HK TREATED'!E107,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E107,LEN('[1]HK TREATED'!E107)-2),""""),IF(H107="-",CONCATENATE("'",'[1]HK TREATED'!E107,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E107,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27579,20 +27579,20 @@
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="26"/>
+      <c r="B108" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="24"/>
       <c r="D108" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F108,4),"""")</f>
         <v>x"0000076A"</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="25" t="str">
+      <c r="B109" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="23" t="str">
         <f>IF('[1]HK TREATED'!E109="-","-",IF(MID('[1]HK TREATED'!E109,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E109,LEN('[1]HK TREATED'!E109)-2),""""),IF(MID('[1]HK TREATED'!E109,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E109,LEN('[1]HK TREATED'!E109)-2),""""),IF(H109="-",CONCATENATE("'",'[1]HK TREATED'!E109,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E109,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27602,20 +27602,20 @@
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="26"/>
+      <c r="B110" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="24"/>
       <c r="D110" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F110,4),"""")</f>
         <v>x"00000768"</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="25" t="str">
+      <c r="B111" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="23" t="str">
         <f>IF('[1]HK TREATED'!E111="-","-",IF(MID('[1]HK TREATED'!E111,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E111,LEN('[1]HK TREATED'!E111)-2),""""),IF(MID('[1]HK TREATED'!E111,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E111,LEN('[1]HK TREATED'!E111)-2),""""),IF(H111="-",CONCATENATE("'",'[1]HK TREATED'!E111,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E111,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27625,20 +27625,20 @@
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="26"/>
+      <c r="B112" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="24"/>
       <c r="D112" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F112,4),"""")</f>
         <v>x"0000076E"</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" s="25" t="str">
+      <c r="B113" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="23" t="str">
         <f>IF('[1]HK TREATED'!E113="-","-",IF(MID('[1]HK TREATED'!E113,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E113,LEN('[1]HK TREATED'!E113)-2),""""),IF(MID('[1]HK TREATED'!E113,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E113,LEN('[1]HK TREATED'!E113)-2),""""),IF(H113="-",CONCATENATE("'",'[1]HK TREATED'!E113,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E113,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27648,20 +27648,20 @@
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" s="26"/>
+      <c r="B114" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="24"/>
       <c r="D114" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F114,4),"""")</f>
         <v>x"0000076C"</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="25" t="str">
+      <c r="B115" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="23" t="str">
         <f>IF('[1]HK TREATED'!E115="-","-",IF(MID('[1]HK TREATED'!E115,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E115,LEN('[1]HK TREATED'!E115)-2),""""),IF(MID('[1]HK TREATED'!E115,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E115,LEN('[1]HK TREATED'!E115)-2),""""),IF(H115="-",CONCATENATE("'",'[1]HK TREATED'!E115,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E115,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27671,20 +27671,20 @@
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="26"/>
+      <c r="B116" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="24"/>
       <c r="D116" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F116,4),"""")</f>
         <v>x"00000772"</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="25" t="str">
+      <c r="B117" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="23" t="str">
         <f>IF('[1]HK TREATED'!E117="-","-",IF(MID('[1]HK TREATED'!E117,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E117,LEN('[1]HK TREATED'!E117)-2),""""),IF(MID('[1]HK TREATED'!E117,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E117,LEN('[1]HK TREATED'!E117)-2),""""),IF(H117="-",CONCATENATE("'",'[1]HK TREATED'!E117,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E117,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27694,20 +27694,20 @@
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" s="26"/>
+      <c r="B118" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118" s="24"/>
       <c r="D118" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F118,4),"""")</f>
         <v>x"00000770"</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="25" t="str">
+      <c r="B119" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="23" t="str">
         <f>IF('[1]HK TREATED'!E119="-","-",IF(MID('[1]HK TREATED'!E119,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E119,LEN('[1]HK TREATED'!E119)-2),""""),IF(MID('[1]HK TREATED'!E119,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E119,LEN('[1]HK TREATED'!E119)-2),""""),IF(H119="-",CONCATENATE("'",'[1]HK TREATED'!E119,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E119,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27717,20 +27717,20 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" s="26"/>
+      <c r="B120" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="24"/>
       <c r="D120" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F120,4),"""")</f>
         <v>x"00000776"</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="25" t="str">
+      <c r="B121" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="23" t="str">
         <f>IF('[1]HK TREATED'!E121="-","-",IF(MID('[1]HK TREATED'!E121,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E121,LEN('[1]HK TREATED'!E121)-2),""""),IF(MID('[1]HK TREATED'!E121,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E121,LEN('[1]HK TREATED'!E121)-2),""""),IF(H121="-",CONCATENATE("'",'[1]HK TREATED'!E121,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E121,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27740,20 +27740,20 @@
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="26"/>
+      <c r="B122" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="24"/>
       <c r="D122" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F122,4),"""")</f>
         <v>x"00000774"</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="25" t="str">
+      <c r="B123" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="23" t="str">
         <f>IF('[1]HK TREATED'!E123="-","-",IF(MID('[1]HK TREATED'!E123,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E123,LEN('[1]HK TREATED'!E123)-2),""""),IF(MID('[1]HK TREATED'!E123,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E123,LEN('[1]HK TREATED'!E123)-2),""""),IF(H123="-",CONCATENATE("'",'[1]HK TREATED'!E123,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E123,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27763,20 +27763,20 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C124" s="26"/>
+      <c r="B124" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="24"/>
       <c r="D124" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F124,4),"""")</f>
         <v>x"0000077A"</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C125" s="25" t="str">
+      <c r="B125" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="23" t="str">
         <f>IF('[1]HK TREATED'!E125="-","-",IF(MID('[1]HK TREATED'!E125,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E125,LEN('[1]HK TREATED'!E125)-2),""""),IF(MID('[1]HK TREATED'!E125,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E125,LEN('[1]HK TREATED'!E125)-2),""""),IF(H125="-",CONCATENATE("'",'[1]HK TREATED'!E125,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E125,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27786,20 +27786,20 @@
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="26"/>
+      <c r="B126" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="24"/>
       <c r="D126" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F126,4),"""")</f>
         <v>x"00000778"</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C127" s="25" t="str">
+      <c r="B127" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="23" t="str">
         <f>IF('[1]HK TREATED'!E127="-","-",IF(MID('[1]HK TREATED'!E127,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E127,LEN('[1]HK TREATED'!E127)-2),""""),IF(MID('[1]HK TREATED'!E127,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E127,LEN('[1]HK TREATED'!E127)-2),""""),IF(H127="-",CONCATENATE("'",'[1]HK TREATED'!E127,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E127,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27809,20 +27809,20 @@
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="26"/>
+      <c r="B128" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="24"/>
       <c r="D128" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F128,4),"""")</f>
         <v>x"0000077E"</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="25" t="str">
+      <c r="B129" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="23" t="str">
         <f>IF('[1]HK TREATED'!E129="-","-",IF(MID('[1]HK TREATED'!E129,2,1)="x",CONCATENATE("x""",RIGHT('[1]HK TREATED'!E129,LEN('[1]HK TREATED'!E129)-2),""""),IF(MID('[1]HK TREATED'!E129,2,1)="b",CONCATENATE("""",RIGHT('[1]HK TREATED'!E129,LEN('[1]HK TREATED'!E129)-2),""""),IF(H129="-",CONCATENATE("'",'[1]HK TREATED'!E129,"'"),CONCATENATE("(others =&gt; '",'[1]HK TREATED'!E129,"')")))))</f>
         <v>x"FFFF"</v>
       </c>
@@ -27832,10 +27832,10 @@
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" s="26"/>
+      <c r="B130" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="24"/>
       <c r="D130" s="12" t="str">
         <f>CONCATENATE("x""0000",RIGHT('[1]HK TREATED'!F130,4),"""")</f>
         <v>x"0000077C"</v>
@@ -27843,28 +27843,88 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -27889,88 +27949,28 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27995,7 +27995,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
@@ -28016,7 +28016,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
@@ -28037,7 +28037,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
@@ -28049,7 +28049,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -28082,7 +28082,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>13</v>
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -28115,7 +28115,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
@@ -28136,7 +28136,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -28148,7 +28148,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
@@ -28181,7 +28181,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -28202,7 +28202,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
@@ -28214,7 +28214,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
@@ -28247,7 +28247,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
@@ -28280,7 +28280,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>13</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -28313,7 +28313,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>13</v>
@@ -28334,7 +28334,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -28346,7 +28346,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -28367,7 +28367,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -28379,7 +28379,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
@@ -28400,7 +28400,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -28412,7 +28412,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -28433,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -28445,7 +28445,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -28478,7 +28478,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -28511,7 +28511,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -28544,7 +28544,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -28565,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -28577,7 +28577,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -28598,7 +28598,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -28610,7 +28610,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -28643,7 +28643,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>13</v>
@@ -28664,7 +28664,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
@@ -28676,7 +28676,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>13</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
@@ -28709,7 +28709,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>13</v>
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
@@ -28742,7 +28742,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>13</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
@@ -28775,7 +28775,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>13</v>
@@ -28796,7 +28796,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
@@ -28808,7 +28808,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>13</v>
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
@@ -28841,7 +28841,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>13</v>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
@@ -28874,7 +28874,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>13</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
@@ -28907,7 +28907,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>13</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
@@ -28940,7 +28940,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>13</v>
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
@@ -28973,7 +28973,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>13</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
@@ -29006,7 +29006,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>13</v>
@@ -29027,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
@@ -29039,7 +29039,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>13</v>
@@ -29060,7 +29060,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ref="L34:L67" si="1">CONCATENATE(B34,C34,D34,E34,F34,G34,H34,I34,J34)</f>
@@ -29072,7 +29072,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>13</v>
@@ -29093,7 +29093,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
@@ -29105,7 +29105,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
@@ -29138,7 +29138,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>13</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
@@ -29171,7 +29171,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>13</v>
@@ -29192,7 +29192,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
@@ -29204,7 +29204,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>13</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
@@ -29237,7 +29237,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>13</v>
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
@@ -29270,7 +29270,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>13</v>
@@ -29291,7 +29291,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
@@ -29303,7 +29303,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>13</v>
@@ -29324,7 +29324,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
@@ -29336,7 +29336,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>13</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
@@ -29369,7 +29369,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>13</v>
@@ -29390,7 +29390,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
@@ -29402,7 +29402,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>13</v>
@@ -29423,7 +29423,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
@@ -29435,7 +29435,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>13</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
@@ -29468,7 +29468,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>13</v>
@@ -29489,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
@@ -29501,7 +29501,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>13</v>
@@ -29522,7 +29522,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
@@ -29534,7 +29534,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>13</v>
@@ -29555,7 +29555,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
@@ -29567,7 +29567,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>13</v>
@@ -29588,7 +29588,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
@@ -29600,7 +29600,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>13</v>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
@@ -29633,7 +29633,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>13</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
@@ -29666,7 +29666,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>13</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
@@ -29699,7 +29699,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>13</v>
@@ -29720,7 +29720,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
@@ -29732,7 +29732,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>13</v>
@@ -29753,7 +29753,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
@@ -29765,7 +29765,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>13</v>
@@ -29786,7 +29786,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="1"/>
@@ -29798,7 +29798,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>13</v>
@@ -29819,7 +29819,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="1"/>
@@ -29831,7 +29831,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>13</v>
@@ -29852,7 +29852,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="1"/>
@@ -29864,7 +29864,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>13</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
@@ -29897,7 +29897,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>13</v>
@@ -29918,7 +29918,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="1"/>
@@ -29930,7 +29930,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>13</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="1"/>
@@ -29963,7 +29963,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>13</v>
@@ -29984,7 +29984,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="1"/>
@@ -29996,7 +29996,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>13</v>
@@ -30017,7 +30017,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
@@ -30029,7 +30029,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>13</v>
@@ -30050,7 +30050,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
@@ -30062,7 +30062,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>13</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
@@ -30095,7 +30095,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>13</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
@@ -30154,7 +30154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S268"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:S265"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30175,18 +30177,18 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -30204,7 +30206,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" t="str">
         <f>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
@@ -30213,13 +30215,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -30246,7 +30248,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" t="str">
         <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3)</f>
@@ -30255,15 +30257,15 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>38</v>
@@ -30297,7 +30299,7 @@
       </c>
       <c r="S6" t="str">
         <f>CONCATENATE(B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6)</f>
-        <v>signal s_rmap_read_address  : std_logic_vector(31 downto 0);</v>
+        <v>signal rd_addr_i(31 downto 0)  : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -30311,7 +30313,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>C6</f>
-        <v>s_rmap_read_address</v>
+        <v>rd_addr_i(31 downto 0)</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -30331,7 +30333,7 @@
       <c r="Q9" s="5"/>
       <c r="S9" t="str">
         <f t="shared" ref="S9:S72" si="0">CONCATENATE(B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9)</f>
-        <v>case (s_rmap_read_address) is</v>
+        <v>case (rd_addr_i(31 downto 0)) is</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -41194,7 +41196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X332"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X269" sqref="X269:X332"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -41224,18 +41228,18 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -41269,7 +41273,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X2" t="str">
         <f>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2)</f>
@@ -41278,13 +41282,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -41307,7 +41311,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" t="str">
         <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3)</f>
@@ -41316,15 +41320,15 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>38</v>
@@ -41365,7 +41369,7 @@
       </c>
       <c r="X6" t="str">
         <f>CONCATENATE(B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6,R6,S6,T6,U6,V6)</f>
-        <v>signal s_rmap_write_address  : std_logic_vector(31 downto 0);</v>
+        <v>signal wr_addr_i(31 downto 0)  : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -41379,13 +41383,13 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>$C$6</f>
-        <v>s_rmap_write_address</v>
+        <v>wr_addr_i(31 downto 0)</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -41406,7 +41410,7 @@
       <c r="V9" s="5"/>
       <c r="X9" t="str">
         <f t="shared" ref="X9:X72" si="0">CONCATENATE(B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9,T9,U9,V9)</f>
-        <v>case (s_rmap_write_address) is</v>
+        <v>case (wr_addr_i(31 downto 0)) is</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -53472,7 +53476,7 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.3">
